--- a/result/Result.xlsx
+++ b/result/Result.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="21760" tabRatio="500"/>
@@ -872,10 +872,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="I311" sqref="I311"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H200" sqref="H200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -918,7 +919,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -933,18 +934,18 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1">
-        <v>0.98670000000000002</v>
+        <v>0.9879</v>
       </c>
       <c r="H2">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" hidden="1">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -959,18 +960,18 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1">
-        <v>0.10100000000000001</v>
+        <v>9.8199999999999996E-2</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -985,18 +986,18 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1">
-        <v>0.96409999999999996</v>
+        <v>0.9657</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" hidden="1">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1011,18 +1012,18 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1">
-        <v>0.97619999999999996</v>
+        <v>0.97460000000000002</v>
       </c>
       <c r="H5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" hidden="1">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1037,18 +1038,18 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1">
-        <v>0.98019999999999996</v>
+        <v>0.97860000000000003</v>
       </c>
       <c r="H6">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1063,18 +1064,18 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1">
-        <v>0.98150000000000004</v>
+        <v>0.98209999999999997</v>
       </c>
       <c r="H7">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" hidden="1">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1089,18 +1090,18 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1">
-        <v>0.9839</v>
+        <v>0.98440000000000005</v>
       </c>
       <c r="H8">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1115,18 +1116,18 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1">
-        <v>0.98340000000000005</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="H9">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" hidden="1">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1141,18 +1142,18 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1">
-        <v>0.9849</v>
+        <v>0.98450000000000004</v>
       </c>
       <c r="H10">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" hidden="1">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1167,18 +1168,18 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1">
-        <v>0.98470000000000002</v>
+        <v>0.98460000000000003</v>
       </c>
       <c r="H11">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" hidden="1">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1193,18 +1194,18 @@
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1">
-        <v>0.98450000000000004</v>
+        <v>0.9839</v>
       </c>
       <c r="H12">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" hidden="1">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1219,18 +1220,18 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1">
-        <v>0.98570000000000002</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="H13">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" hidden="1">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1245,18 +1246,18 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1">
-        <v>0.98540000000000005</v>
+        <v>0.9859</v>
       </c>
       <c r="H14">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" hidden="1">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1271,18 +1272,18 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G15" s="1">
-        <v>0.98609999999999998</v>
+        <v>0.98660000000000003</v>
       </c>
       <c r="H15">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" hidden="1">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1297,18 +1298,18 @@
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G16" s="1">
-        <v>0.98660000000000003</v>
+        <v>0.9869</v>
       </c>
       <c r="H16">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" hidden="1">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1323,18 +1324,18 @@
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1">
-        <v>0.98740000000000006</v>
+        <v>0.9869</v>
       </c>
       <c r="H17">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" hidden="1">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1349,18 +1350,18 @@
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G18" s="1">
-        <v>0.9869</v>
+        <v>0.98640000000000005</v>
       </c>
       <c r="H18">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" hidden="1">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1375,18 +1376,18 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G19" s="1">
-        <v>0.98660000000000003</v>
+        <v>0.98680000000000001</v>
       </c>
       <c r="H19">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" hidden="1">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1401,18 +1402,18 @@
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G20" s="1">
-        <v>0.98629999999999995</v>
+        <v>0.98750000000000004</v>
       </c>
       <c r="H20">
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" hidden="1">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1427,18 +1428,18 @@
         <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G21" s="1">
-        <v>0.9869</v>
+        <v>0.98819999999999997</v>
       </c>
       <c r="H21">
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" hidden="1">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1453,18 +1454,18 @@
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G22" s="1">
-        <v>0.98680000000000001</v>
+        <v>0.98839999999999995</v>
       </c>
       <c r="H22">
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" hidden="1">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1479,10 +1480,10 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G23" s="1">
-        <v>0.98719999999999997</v>
+        <v>0.9879</v>
       </c>
       <c r="H23">
         <v>200</v>
@@ -1490,7 +1491,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1505,18 +1506,18 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G24" s="1">
-        <v>0.98809999999999998</v>
+        <v>0.98670000000000002</v>
       </c>
       <c r="H24">
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" hidden="1">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1531,18 +1532,18 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G25" s="1">
-        <v>9.8199999999999996E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" hidden="1">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1557,18 +1558,18 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G26" s="1">
-        <v>0.96650000000000003</v>
+        <v>0.96409999999999996</v>
       </c>
       <c r="H26">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" hidden="1">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1583,18 +1584,18 @@
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G27" s="1">
-        <v>0.97499999999999998</v>
+        <v>0.97619999999999996</v>
       </c>
       <c r="H27">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" hidden="1">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1609,18 +1610,18 @@
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G28" s="1">
-        <v>0.98040000000000005</v>
+        <v>0.98019999999999996</v>
       </c>
       <c r="H28">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" hidden="1">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1635,18 +1636,18 @@
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G29" s="1">
-        <v>0.98240000000000005</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="H29">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" hidden="1">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1661,18 +1662,18 @@
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G30" s="1">
-        <v>0.9829</v>
+        <v>0.9839</v>
       </c>
       <c r="H30">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" hidden="1">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1687,18 +1688,18 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G31" s="1">
-        <v>0.98380000000000001</v>
+        <v>0.98340000000000005</v>
       </c>
       <c r="H31">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" hidden="1">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1713,18 +1714,18 @@
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G32" s="1">
-        <v>0.98419999999999996</v>
+        <v>0.9849</v>
       </c>
       <c r="H32">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" hidden="1">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1739,18 +1740,18 @@
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G33" s="1">
-        <v>0.98560000000000003</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="H33">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" hidden="1">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1765,18 +1766,18 @@
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G34" s="1">
-        <v>0.9849</v>
+        <v>0.98450000000000004</v>
       </c>
       <c r="H34">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" hidden="1">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1791,18 +1792,18 @@
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G35" s="1">
-        <v>0.98619999999999997</v>
+        <v>0.98570000000000002</v>
       </c>
       <c r="H35">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" hidden="1">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1817,18 +1818,18 @@
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G36" s="1">
-        <v>0.98609999999999998</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="H36">
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" hidden="1">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1843,18 +1844,18 @@
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G37" s="1">
-        <v>0.98599999999999999</v>
+        <v>0.98609999999999998</v>
       </c>
       <c r="H37">
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" hidden="1">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1869,18 +1870,18 @@
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G38" s="1">
-        <v>0.98619999999999997</v>
+        <v>0.98660000000000003</v>
       </c>
       <c r="H38">
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" hidden="1">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1895,18 +1896,18 @@
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G39" s="1">
-        <v>0.98619999999999997</v>
+        <v>0.98740000000000006</v>
       </c>
       <c r="H39">
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" hidden="1">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1921,18 +1922,18 @@
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G40" s="1">
-        <v>0.98650000000000004</v>
+        <v>0.9869</v>
       </c>
       <c r="H40">
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" hidden="1">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1947,18 +1948,18 @@
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G41" s="1">
-        <v>0.98619999999999997</v>
+        <v>0.98660000000000003</v>
       </c>
       <c r="H41">
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" hidden="1">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1973,18 +1974,18 @@
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G42" s="1">
-        <v>0.98760000000000003</v>
+        <v>0.98629999999999995</v>
       </c>
       <c r="H42">
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" hidden="1">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1999,18 +2000,18 @@
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G43" s="1">
-        <v>0.98780000000000001</v>
+        <v>0.9869</v>
       </c>
       <c r="H43">
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" hidden="1">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2025,18 +2026,18 @@
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G44" s="1">
-        <v>0.98660000000000003</v>
+        <v>0.98680000000000001</v>
       </c>
       <c r="H44">
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" hidden="1">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2051,10 +2052,10 @@
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G45" s="1">
-        <v>0.98619999999999997</v>
+        <v>0.98719999999999997</v>
       </c>
       <c r="H45">
         <v>200</v>
@@ -2062,7 +2063,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2077,18 +2078,18 @@
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G46" s="1">
-        <v>0.98770000000000002</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="H46">
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" hidden="1">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -2103,18 +2104,18 @@
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G47" s="1">
-        <v>0.10100000000000001</v>
+        <v>8.9200000000000002E-2</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" hidden="1">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -2129,18 +2130,18 @@
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G48" s="1">
-        <v>0.9637</v>
+        <v>0.97070000000000001</v>
       </c>
       <c r="H48">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" hidden="1">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -2155,18 +2156,18 @@
         <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G49" s="1">
-        <v>0.97699999999999998</v>
+        <v>0.97840000000000005</v>
       </c>
       <c r="H49">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" hidden="1">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2181,18 +2182,18 @@
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G50" s="1">
-        <v>0.98140000000000005</v>
+        <v>0.98129999999999995</v>
       </c>
       <c r="H50">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" hidden="1">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -2207,18 +2208,18 @@
         <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G51" s="1">
-        <v>0.98270000000000002</v>
+        <v>0.98480000000000001</v>
       </c>
       <c r="H51">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" hidden="1">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -2233,18 +2234,18 @@
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G52" s="1">
-        <v>0.98399999999999999</v>
+        <v>0.98440000000000005</v>
       </c>
       <c r="H52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" hidden="1">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -2259,18 +2260,18 @@
         <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G53" s="1">
-        <v>0.9849</v>
+        <v>0.98529999999999995</v>
       </c>
       <c r="H53">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" hidden="1">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -2285,18 +2286,18 @@
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G54" s="1">
-        <v>0.98729999999999996</v>
+        <v>0.98580000000000001</v>
       </c>
       <c r="H54">
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" hidden="1">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -2311,18 +2312,18 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G55" s="1">
-        <v>0.98599999999999999</v>
+        <v>0.98650000000000004</v>
       </c>
       <c r="H55">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" hidden="1">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -2337,18 +2338,18 @@
         <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G56" s="1">
-        <v>0.98750000000000004</v>
+        <v>0.98529999999999995</v>
       </c>
       <c r="H56">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" hidden="1">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -2363,18 +2364,18 @@
         <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G57" s="1">
-        <v>0.9869</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="H57">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" hidden="1">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -2389,18 +2390,18 @@
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G58" s="1">
-        <v>0.98680000000000001</v>
+        <v>0.98660000000000003</v>
       </c>
       <c r="H58">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" hidden="1">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -2415,18 +2416,18 @@
         <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G59" s="1">
-        <v>0.98670000000000002</v>
+        <v>0.98680000000000001</v>
       </c>
       <c r="H59">
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" hidden="1">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -2441,18 +2442,18 @@
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G60" s="1">
-        <v>0.98760000000000003</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="H60">
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" hidden="1">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -2467,7 +2468,7 @@
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G61" s="1">
         <v>0.9869</v>
@@ -2476,9 +2477,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" hidden="1">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -2493,18 +2494,18 @@
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G62" s="1">
-        <v>0.98670000000000002</v>
+        <v>0.98660000000000003</v>
       </c>
       <c r="H62">
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" hidden="1">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -2519,18 +2520,18 @@
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G63" s="1">
-        <v>0.9879</v>
+        <v>0.98729999999999996</v>
       </c>
       <c r="H63">
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" hidden="1">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -2545,18 +2546,18 @@
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G64" s="1">
-        <v>0.9879</v>
+        <v>0.98619999999999997</v>
       </c>
       <c r="H64">
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" hidden="1">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -2571,18 +2572,18 @@
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G65" s="1">
-        <v>0.98699999999999999</v>
+        <v>0.98609999999999998</v>
       </c>
       <c r="H65">
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" hidden="1">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -2597,18 +2598,18 @@
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G66" s="1">
-        <v>0.98760000000000003</v>
+        <v>0.9859</v>
       </c>
       <c r="H66">
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" hidden="1">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -2623,10 +2624,10 @@
         <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G67" s="1">
-        <v>0.9869</v>
+        <v>0.9859</v>
       </c>
       <c r="H67">
         <v>200</v>
@@ -2634,7 +2635,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -2649,18 +2650,18 @@
         <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G68" s="1">
-        <v>0.98729999999999996</v>
+        <v>0.98670000000000002</v>
       </c>
       <c r="H68">
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" hidden="1">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -2675,18 +2676,18 @@
         <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G69" s="1">
-        <v>9.8199999999999996E-2</v>
+        <v>9.5799999999999996E-2</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" hidden="1">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -2701,18 +2702,18 @@
         <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G70" s="1">
-        <v>0.96499999999999997</v>
+        <v>0.97030000000000005</v>
       </c>
       <c r="H70">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" hidden="1">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -2727,18 +2728,18 @@
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G71" s="1">
-        <v>0.97609999999999997</v>
+        <v>0.97819999999999996</v>
       </c>
       <c r="H71">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" hidden="1">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -2753,18 +2754,18 @@
         <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G72" s="1">
-        <v>0.97899999999999998</v>
+        <v>0.98009999999999997</v>
       </c>
       <c r="H72">
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" hidden="1">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -2779,18 +2780,18 @@
         <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G73" s="1">
-        <v>0.98109999999999997</v>
+        <v>0.98260000000000003</v>
       </c>
       <c r="H73">
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" hidden="1">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -2805,18 +2806,18 @@
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G74" s="1">
-        <v>0.98380000000000001</v>
+        <v>0.98460000000000003</v>
       </c>
       <c r="H74">
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" hidden="1">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -2831,18 +2832,18 @@
         <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G75" s="1">
-        <v>0.98399999999999999</v>
+        <v>0.98360000000000003</v>
       </c>
       <c r="H75">
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" hidden="1">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -2857,18 +2858,18 @@
         <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G76" s="1">
-        <v>0.98619999999999997</v>
+        <v>0.98570000000000002</v>
       </c>
       <c r="H76">
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" hidden="1">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -2883,18 +2884,18 @@
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G77" s="1">
-        <v>0.98580000000000001</v>
+        <v>0.9849</v>
       </c>
       <c r="H77">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" hidden="1">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -2909,18 +2910,18 @@
         <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G78" s="1">
-        <v>0.9859</v>
+        <v>0.98570000000000002</v>
       </c>
       <c r="H78">
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" hidden="1">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -2935,18 +2936,18 @@
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G79" s="1">
-        <v>0.98640000000000005</v>
+        <v>0.98560000000000003</v>
       </c>
       <c r="H79">
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" hidden="1">
       <c r="A80" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -2961,18 +2962,18 @@
         <v>9</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G80" s="1">
-        <v>0.98619999999999997</v>
+        <v>0.98719999999999997</v>
       </c>
       <c r="H80">
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" hidden="1">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -2987,18 +2988,18 @@
         <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G81" s="1">
-        <v>0.98650000000000004</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="H81">
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" hidden="1">
       <c r="A82" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -3013,7 +3014,7 @@
         <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G82" s="1">
         <v>0.98580000000000001</v>
@@ -3022,9 +3023,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" hidden="1">
       <c r="A83" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -3039,18 +3040,18 @@
         <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G83" s="1">
-        <v>0.98740000000000006</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="H83">
         <v>140</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" hidden="1">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -3065,18 +3066,18 @@
         <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G84" s="1">
-        <v>0.98799999999999999</v>
+        <v>0.98629999999999995</v>
       </c>
       <c r="H84">
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" hidden="1">
       <c r="A85" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -3091,18 +3092,18 @@
         <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G85" s="1">
-        <v>0.98650000000000004</v>
+        <v>0.98640000000000005</v>
       </c>
       <c r="H85">
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" hidden="1">
       <c r="A86" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -3117,18 +3118,18 @@
         <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G86" s="1">
-        <v>0.98629999999999995</v>
+        <v>0.98660000000000003</v>
       </c>
       <c r="H86">
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" hidden="1">
       <c r="A87" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -3143,18 +3144,18 @@
         <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G87" s="1">
-        <v>0.98699999999999999</v>
+        <v>0.98580000000000001</v>
       </c>
       <c r="H87">
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" hidden="1">
       <c r="A88" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -3169,18 +3170,18 @@
         <v>9</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G88" s="1">
-        <v>0.98770000000000002</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="H88">
         <v>190</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" hidden="1">
       <c r="A89" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -3195,10 +3196,10 @@
         <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G89" s="1">
-        <v>0.98809999999999998</v>
+        <v>0.98719999999999997</v>
       </c>
       <c r="H89">
         <v>200</v>
@@ -3206,7 +3207,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -3221,18 +3222,18 @@
         <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G90" s="1">
-        <v>0.98729999999999996</v>
+        <v>0.98640000000000005</v>
       </c>
       <c r="H90">
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" hidden="1">
       <c r="A91" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -3247,18 +3248,18 @@
         <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G91" s="1">
-        <v>0.1009</v>
+        <v>0.1032</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" hidden="1">
       <c r="A92" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -3273,18 +3274,18 @@
         <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G92" s="1">
-        <v>0.96609999999999996</v>
+        <v>0.96220000000000006</v>
       </c>
       <c r="H92">
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" hidden="1">
       <c r="A93" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -3299,18 +3300,18 @@
         <v>9</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G93" s="1">
-        <v>0.97840000000000005</v>
+        <v>0.97729999999999995</v>
       </c>
       <c r="H93">
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" hidden="1">
       <c r="A94" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -3325,18 +3326,18 @@
         <v>9</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G94" s="1">
-        <v>0.9819</v>
+        <v>0.98080000000000001</v>
       </c>
       <c r="H94">
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" hidden="1">
       <c r="A95" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -3351,18 +3352,18 @@
         <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G95" s="1">
-        <v>0.98360000000000003</v>
+        <v>0.98260000000000003</v>
       </c>
       <c r="H95">
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" hidden="1">
       <c r="A96" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -3377,18 +3378,18 @@
         <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G96" s="1">
-        <v>0.98419999999999996</v>
+        <v>0.98380000000000001</v>
       </c>
       <c r="H96">
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" hidden="1">
       <c r="A97" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -3403,18 +3404,18 @@
         <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G97" s="1">
-        <v>0.98509999999999998</v>
+        <v>0.98450000000000004</v>
       </c>
       <c r="H97">
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" hidden="1">
       <c r="A98" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -3429,18 +3430,18 @@
         <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G98" s="1">
-        <v>0.98440000000000005</v>
+        <v>0.98480000000000001</v>
       </c>
       <c r="H98">
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" hidden="1">
       <c r="A99" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -3455,18 +3456,18 @@
         <v>9</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G99" s="1">
-        <v>0.98570000000000002</v>
+        <v>0.98550000000000004</v>
       </c>
       <c r="H99">
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" hidden="1">
       <c r="A100" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -3481,18 +3482,18 @@
         <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G100" s="1">
-        <v>0.98680000000000001</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="H100">
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" hidden="1">
       <c r="A101" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -3507,18 +3508,18 @@
         <v>9</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G101" s="1">
-        <v>0.98519999999999996</v>
+        <v>0.98580000000000001</v>
       </c>
       <c r="H101">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" hidden="1">
       <c r="A102" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -3533,18 +3534,18 @@
         <v>9</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G102" s="1">
-        <v>0.9859</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="H102">
         <v>110</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" hidden="1">
       <c r="A103" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -3559,18 +3560,18 @@
         <v>9</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G103" s="1">
-        <v>0.98599999999999999</v>
+        <v>0.98580000000000001</v>
       </c>
       <c r="H103">
         <v>120</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" hidden="1">
       <c r="A104" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -3585,18 +3586,18 @@
         <v>9</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G104" s="1">
-        <v>0.98650000000000004</v>
+        <v>0.9859</v>
       </c>
       <c r="H104">
         <v>130</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" hidden="1">
       <c r="A105" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -3611,18 +3612,18 @@
         <v>9</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G105" s="1">
-        <v>0.9869</v>
+        <v>0.98629999999999995</v>
       </c>
       <c r="H105">
         <v>140</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" hidden="1">
       <c r="A106" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -3637,18 +3638,18 @@
         <v>9</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G106" s="1">
-        <v>0.98719999999999997</v>
+        <v>0.98629999999999995</v>
       </c>
       <c r="H106">
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" hidden="1">
       <c r="A107" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -3663,18 +3664,18 @@
         <v>9</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G107" s="1">
-        <v>0.98799999999999999</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="H107">
         <v>160</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" hidden="1">
       <c r="A108" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -3689,18 +3690,18 @@
         <v>9</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G108" s="1">
-        <v>0.98780000000000001</v>
+        <v>0.98719999999999997</v>
       </c>
       <c r="H108">
         <v>170</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" hidden="1">
       <c r="A109" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -3715,18 +3716,18 @@
         <v>9</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G109" s="1">
-        <v>0.98660000000000003</v>
+        <v>0.98570000000000002</v>
       </c>
       <c r="H109">
         <v>180</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" hidden="1">
       <c r="A110" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -3741,18 +3742,18 @@
         <v>9</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G110" s="1">
-        <v>0.98760000000000003</v>
+        <v>0.9869</v>
       </c>
       <c r="H110">
         <v>190</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" hidden="1">
       <c r="A111" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -3767,10 +3768,10 @@
         <v>9</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G111" s="1">
-        <v>0.98760000000000003</v>
+        <v>0.98670000000000002</v>
       </c>
       <c r="H111">
         <v>200</v>
@@ -3778,7 +3779,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -3793,18 +3794,18 @@
         <v>9</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G112" s="1">
-        <v>0.98839999999999995</v>
+        <v>0.98760000000000003</v>
       </c>
       <c r="H112">
         <v>-1</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" hidden="1">
       <c r="A113" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -3819,18 +3820,18 @@
         <v>9</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G113" s="1">
-        <v>0.1009</v>
+        <v>9.5799999999999996E-2</v>
       </c>
       <c r="H113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" hidden="1">
       <c r="A114" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -3845,18 +3846,18 @@
         <v>9</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G114" s="1">
-        <v>0.9637</v>
+        <v>0.96860000000000002</v>
       </c>
       <c r="H114">
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" hidden="1">
       <c r="A115" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -3871,18 +3872,18 @@
         <v>9</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G115" s="1">
-        <v>0.97560000000000002</v>
+        <v>0.97850000000000004</v>
       </c>
       <c r="H115">
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" hidden="1">
       <c r="A116" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -3897,18 +3898,18 @@
         <v>9</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G116" s="1">
-        <v>0.98029999999999995</v>
+        <v>0.9788</v>
       </c>
       <c r="H116">
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" hidden="1">
       <c r="A117" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -3923,18 +3924,18 @@
         <v>9</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G117" s="1">
-        <v>0.98160000000000003</v>
+        <v>0.9839</v>
       </c>
       <c r="H117">
         <v>40</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" hidden="1">
       <c r="A118" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -3949,7 +3950,7 @@
         <v>9</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G118" s="1">
         <v>0.98419999999999996</v>
@@ -3958,9 +3959,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" hidden="1">
       <c r="A119" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -3975,18 +3976,18 @@
         <v>9</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G119" s="1">
-        <v>0.9839</v>
+        <v>0.98340000000000005</v>
       </c>
       <c r="H119">
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" hidden="1">
       <c r="A120" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -4001,18 +4002,18 @@
         <v>9</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G120" s="1">
-        <v>0.98540000000000005</v>
+        <v>0.98709999999999998</v>
       </c>
       <c r="H120">
         <v>70</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" hidden="1">
       <c r="A121" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -4027,18 +4028,18 @@
         <v>9</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G121" s="1">
-        <v>0.9859</v>
+        <v>0.98680000000000001</v>
       </c>
       <c r="H121">
         <v>80</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" hidden="1">
       <c r="A122" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -4053,18 +4054,18 @@
         <v>9</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G122" s="1">
-        <v>0.98609999999999998</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="H122">
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" hidden="1">
       <c r="A123" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -4079,18 +4080,18 @@
         <v>9</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G123" s="1">
-        <v>0.98660000000000003</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="H123">
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" hidden="1">
       <c r="A124" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -4105,18 +4106,18 @@
         <v>9</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G124" s="1">
-        <v>0.98580000000000001</v>
+        <v>0.98629999999999995</v>
       </c>
       <c r="H124">
         <v>110</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" hidden="1">
       <c r="A125" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -4131,18 +4132,18 @@
         <v>9</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G125" s="1">
-        <v>0.98599999999999999</v>
+        <v>0.98619999999999997</v>
       </c>
       <c r="H125">
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" hidden="1">
       <c r="A126" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -4157,18 +4158,18 @@
         <v>9</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G126" s="1">
-        <v>0.98640000000000005</v>
+        <v>0.98560000000000003</v>
       </c>
       <c r="H126">
         <v>130</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" hidden="1">
       <c r="A127" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -4183,18 +4184,18 @@
         <v>9</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G127" s="1">
-        <v>0.98660000000000003</v>
+        <v>0.98580000000000001</v>
       </c>
       <c r="H127">
         <v>140</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" hidden="1">
       <c r="A128" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -4209,18 +4210,18 @@
         <v>9</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G128" s="1">
-        <v>0.98719999999999997</v>
+        <v>0.98670000000000002</v>
       </c>
       <c r="H128">
         <v>150</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" hidden="1">
       <c r="A129" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -4235,18 +4236,18 @@
         <v>9</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G129" s="1">
-        <v>0.98750000000000004</v>
+        <v>0.98729999999999996</v>
       </c>
       <c r="H129">
         <v>160</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" hidden="1">
       <c r="A130" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -4261,18 +4262,18 @@
         <v>9</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G130" s="1">
-        <v>0.98760000000000003</v>
+        <v>0.9859</v>
       </c>
       <c r="H130">
         <v>170</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" hidden="1">
       <c r="A131" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -4287,7 +4288,7 @@
         <v>9</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G131" s="1">
         <v>0.98740000000000006</v>
@@ -4296,9 +4297,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" hidden="1">
       <c r="A132" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -4313,18 +4314,18 @@
         <v>9</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G132" s="1">
-        <v>0.98809999999999998</v>
+        <v>0.98660000000000003</v>
       </c>
       <c r="H132">
         <v>190</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" hidden="1">
       <c r="A133" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -4339,10 +4340,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G133" s="1">
-        <v>0.98709999999999998</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="H133">
         <v>200</v>
@@ -4350,7 +4351,7 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -4365,18 +4366,18 @@
         <v>9</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G134" s="1">
-        <v>0.98599999999999999</v>
+        <v>0.98680000000000001</v>
       </c>
       <c r="H134">
         <v>-1</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" hidden="1">
       <c r="A135" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -4391,18 +4392,18 @@
         <v>9</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G135" s="1">
-        <v>8.9200000000000002E-2</v>
+        <v>0.1135</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" hidden="1">
       <c r="A136" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -4417,18 +4418,18 @@
         <v>9</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G136" s="1">
-        <v>0.97070000000000001</v>
+        <v>0.96079999999999999</v>
       </c>
       <c r="H136">
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" hidden="1">
       <c r="A137" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -4443,18 +4444,18 @@
         <v>9</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G137" s="1">
-        <v>0.97840000000000005</v>
+        <v>0.97950000000000004</v>
       </c>
       <c r="H137">
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" hidden="1">
       <c r="A138" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -4469,18 +4470,18 @@
         <v>9</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G138" s="1">
-        <v>0.98129999999999995</v>
+        <v>0.97970000000000002</v>
       </c>
       <c r="H138">
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" hidden="1">
       <c r="A139" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -4495,18 +4496,18 @@
         <v>9</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G139" s="1">
-        <v>0.98480000000000001</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="H139">
         <v>40</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" hidden="1">
       <c r="A140" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -4521,18 +4522,18 @@
         <v>9</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G140" s="1">
-        <v>0.98440000000000005</v>
+        <v>0.98219999999999996</v>
       </c>
       <c r="H140">
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" hidden="1">
       <c r="A141" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -4547,18 +4548,18 @@
         <v>9</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G141" s="1">
-        <v>0.98529999999999995</v>
+        <v>0.98180000000000001</v>
       </c>
       <c r="H141">
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" hidden="1">
       <c r="A142" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -4573,18 +4574,18 @@
         <v>9</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G142" s="1">
-        <v>0.98580000000000001</v>
+        <v>0.9839</v>
       </c>
       <c r="H142">
         <v>70</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" hidden="1">
       <c r="A143" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -4599,18 +4600,18 @@
         <v>9</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G143" s="1">
-        <v>0.98650000000000004</v>
+        <v>0.98460000000000003</v>
       </c>
       <c r="H143">
         <v>80</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" hidden="1">
       <c r="A144" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -4625,18 +4626,18 @@
         <v>9</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G144" s="1">
-        <v>0.98529999999999995</v>
+        <v>0.98370000000000002</v>
       </c>
       <c r="H144">
         <v>90</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" hidden="1">
       <c r="A145" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -4651,18 +4652,18 @@
         <v>9</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G145" s="1">
-        <v>0.98540000000000005</v>
+        <v>0.98450000000000004</v>
       </c>
       <c r="H145">
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" hidden="1">
       <c r="A146" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -4677,18 +4678,18 @@
         <v>9</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G146" s="1">
-        <v>0.98660000000000003</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="H146">
         <v>110</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" hidden="1">
       <c r="A147" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -4703,18 +4704,18 @@
         <v>9</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G147" s="1">
-        <v>0.98680000000000001</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="H147">
         <v>120</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" hidden="1">
       <c r="A148" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -4729,18 +4730,18 @@
         <v>9</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G148" s="1">
-        <v>0.98499999999999999</v>
+        <v>0.9839</v>
       </c>
       <c r="H148">
         <v>130</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" hidden="1">
       <c r="A149" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -4755,18 +4756,18 @@
         <v>9</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G149" s="1">
-        <v>0.9869</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="H149">
         <v>140</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" hidden="1">
       <c r="A150" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -4781,18 +4782,18 @@
         <v>9</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G150" s="1">
-        <v>0.98660000000000003</v>
+        <v>0.98560000000000003</v>
       </c>
       <c r="H150">
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" hidden="1">
       <c r="A151" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -4807,18 +4808,18 @@
         <v>9</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G151" s="1">
-        <v>0.98729999999999996</v>
+        <v>0.98280000000000001</v>
       </c>
       <c r="H151">
         <v>160</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" hidden="1">
       <c r="A152" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -4833,18 +4834,18 @@
         <v>9</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G152" s="1">
-        <v>0.98619999999999997</v>
+        <v>0.98650000000000004</v>
       </c>
       <c r="H152">
         <v>170</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" hidden="1">
       <c r="A153" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -4859,18 +4860,18 @@
         <v>9</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G153" s="1">
-        <v>0.98609999999999998</v>
+        <v>0.98760000000000003</v>
       </c>
       <c r="H153">
         <v>180</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" hidden="1">
       <c r="A154" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -4885,18 +4886,18 @@
         <v>9</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G154" s="1">
-        <v>0.9859</v>
+        <v>0.98660000000000003</v>
       </c>
       <c r="H154">
         <v>190</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" hidden="1">
       <c r="A155" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -4911,10 +4912,10 @@
         <v>9</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G155" s="1">
-        <v>0.9859</v>
+        <v>0.98580000000000001</v>
       </c>
       <c r="H155">
         <v>200</v>
@@ -4922,7 +4923,7 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -4937,18 +4938,18 @@
         <v>9</v>
       </c>
       <c r="F156" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G156" s="1">
-        <v>0.98760000000000003</v>
+        <v>0.98770000000000002</v>
       </c>
       <c r="H156">
         <v>-1</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" hidden="1">
       <c r="A157" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -4963,18 +4964,18 @@
         <v>9</v>
       </c>
       <c r="F157" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G157" s="1">
-        <v>9.5799999999999996E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="H157">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" hidden="1">
       <c r="A158" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -4989,18 +4990,18 @@
         <v>9</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G158" s="1">
-        <v>0.96860000000000002</v>
+        <v>0.9637</v>
       </c>
       <c r="H158">
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" hidden="1">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -5015,18 +5016,18 @@
         <v>9</v>
       </c>
       <c r="F159" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G159" s="1">
-        <v>0.97850000000000004</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="H159">
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" hidden="1">
       <c r="A160" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -5041,18 +5042,18 @@
         <v>9</v>
       </c>
       <c r="F160" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G160" s="1">
-        <v>0.9788</v>
+        <v>0.98140000000000005</v>
       </c>
       <c r="H160">
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" hidden="1">
       <c r="A161" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -5067,18 +5068,18 @@
         <v>9</v>
       </c>
       <c r="F161" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G161" s="1">
-        <v>0.9839</v>
+        <v>0.98270000000000002</v>
       </c>
       <c r="H161">
         <v>40</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" hidden="1">
       <c r="A162" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -5093,18 +5094,18 @@
         <v>9</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G162" s="1">
-        <v>0.98419999999999996</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="H162">
         <v>50</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" hidden="1">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -5119,18 +5120,18 @@
         <v>9</v>
       </c>
       <c r="F163" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G163" s="1">
-        <v>0.98340000000000005</v>
+        <v>0.9849</v>
       </c>
       <c r="H163">
         <v>60</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" hidden="1">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -5145,18 +5146,18 @@
         <v>9</v>
       </c>
       <c r="F164" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G164" s="1">
-        <v>0.98709999999999998</v>
+        <v>0.98729999999999996</v>
       </c>
       <c r="H164">
         <v>70</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" hidden="1">
       <c r="A165" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -5171,18 +5172,18 @@
         <v>9</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G165" s="1">
-        <v>0.98680000000000001</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="H165">
         <v>80</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" hidden="1">
       <c r="A166" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -5197,18 +5198,18 @@
         <v>9</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G166" s="1">
-        <v>0.98599999999999999</v>
+        <v>0.98750000000000004</v>
       </c>
       <c r="H166">
         <v>90</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" hidden="1">
       <c r="A167" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -5223,18 +5224,18 @@
         <v>9</v>
       </c>
       <c r="F167" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G167" s="1">
-        <v>0.98470000000000002</v>
+        <v>0.9869</v>
       </c>
       <c r="H167">
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" hidden="1">
       <c r="A168" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -5249,18 +5250,18 @@
         <v>9</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G168" s="1">
-        <v>0.98629999999999995</v>
+        <v>0.98680000000000001</v>
       </c>
       <c r="H168">
         <v>110</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" hidden="1">
       <c r="A169" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -5275,18 +5276,18 @@
         <v>9</v>
       </c>
       <c r="F169" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G169" s="1">
-        <v>0.98619999999999997</v>
+        <v>0.98670000000000002</v>
       </c>
       <c r="H169">
         <v>120</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" hidden="1">
       <c r="A170" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -5301,18 +5302,18 @@
         <v>9</v>
       </c>
       <c r="F170" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G170" s="1">
-        <v>0.98560000000000003</v>
+        <v>0.98760000000000003</v>
       </c>
       <c r="H170">
         <v>130</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" hidden="1">
       <c r="A171" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -5327,18 +5328,18 @@
         <v>9</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G171" s="1">
-        <v>0.98580000000000001</v>
+        <v>0.9869</v>
       </c>
       <c r="H171">
         <v>140</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" hidden="1">
       <c r="A172" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -5353,7 +5354,7 @@
         <v>9</v>
       </c>
       <c r="F172" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G172" s="1">
         <v>0.98670000000000002</v>
@@ -5362,9 +5363,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" hidden="1">
       <c r="A173" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -5379,18 +5380,18 @@
         <v>9</v>
       </c>
       <c r="F173" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G173" s="1">
-        <v>0.98729999999999996</v>
+        <v>0.9879</v>
       </c>
       <c r="H173">
         <v>160</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" hidden="1">
       <c r="A174" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -5405,18 +5406,18 @@
         <v>9</v>
       </c>
       <c r="F174" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G174" s="1">
-        <v>0.9859</v>
+        <v>0.9879</v>
       </c>
       <c r="H174">
         <v>170</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" hidden="1">
       <c r="A175" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -5431,18 +5432,18 @@
         <v>9</v>
       </c>
       <c r="F175" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G175" s="1">
-        <v>0.98740000000000006</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="H175">
         <v>180</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" hidden="1">
       <c r="A176" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -5457,18 +5458,18 @@
         <v>9</v>
       </c>
       <c r="F176" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G176" s="1">
-        <v>0.98660000000000003</v>
+        <v>0.98760000000000003</v>
       </c>
       <c r="H176">
         <v>190</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" hidden="1">
       <c r="A177" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -5483,10 +5484,10 @@
         <v>9</v>
       </c>
       <c r="F177" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G177" s="1">
-        <v>0.98809999999999998</v>
+        <v>0.9869</v>
       </c>
       <c r="H177">
         <v>200</v>
@@ -5494,7 +5495,7 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -5509,18 +5510,18 @@
         <v>9</v>
       </c>
       <c r="F178" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G178" s="1">
-        <v>0.9869</v>
+        <v>0.98839999999999995</v>
       </c>
       <c r="H178">
         <v>-1</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" hidden="1">
       <c r="A179" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -5535,7 +5536,7 @@
         <v>9</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G179" s="1">
         <v>0.1009</v>
@@ -5544,9 +5545,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" hidden="1">
       <c r="A180" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -5561,18 +5562,18 @@
         <v>9</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G180" s="1">
-        <v>0.97109999999999996</v>
+        <v>0.9637</v>
       </c>
       <c r="H180">
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" hidden="1">
       <c r="A181" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -5587,18 +5588,18 @@
         <v>9</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G181" s="1">
-        <v>0.9798</v>
+        <v>0.97560000000000002</v>
       </c>
       <c r="H181">
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" hidden="1">
       <c r="A182" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -5613,18 +5614,18 @@
         <v>9</v>
       </c>
       <c r="F182" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G182" s="1">
-        <v>0.98170000000000002</v>
+        <v>0.98029999999999995</v>
       </c>
       <c r="H182">
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" hidden="1">
       <c r="A183" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -5639,18 +5640,18 @@
         <v>9</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G183" s="1">
-        <v>0.98470000000000002</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="H183">
         <v>40</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" hidden="1">
       <c r="A184" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -5665,18 +5666,18 @@
         <v>9</v>
       </c>
       <c r="F184" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G184" s="1">
-        <v>0.98470000000000002</v>
+        <v>0.98419999999999996</v>
       </c>
       <c r="H184">
         <v>50</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" hidden="1">
       <c r="A185" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -5691,18 +5692,18 @@
         <v>9</v>
       </c>
       <c r="F185" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G185" s="1">
-        <v>0.98409999999999997</v>
+        <v>0.9839</v>
       </c>
       <c r="H185">
         <v>60</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" hidden="1">
       <c r="A186" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -5717,18 +5718,18 @@
         <v>9</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G186" s="1">
-        <v>0.98460000000000003</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="H186">
         <v>70</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" hidden="1">
       <c r="A187" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -5743,18 +5744,18 @@
         <v>9</v>
       </c>
       <c r="F187" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G187" s="1">
-        <v>0.98509999999999998</v>
+        <v>0.9859</v>
       </c>
       <c r="H187">
         <v>80</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" hidden="1">
       <c r="A188" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -5769,18 +5770,18 @@
         <v>9</v>
       </c>
       <c r="F188" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G188" s="1">
-        <v>0.98470000000000002</v>
+        <v>0.98609999999999998</v>
       </c>
       <c r="H188">
         <v>90</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" hidden="1">
       <c r="A189" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -5795,7 +5796,7 @@
         <v>9</v>
       </c>
       <c r="F189" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G189" s="1">
         <v>0.98660000000000003</v>
@@ -5804,9 +5805,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" hidden="1">
       <c r="A190" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -5821,18 +5822,18 @@
         <v>9</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G190" s="1">
-        <v>0.98680000000000001</v>
+        <v>0.98580000000000001</v>
       </c>
       <c r="H190">
         <v>110</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" hidden="1">
       <c r="A191" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -5847,18 +5848,18 @@
         <v>9</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G191" s="1">
-        <v>0.98529999999999995</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="H191">
         <v>120</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" hidden="1">
       <c r="A192" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -5873,18 +5874,18 @@
         <v>9</v>
       </c>
       <c r="F192" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G192" s="1">
-        <v>0.98619999999999997</v>
+        <v>0.98640000000000005</v>
       </c>
       <c r="H192">
         <v>130</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" hidden="1">
       <c r="A193" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -5899,18 +5900,18 @@
         <v>9</v>
       </c>
       <c r="F193" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G193" s="1">
-        <v>0.98619999999999997</v>
+        <v>0.98660000000000003</v>
       </c>
       <c r="H193">
         <v>140</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" hidden="1">
       <c r="A194" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -5925,18 +5926,18 @@
         <v>9</v>
       </c>
       <c r="F194" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G194" s="1">
-        <v>0.98660000000000003</v>
+        <v>0.98719999999999997</v>
       </c>
       <c r="H194">
         <v>150</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" hidden="1">
       <c r="A195" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -5951,18 +5952,18 @@
         <v>9</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G195" s="1">
-        <v>0.98719999999999997</v>
+        <v>0.98750000000000004</v>
       </c>
       <c r="H195">
         <v>160</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" hidden="1">
       <c r="A196" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -5977,18 +5978,18 @@
         <v>9</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G196" s="1">
-        <v>0.98509999999999998</v>
+        <v>0.98760000000000003</v>
       </c>
       <c r="H196">
         <v>170</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" hidden="1">
       <c r="A197" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -6003,18 +6004,18 @@
         <v>9</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G197" s="1">
-        <v>0.98650000000000004</v>
+        <v>0.98740000000000006</v>
       </c>
       <c r="H197">
         <v>180</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" hidden="1">
       <c r="A198" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -6029,18 +6030,18 @@
         <v>9</v>
       </c>
       <c r="F198" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G198" s="1">
-        <v>0.98760000000000003</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="H198">
         <v>190</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" hidden="1">
       <c r="A199" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -6055,10 +6056,10 @@
         <v>9</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G199" s="1">
-        <v>0.98609999999999998</v>
+        <v>0.98709999999999998</v>
       </c>
       <c r="H199">
         <v>200</v>
@@ -6066,7 +6067,7 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -6081,18 +6082,18 @@
         <v>9</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G200" s="1">
-        <v>0.9859</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="H200">
         <v>-1</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" hidden="1">
       <c r="A201" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -6107,18 +6108,18 @@
         <v>9</v>
       </c>
       <c r="F201" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G201" s="1">
-        <v>0.1009</v>
+        <v>9.8199999999999996E-2</v>
       </c>
       <c r="H201">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" hidden="1">
       <c r="A202" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -6133,18 +6134,18 @@
         <v>9</v>
       </c>
       <c r="F202" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G202" s="1">
-        <v>0.96860000000000002</v>
+        <v>0.96650000000000003</v>
       </c>
       <c r="H202">
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" hidden="1">
       <c r="A203" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -6159,18 +6160,18 @@
         <v>9</v>
       </c>
       <c r="F203" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G203" s="1">
-        <v>0.9788</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="H203">
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" hidden="1">
       <c r="A204" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -6185,18 +6186,18 @@
         <v>9</v>
       </c>
       <c r="F204" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G204" s="1">
-        <v>0.98050000000000004</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="H204">
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" hidden="1">
       <c r="A205" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -6211,18 +6212,18 @@
         <v>9</v>
       </c>
       <c r="F205" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G205" s="1">
-        <v>0.98329999999999995</v>
+        <v>0.98240000000000005</v>
       </c>
       <c r="H205">
         <v>40</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" hidden="1">
       <c r="A206" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -6237,18 +6238,18 @@
         <v>9</v>
       </c>
       <c r="F206" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G206" s="1">
-        <v>0.98309999999999997</v>
+        <v>0.9829</v>
       </c>
       <c r="H206">
         <v>50</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" hidden="1">
       <c r="A207" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -6263,18 +6264,18 @@
         <v>9</v>
       </c>
       <c r="F207" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G207" s="1">
-        <v>0.9849</v>
+        <v>0.98380000000000001</v>
       </c>
       <c r="H207">
         <v>60</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" hidden="1">
       <c r="A208" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -6289,7 +6290,7 @@
         <v>9</v>
       </c>
       <c r="F208" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G208" s="1">
         <v>0.98419999999999996</v>
@@ -6298,9 +6299,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" hidden="1">
       <c r="A209" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -6315,18 +6316,18 @@
         <v>9</v>
       </c>
       <c r="F209" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G209" s="1">
-        <v>0.98529999999999995</v>
+        <v>0.98560000000000003</v>
       </c>
       <c r="H209">
         <v>80</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" hidden="1">
       <c r="A210" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -6341,18 +6342,18 @@
         <v>9</v>
       </c>
       <c r="F210" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G210" s="1">
-        <v>0.98609999999999998</v>
+        <v>0.9849</v>
       </c>
       <c r="H210">
         <v>90</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" hidden="1">
       <c r="A211" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -6367,18 +6368,18 @@
         <v>9</v>
       </c>
       <c r="F211" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G211" s="1">
-        <v>0.98560000000000003</v>
+        <v>0.98619999999999997</v>
       </c>
       <c r="H211">
         <v>100</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" hidden="1">
       <c r="A212" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -6393,18 +6394,18 @@
         <v>9</v>
       </c>
       <c r="F212" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G212" s="1">
-        <v>0.98540000000000005</v>
+        <v>0.98609999999999998</v>
       </c>
       <c r="H212">
         <v>110</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" hidden="1">
       <c r="A213" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -6419,18 +6420,18 @@
         <v>9</v>
       </c>
       <c r="F213" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G213" s="1">
-        <v>0.98570000000000002</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="H213">
         <v>120</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" hidden="1">
       <c r="A214" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -6445,18 +6446,18 @@
         <v>9</v>
       </c>
       <c r="F214" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G214" s="1">
-        <v>0.98419999999999996</v>
+        <v>0.98619999999999997</v>
       </c>
       <c r="H214">
         <v>130</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" hidden="1">
       <c r="A215" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -6471,18 +6472,18 @@
         <v>9</v>
       </c>
       <c r="F215" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G215" s="1">
-        <v>0.98629999999999995</v>
+        <v>0.98619999999999997</v>
       </c>
       <c r="H215">
         <v>140</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" hidden="1">
       <c r="A216" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -6497,18 +6498,18 @@
         <v>9</v>
       </c>
       <c r="F216" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G216" s="1">
-        <v>0.98580000000000001</v>
+        <v>0.98650000000000004</v>
       </c>
       <c r="H216">
         <v>150</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" hidden="1">
       <c r="A217" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -6523,18 +6524,18 @@
         <v>9</v>
       </c>
       <c r="F217" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G217" s="1">
-        <v>0.9869</v>
+        <v>0.98619999999999997</v>
       </c>
       <c r="H217">
         <v>160</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" hidden="1">
       <c r="A218" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -6549,18 +6550,18 @@
         <v>9</v>
       </c>
       <c r="F218" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G218" s="1">
-        <v>0.98580000000000001</v>
+        <v>0.98760000000000003</v>
       </c>
       <c r="H218">
         <v>170</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" hidden="1">
       <c r="A219" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -6575,18 +6576,18 @@
         <v>9</v>
       </c>
       <c r="F219" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G219" s="1">
-        <v>0.98670000000000002</v>
+        <v>0.98780000000000001</v>
       </c>
       <c r="H219">
         <v>180</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" hidden="1">
       <c r="A220" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -6601,18 +6602,18 @@
         <v>9</v>
       </c>
       <c r="F220" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G220" s="1">
-        <v>0.98640000000000005</v>
+        <v>0.98660000000000003</v>
       </c>
       <c r="H220">
         <v>190</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" hidden="1">
       <c r="A221" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -6627,10 +6628,10 @@
         <v>9</v>
       </c>
       <c r="F221" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G221" s="1">
-        <v>0.98540000000000005</v>
+        <v>0.98619999999999997</v>
       </c>
       <c r="H221">
         <v>200</v>
@@ -6638,7 +6639,7 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -6653,18 +6654,18 @@
         <v>9</v>
       </c>
       <c r="F222" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G222" s="1">
-        <v>0.98680000000000001</v>
+        <v>0.98729999999999996</v>
       </c>
       <c r="H222">
         <v>-1</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" hidden="1">
       <c r="A223" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -6679,18 +6680,18 @@
         <v>9</v>
       </c>
       <c r="F223" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G223" s="1">
-        <v>0.1135</v>
+        <v>0.1009</v>
       </c>
       <c r="H223">
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" hidden="1">
       <c r="A224" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -6705,18 +6706,18 @@
         <v>9</v>
       </c>
       <c r="F224" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G224" s="1">
-        <v>0.96079999999999999</v>
+        <v>0.96609999999999996</v>
       </c>
       <c r="H224">
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" hidden="1">
       <c r="A225" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -6731,18 +6732,18 @@
         <v>9</v>
       </c>
       <c r="F225" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G225" s="1">
-        <v>0.97950000000000004</v>
+        <v>0.97840000000000005</v>
       </c>
       <c r="H225">
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" hidden="1">
       <c r="A226" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -6757,18 +6758,18 @@
         <v>9</v>
       </c>
       <c r="F226" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G226" s="1">
-        <v>0.97970000000000002</v>
+        <v>0.9819</v>
       </c>
       <c r="H226">
         <v>30</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" hidden="1">
       <c r="A227" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -6783,18 +6784,18 @@
         <v>9</v>
       </c>
       <c r="F227" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G227" s="1">
-        <v>0.98150000000000004</v>
+        <v>0.98360000000000003</v>
       </c>
       <c r="H227">
         <v>40</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" hidden="1">
       <c r="A228" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -6809,18 +6810,18 @@
         <v>9</v>
       </c>
       <c r="F228" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G228" s="1">
-        <v>0.98219999999999996</v>
+        <v>0.98419999999999996</v>
       </c>
       <c r="H228">
         <v>50</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" hidden="1">
       <c r="A229" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -6835,18 +6836,18 @@
         <v>9</v>
       </c>
       <c r="F229" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G229" s="1">
-        <v>0.98180000000000001</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="H229">
         <v>60</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" hidden="1">
       <c r="A230" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -6861,18 +6862,18 @@
         <v>9</v>
       </c>
       <c r="F230" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G230" s="1">
-        <v>0.9839</v>
+        <v>0.98440000000000005</v>
       </c>
       <c r="H230">
         <v>70</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" hidden="1">
       <c r="A231" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -6887,18 +6888,18 @@
         <v>9</v>
       </c>
       <c r="F231" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G231" s="1">
-        <v>0.98460000000000003</v>
+        <v>0.98570000000000002</v>
       </c>
       <c r="H231">
         <v>80</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" hidden="1">
       <c r="A232" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -6913,18 +6914,18 @@
         <v>9</v>
       </c>
       <c r="F232" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G232" s="1">
-        <v>0.98370000000000002</v>
+        <v>0.98680000000000001</v>
       </c>
       <c r="H232">
         <v>90</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" hidden="1">
       <c r="A233" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -6939,18 +6940,18 @@
         <v>9</v>
       </c>
       <c r="F233" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G233" s="1">
-        <v>0.98450000000000004</v>
+        <v>0.98519999999999996</v>
       </c>
       <c r="H233">
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" hidden="1">
       <c r="A234" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -6965,18 +6966,18 @@
         <v>9</v>
       </c>
       <c r="F234" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G234" s="1">
-        <v>0.98499999999999999</v>
+        <v>0.9859</v>
       </c>
       <c r="H234">
         <v>110</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" hidden="1">
       <c r="A235" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -6991,18 +6992,18 @@
         <v>9</v>
       </c>
       <c r="F235" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G235" s="1">
-        <v>0.98499999999999999</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="H235">
         <v>120</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" hidden="1">
       <c r="A236" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -7017,18 +7018,18 @@
         <v>9</v>
       </c>
       <c r="F236" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G236" s="1">
-        <v>0.9839</v>
+        <v>0.98650000000000004</v>
       </c>
       <c r="H236">
         <v>130</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" hidden="1">
       <c r="A237" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -7043,18 +7044,18 @@
         <v>9</v>
       </c>
       <c r="F237" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G237" s="1">
-        <v>0.98540000000000005</v>
+        <v>0.9869</v>
       </c>
       <c r="H237">
         <v>140</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" hidden="1">
       <c r="A238" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -7069,18 +7070,18 @@
         <v>9</v>
       </c>
       <c r="F238" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G238" s="1">
-        <v>0.98560000000000003</v>
+        <v>0.98719999999999997</v>
       </c>
       <c r="H238">
         <v>150</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" hidden="1">
       <c r="A239" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -7095,18 +7096,18 @@
         <v>9</v>
       </c>
       <c r="F239" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G239" s="1">
-        <v>0.98280000000000001</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="H239">
         <v>160</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" hidden="1">
       <c r="A240" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -7121,18 +7122,18 @@
         <v>9</v>
       </c>
       <c r="F240" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G240" s="1">
-        <v>0.98650000000000004</v>
+        <v>0.98780000000000001</v>
       </c>
       <c r="H240">
         <v>170</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" hidden="1">
       <c r="A241" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -7147,18 +7148,18 @@
         <v>9</v>
       </c>
       <c r="F241" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G241" s="1">
-        <v>0.98760000000000003</v>
+        <v>0.98660000000000003</v>
       </c>
       <c r="H241">
         <v>180</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" hidden="1">
       <c r="A242" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -7173,18 +7174,18 @@
         <v>9</v>
       </c>
       <c r="F242" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G242" s="1">
-        <v>0.98660000000000003</v>
+        <v>0.98760000000000003</v>
       </c>
       <c r="H242">
         <v>190</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" hidden="1">
       <c r="A243" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -7199,10 +7200,10 @@
         <v>9</v>
       </c>
       <c r="F243" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G243" s="1">
-        <v>0.98580000000000001</v>
+        <v>0.98760000000000003</v>
       </c>
       <c r="H243">
         <v>200</v>
@@ -7210,7 +7211,7 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -7225,18 +7226,18 @@
         <v>9</v>
       </c>
       <c r="F244" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G244" s="1">
-        <v>0.98640000000000005</v>
+        <v>0.98729999999999996</v>
       </c>
       <c r="H244">
         <v>-1</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" hidden="1">
       <c r="A245" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -7251,18 +7252,18 @@
         <v>9</v>
       </c>
       <c r="F245" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G245" s="1">
-        <v>0.1032</v>
+        <v>9.8199999999999996E-2</v>
       </c>
       <c r="H245">
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" hidden="1">
       <c r="A246" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -7277,18 +7278,18 @@
         <v>9</v>
       </c>
       <c r="F246" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G246" s="1">
-        <v>0.96220000000000006</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="H246">
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" hidden="1">
       <c r="A247" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -7303,18 +7304,18 @@
         <v>9</v>
       </c>
       <c r="F247" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G247" s="1">
-        <v>0.97729999999999995</v>
+        <v>0.97609999999999997</v>
       </c>
       <c r="H247">
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" hidden="1">
       <c r="A248" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -7329,18 +7330,18 @@
         <v>9</v>
       </c>
       <c r="F248" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G248" s="1">
-        <v>0.98080000000000001</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="H248">
         <v>30</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" hidden="1">
       <c r="A249" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -7355,18 +7356,18 @@
         <v>9</v>
       </c>
       <c r="F249" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G249" s="1">
-        <v>0.98260000000000003</v>
+        <v>0.98109999999999997</v>
       </c>
       <c r="H249">
         <v>40</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" hidden="1">
       <c r="A250" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -7381,7 +7382,7 @@
         <v>9</v>
       </c>
       <c r="F250" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G250" s="1">
         <v>0.98380000000000001</v>
@@ -7390,9 +7391,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" hidden="1">
       <c r="A251" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -7407,18 +7408,18 @@
         <v>9</v>
       </c>
       <c r="F251" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G251" s="1">
-        <v>0.98450000000000004</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="H251">
         <v>60</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" hidden="1">
       <c r="A252" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -7433,18 +7434,18 @@
         <v>9</v>
       </c>
       <c r="F252" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G252" s="1">
-        <v>0.98480000000000001</v>
+        <v>0.98619999999999997</v>
       </c>
       <c r="H252">
         <v>70</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" hidden="1">
       <c r="A253" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -7459,18 +7460,18 @@
         <v>9</v>
       </c>
       <c r="F253" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G253" s="1">
-        <v>0.98550000000000004</v>
+        <v>0.98580000000000001</v>
       </c>
       <c r="H253">
         <v>80</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" hidden="1">
       <c r="A254" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -7485,18 +7486,18 @@
         <v>9</v>
       </c>
       <c r="F254" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G254" s="1">
-        <v>0.98470000000000002</v>
+        <v>0.9859</v>
       </c>
       <c r="H254">
         <v>90</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" hidden="1">
       <c r="A255" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -7511,18 +7512,18 @@
         <v>9</v>
       </c>
       <c r="F255" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G255" s="1">
-        <v>0.98580000000000001</v>
+        <v>0.98640000000000005</v>
       </c>
       <c r="H255">
         <v>100</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" hidden="1">
       <c r="A256" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -7537,18 +7538,18 @@
         <v>9</v>
       </c>
       <c r="F256" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G256" s="1">
-        <v>0.98599999999999999</v>
+        <v>0.98619999999999997</v>
       </c>
       <c r="H256">
         <v>110</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" hidden="1">
       <c r="A257" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -7563,18 +7564,18 @@
         <v>9</v>
       </c>
       <c r="F257" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G257" s="1">
-        <v>0.98580000000000001</v>
+        <v>0.98650000000000004</v>
       </c>
       <c r="H257">
         <v>120</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" hidden="1">
       <c r="A258" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B258">
         <v>1</v>
@@ -7589,18 +7590,18 @@
         <v>9</v>
       </c>
       <c r="F258" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G258" s="1">
-        <v>0.9859</v>
+        <v>0.98580000000000001</v>
       </c>
       <c r="H258">
         <v>130</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" hidden="1">
       <c r="A259" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -7615,18 +7616,18 @@
         <v>9</v>
       </c>
       <c r="F259" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G259" s="1">
-        <v>0.98629999999999995</v>
+        <v>0.98740000000000006</v>
       </c>
       <c r="H259">
         <v>140</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" hidden="1">
       <c r="A260" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -7641,18 +7642,18 @@
         <v>9</v>
       </c>
       <c r="F260" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G260" s="1">
-        <v>0.98629999999999995</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="H260">
         <v>150</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" hidden="1">
       <c r="A261" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -7667,18 +7668,18 @@
         <v>9</v>
       </c>
       <c r="F261" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G261" s="1">
-        <v>0.98540000000000005</v>
+        <v>0.98650000000000004</v>
       </c>
       <c r="H261">
         <v>160</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" hidden="1">
       <c r="A262" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -7693,18 +7694,18 @@
         <v>9</v>
       </c>
       <c r="F262" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G262" s="1">
-        <v>0.98719999999999997</v>
+        <v>0.98629999999999995</v>
       </c>
       <c r="H262">
         <v>170</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" hidden="1">
       <c r="A263" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -7719,18 +7720,18 @@
         <v>9</v>
       </c>
       <c r="F263" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G263" s="1">
-        <v>0.98570000000000002</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="H263">
         <v>180</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" hidden="1">
       <c r="A264" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -7745,18 +7746,18 @@
         <v>9</v>
       </c>
       <c r="F264" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G264" s="1">
-        <v>0.9869</v>
+        <v>0.98770000000000002</v>
       </c>
       <c r="H264">
         <v>190</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" hidden="1">
       <c r="A265" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -7771,10 +7772,10 @@
         <v>9</v>
       </c>
       <c r="F265" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G265" s="1">
-        <v>0.98670000000000002</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="H265">
         <v>200</v>
@@ -7782,7 +7783,7 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -7797,18 +7798,18 @@
         <v>9</v>
       </c>
       <c r="F266" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G266" s="1">
-        <v>0.98670000000000002</v>
+        <v>0.9869</v>
       </c>
       <c r="H266">
         <v>-1</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" hidden="1">
       <c r="A267" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -7823,18 +7824,18 @@
         <v>9</v>
       </c>
       <c r="F267" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G267" s="1">
-        <v>9.5799999999999996E-2</v>
+        <v>0.1009</v>
       </c>
       <c r="H267">
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" hidden="1">
       <c r="A268" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -7849,18 +7850,18 @@
         <v>9</v>
       </c>
       <c r="F268" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G268" s="1">
-        <v>0.97030000000000005</v>
+        <v>0.97109999999999996</v>
       </c>
       <c r="H268">
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" hidden="1">
       <c r="A269" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -7875,18 +7876,18 @@
         <v>9</v>
       </c>
       <c r="F269" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G269" s="1">
-        <v>0.97819999999999996</v>
+        <v>0.9798</v>
       </c>
       <c r="H269">
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" hidden="1">
       <c r="A270" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -7901,18 +7902,18 @@
         <v>9</v>
       </c>
       <c r="F270" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G270" s="1">
-        <v>0.98009999999999997</v>
+        <v>0.98170000000000002</v>
       </c>
       <c r="H270">
         <v>30</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" hidden="1">
       <c r="A271" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -7927,18 +7928,18 @@
         <v>9</v>
       </c>
       <c r="F271" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G271" s="1">
-        <v>0.98260000000000003</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="H271">
         <v>40</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" hidden="1">
       <c r="A272" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -7953,18 +7954,18 @@
         <v>9</v>
       </c>
       <c r="F272" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G272" s="1">
-        <v>0.98460000000000003</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="H272">
         <v>50</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" hidden="1">
       <c r="A273" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -7979,18 +7980,18 @@
         <v>9</v>
       </c>
       <c r="F273" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G273" s="1">
-        <v>0.98360000000000003</v>
+        <v>0.98409999999999997</v>
       </c>
       <c r="H273">
         <v>60</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" hidden="1">
       <c r="A274" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -8005,18 +8006,18 @@
         <v>9</v>
       </c>
       <c r="F274" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G274" s="1">
-        <v>0.98570000000000002</v>
+        <v>0.98460000000000003</v>
       </c>
       <c r="H274">
         <v>70</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" hidden="1">
       <c r="A275" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -8031,18 +8032,18 @@
         <v>9</v>
       </c>
       <c r="F275" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G275" s="1">
-        <v>0.9849</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="H275">
         <v>80</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" hidden="1">
       <c r="A276" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -8057,18 +8058,18 @@
         <v>9</v>
       </c>
       <c r="F276" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G276" s="1">
-        <v>0.98570000000000002</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="H276">
         <v>90</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" hidden="1">
       <c r="A277" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -8083,18 +8084,18 @@
         <v>9</v>
       </c>
       <c r="F277" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G277" s="1">
-        <v>0.98560000000000003</v>
+        <v>0.98660000000000003</v>
       </c>
       <c r="H277">
         <v>100</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" hidden="1">
       <c r="A278" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -8109,18 +8110,18 @@
         <v>9</v>
       </c>
       <c r="F278" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G278" s="1">
-        <v>0.98719999999999997</v>
+        <v>0.98680000000000001</v>
       </c>
       <c r="H278">
         <v>110</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" hidden="1">
       <c r="A279" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -8135,18 +8136,18 @@
         <v>9</v>
       </c>
       <c r="F279" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G279" s="1">
-        <v>0.98509999999999998</v>
+        <v>0.98529999999999995</v>
       </c>
       <c r="H279">
         <v>120</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" hidden="1">
       <c r="A280" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -8161,18 +8162,18 @@
         <v>9</v>
       </c>
       <c r="F280" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G280" s="1">
-        <v>0.98580000000000001</v>
+        <v>0.98619999999999997</v>
       </c>
       <c r="H280">
         <v>130</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" hidden="1">
       <c r="A281" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -8187,18 +8188,18 @@
         <v>9</v>
       </c>
       <c r="F281" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G281" s="1">
-        <v>0.98470000000000002</v>
+        <v>0.98619999999999997</v>
       </c>
       <c r="H281">
         <v>140</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" hidden="1">
       <c r="A282" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -8213,18 +8214,18 @@
         <v>9</v>
       </c>
       <c r="F282" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G282" s="1">
-        <v>0.98629999999999995</v>
+        <v>0.98660000000000003</v>
       </c>
       <c r="H282">
         <v>150</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" hidden="1">
       <c r="A283" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -8239,18 +8240,18 @@
         <v>9</v>
       </c>
       <c r="F283" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G283" s="1">
-        <v>0.98640000000000005</v>
+        <v>0.98719999999999997</v>
       </c>
       <c r="H283">
         <v>160</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" hidden="1">
       <c r="A284" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -8265,18 +8266,18 @@
         <v>9</v>
       </c>
       <c r="F284" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G284" s="1">
-        <v>0.98660000000000003</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="H284">
         <v>170</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" hidden="1">
       <c r="A285" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -8291,18 +8292,18 @@
         <v>9</v>
       </c>
       <c r="F285" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G285" s="1">
-        <v>0.98580000000000001</v>
+        <v>0.98650000000000004</v>
       </c>
       <c r="H285">
         <v>180</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" hidden="1">
       <c r="A286" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B286">
         <v>1</v>
@@ -8317,18 +8318,18 @@
         <v>9</v>
       </c>
       <c r="F286" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G286" s="1">
-        <v>0.98599999999999999</v>
+        <v>0.98760000000000003</v>
       </c>
       <c r="H286">
         <v>190</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" hidden="1">
       <c r="A287" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -8343,10 +8344,10 @@
         <v>9</v>
       </c>
       <c r="F287" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="G287" s="1">
-        <v>0.98719999999999997</v>
+        <v>0.98609999999999998</v>
       </c>
       <c r="H287">
         <v>200</v>
@@ -8354,7 +8355,7 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -8369,18 +8370,18 @@
         <v>9</v>
       </c>
       <c r="F288" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G288" s="1">
-        <v>0.9879</v>
+        <v>0.9859</v>
       </c>
       <c r="H288">
         <v>-1</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" hidden="1">
       <c r="A289" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -8395,18 +8396,18 @@
         <v>9</v>
       </c>
       <c r="F289" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G289" s="1">
-        <v>9.8199999999999996E-2</v>
+        <v>0.1009</v>
       </c>
       <c r="H289">
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" hidden="1">
       <c r="A290" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -8421,18 +8422,18 @@
         <v>9</v>
       </c>
       <c r="F290" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G290" s="1">
-        <v>0.9657</v>
+        <v>0.96860000000000002</v>
       </c>
       <c r="H290">
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" hidden="1">
       <c r="A291" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -8447,18 +8448,18 @@
         <v>9</v>
       </c>
       <c r="F291" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G291" s="1">
-        <v>0.97460000000000002</v>
+        <v>0.9788</v>
       </c>
       <c r="H291">
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" hidden="1">
       <c r="A292" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -8473,18 +8474,18 @@
         <v>9</v>
       </c>
       <c r="F292" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G292" s="1">
-        <v>0.97860000000000003</v>
+        <v>0.98050000000000004</v>
       </c>
       <c r="H292">
         <v>30</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" hidden="1">
       <c r="A293" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -8499,18 +8500,18 @@
         <v>9</v>
       </c>
       <c r="F293" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G293" s="1">
-        <v>0.98209999999999997</v>
+        <v>0.98329999999999995</v>
       </c>
       <c r="H293">
         <v>40</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" hidden="1">
       <c r="A294" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -8525,18 +8526,18 @@
         <v>9</v>
       </c>
       <c r="F294" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G294" s="1">
-        <v>0.98440000000000005</v>
+        <v>0.98309999999999997</v>
       </c>
       <c r="H294">
         <v>50</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" hidden="1">
       <c r="A295" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -8551,18 +8552,18 @@
         <v>9</v>
       </c>
       <c r="F295" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G295" s="1">
-        <v>0.98399999999999999</v>
+        <v>0.9849</v>
       </c>
       <c r="H295">
         <v>60</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" hidden="1">
       <c r="A296" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -8577,18 +8578,18 @@
         <v>9</v>
       </c>
       <c r="F296" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G296" s="1">
-        <v>0.98450000000000004</v>
+        <v>0.98419999999999996</v>
       </c>
       <c r="H296">
         <v>70</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" hidden="1">
       <c r="A297" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -8603,18 +8604,18 @@
         <v>9</v>
       </c>
       <c r="F297" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G297" s="1">
-        <v>0.98460000000000003</v>
+        <v>0.98529999999999995</v>
       </c>
       <c r="H297">
         <v>80</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" hidden="1">
       <c r="A298" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -8629,18 +8630,18 @@
         <v>9</v>
       </c>
       <c r="F298" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G298" s="1">
-        <v>0.9839</v>
+        <v>0.98609999999999998</v>
       </c>
       <c r="H298">
         <v>90</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" hidden="1">
       <c r="A299" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -8655,18 +8656,18 @@
         <v>9</v>
       </c>
       <c r="F299" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G299" s="1">
-        <v>0.98499999999999999</v>
+        <v>0.98560000000000003</v>
       </c>
       <c r="H299">
         <v>100</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" hidden="1">
       <c r="A300" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -8681,18 +8682,18 @@
         <v>9</v>
       </c>
       <c r="F300" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G300" s="1">
-        <v>0.9859</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="H300">
         <v>110</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" hidden="1">
       <c r="A301" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -8707,18 +8708,18 @@
         <v>9</v>
       </c>
       <c r="F301" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G301" s="1">
-        <v>0.98660000000000003</v>
+        <v>0.98570000000000002</v>
       </c>
       <c r="H301">
         <v>120</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" hidden="1">
       <c r="A302" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -8733,18 +8734,18 @@
         <v>9</v>
       </c>
       <c r="F302" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G302" s="1">
-        <v>0.9869</v>
+        <v>0.98419999999999996</v>
       </c>
       <c r="H302">
         <v>130</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" hidden="1">
       <c r="A303" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -8759,18 +8760,18 @@
         <v>9</v>
       </c>
       <c r="F303" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G303" s="1">
-        <v>0.9869</v>
+        <v>0.98629999999999995</v>
       </c>
       <c r="H303">
         <v>140</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" hidden="1">
       <c r="A304" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -8785,18 +8786,18 @@
         <v>9</v>
       </c>
       <c r="F304" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G304" s="1">
-        <v>0.98640000000000005</v>
+        <v>0.98580000000000001</v>
       </c>
       <c r="H304">
         <v>150</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" hidden="1">
       <c r="A305" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -8811,18 +8812,18 @@
         <v>9</v>
       </c>
       <c r="F305" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G305" s="1">
-        <v>0.98680000000000001</v>
+        <v>0.9869</v>
       </c>
       <c r="H305">
         <v>160</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" hidden="1">
       <c r="A306" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -8837,18 +8838,18 @@
         <v>9</v>
       </c>
       <c r="F306" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G306" s="1">
-        <v>0.98750000000000004</v>
+        <v>0.98580000000000001</v>
       </c>
       <c r="H306">
         <v>170</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" hidden="1">
       <c r="A307" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -8863,18 +8864,18 @@
         <v>9</v>
       </c>
       <c r="F307" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G307" s="1">
-        <v>0.98819999999999997</v>
+        <v>0.98670000000000002</v>
       </c>
       <c r="H307">
         <v>180</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" hidden="1">
       <c r="A308" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -8889,18 +8890,18 @@
         <v>9</v>
       </c>
       <c r="F308" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G308" s="1">
-        <v>0.98839999999999995</v>
+        <v>0.98640000000000005</v>
       </c>
       <c r="H308">
         <v>190</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" hidden="1">
       <c r="A309" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -8915,16 +8916,16 @@
         <v>9</v>
       </c>
       <c r="F309" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G309" s="1">
-        <v>0.9879</v>
+        <v>0.98540000000000005</v>
       </c>
       <c r="H309">
         <v>200</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" hidden="1">
       <c r="A310" t="s">
         <v>48</v>
       </c>
@@ -8950,7 +8951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" hidden="1">
       <c r="A311" t="s">
         <v>48</v>
       </c>
@@ -8976,7 +8977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" hidden="1">
       <c r="A312" t="s">
         <v>48</v>
       </c>
@@ -9002,7 +9003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" hidden="1">
       <c r="A313" t="s">
         <v>48</v>
       </c>
@@ -9028,7 +9029,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" hidden="1">
       <c r="A314" t="s">
         <v>48</v>
       </c>
@@ -9054,7 +9055,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" hidden="1">
       <c r="A315" t="s">
         <v>48</v>
       </c>
@@ -9080,7 +9081,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" hidden="1">
       <c r="A316" t="s">
         <v>48</v>
       </c>
@@ -9106,7 +9107,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" hidden="1">
       <c r="A317" t="s">
         <v>48</v>
       </c>
@@ -9132,7 +9133,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" hidden="1">
       <c r="A318" t="s">
         <v>48</v>
       </c>
@@ -9158,7 +9159,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" hidden="1">
       <c r="A319" t="s">
         <v>48</v>
       </c>
@@ -9184,7 +9185,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" hidden="1">
       <c r="A320" t="s">
         <v>48</v>
       </c>
@@ -9210,7 +9211,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" hidden="1">
       <c r="A321" t="s">
         <v>48</v>
       </c>
@@ -9236,7 +9237,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" hidden="1">
       <c r="A322" t="s">
         <v>48</v>
       </c>
@@ -9262,7 +9263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" hidden="1">
       <c r="A323" t="s">
         <v>48</v>
       </c>
@@ -9288,7 +9289,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" hidden="1">
       <c r="A324" t="s">
         <v>48</v>
       </c>
@@ -9314,7 +9315,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" hidden="1">
       <c r="A325" t="s">
         <v>48</v>
       </c>
@@ -9340,7 +9341,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" hidden="1">
       <c r="A326" t="s">
         <v>48</v>
       </c>
@@ -9366,7 +9367,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" hidden="1">
       <c r="A327" t="s">
         <v>48</v>
       </c>
@@ -9392,7 +9393,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" hidden="1">
       <c r="A328" t="s">
         <v>48</v>
       </c>
@@ -9418,7 +9419,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" hidden="1">
       <c r="A329" t="s">
         <v>48</v>
       </c>
@@ -9444,7 +9445,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" hidden="1">
       <c r="A330" t="s">
         <v>48</v>
       </c>
@@ -9498,8 +9499,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H331">
-    <sortState ref="A2:H309">
-      <sortCondition ref="F1:F309"/>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="-1"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:H331">
+      <sortCondition ref="A1:A331"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -9517,8 +9523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I157"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:G157"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9529,7 +9535,7 @@
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="24.1640625" customWidth="1"/>
+    <col min="7" max="7" width="56.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1">

--- a/result/Result.xlsx
+++ b/result/Result.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="21760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="21820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mnist_784_unitized" sheetId="1" r:id="rId1"/>
-    <sheet name="svhn" sheetId="2" r:id="rId2"/>
+    <sheet name="svhn_3x32x32_unitized" sheetId="2" r:id="rId2"/>
+    <sheet name="svhn_3x32x32_normalized" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mnist_784_unitized!$A$1:$H$551</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">svhn!$A$1:$I$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">svhn_3x32x32_unitized!$A$1:$I$157</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4346" uniqueCount="86">
   <si>
     <t>accuracy</t>
   </si>
@@ -235,6 +236,54 @@
   <si>
     <t>B(0.8), MBB(0.5, 2.0), MBB(0.5, 2.0), MBB(0.5, 2.0)</t>
   </si>
+  <si>
+    <t>B(0.9), B(0.75), B(0.75), BB(100.0, 100.0), BB(100.0, 100.0), BB(100.0, 100.0)</t>
+  </si>
+  <si>
+    <t>151207-074644</t>
+  </si>
+  <si>
+    <t>151207-074937</t>
+  </si>
+  <si>
+    <t>B(0.9), B(0.75), B(0.75), BB(50.0, 50.0), BB(50.0, 50.0), BB(50.0, 50.0)</t>
+  </si>
+  <si>
+    <t>151208-091522</t>
+  </si>
+  <si>
+    <t>151209-053005</t>
+  </si>
+  <si>
+    <t>151209-053108</t>
+  </si>
+  <si>
+    <t>B(0.9), BB(100.0, 30.0), BB(100.0, 30.0), BB(100.0, 100.0), BB(100.0, 100.0), BB(100.0, 100.0)</t>
+  </si>
+  <si>
+    <t>151209-091137</t>
+  </si>
+  <si>
+    <t>151209-091319</t>
+  </si>
+  <si>
+    <t>151209-091837</t>
+  </si>
+  <si>
+    <t>151209-092019</t>
+  </si>
+  <si>
+    <t>151209-092233</t>
+  </si>
+  <si>
+    <t>151209-093441</t>
+  </si>
+  <si>
+    <t>151209-094130</t>
+  </si>
+  <si>
+    <t>151212-094621</t>
+  </si>
 </sst>
 </file>
 
@@ -288,8 +337,116 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="209">
+  <cellStyleXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -506,7 +663,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="209">
+  <cellStyles count="317">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -611,6 +768,60 @@
     <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -715,6 +926,60 @@
     <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1047,8 +1312,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H551"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E568" sqref="E568"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E552" sqref="E552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15413,10 +15678,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I417"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="I98" sqref="I98"/>
+    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="G398" sqref="G398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15427,7 +15692,7 @@
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="56.6640625" customWidth="1"/>
+    <col min="7" max="7" width="76.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1">
@@ -19983,8 +20248,7548 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="158" spans="1:9">
+      <c r="A158" t="s">
+        <v>71</v>
+      </c>
+      <c r="B158">
+        <v>50</v>
+      </c>
+      <c r="C158">
+        <v>0.01</v>
+      </c>
+      <c r="D158" t="s">
+        <v>29</v>
+      </c>
+      <c r="E158" t="s">
+        <v>27</v>
+      </c>
+      <c r="F158" t="s">
+        <v>28</v>
+      </c>
+      <c r="G158" t="s">
+        <v>70</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0.87880301000000005</v>
+      </c>
+      <c r="I158">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" t="s">
+        <v>71</v>
+      </c>
+      <c r="B159">
+        <v>50</v>
+      </c>
+      <c r="C159">
+        <v>0.01</v>
+      </c>
+      <c r="D159" t="s">
+        <v>29</v>
+      </c>
+      <c r="E159" t="s">
+        <v>27</v>
+      </c>
+      <c r="F159" t="s">
+        <v>28</v>
+      </c>
+      <c r="G159" t="s">
+        <v>70</v>
+      </c>
+      <c r="H159" s="1">
+        <v>0.1107099</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" t="s">
+        <v>71</v>
+      </c>
+      <c r="B160">
+        <v>50</v>
+      </c>
+      <c r="C160">
+        <v>0.01</v>
+      </c>
+      <c r="D160" t="s">
+        <v>29</v>
+      </c>
+      <c r="E160" t="s">
+        <v>27</v>
+      </c>
+      <c r="F160" t="s">
+        <v>28</v>
+      </c>
+      <c r="G160" t="s">
+        <v>70</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0.40238937000000002</v>
+      </c>
+      <c r="I160">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" t="s">
+        <v>71</v>
+      </c>
+      <c r="B161">
+        <v>50</v>
+      </c>
+      <c r="C161">
+        <v>0.01</v>
+      </c>
+      <c r="D161" t="s">
+        <v>29</v>
+      </c>
+      <c r="E161" t="s">
+        <v>27</v>
+      </c>
+      <c r="F161" t="s">
+        <v>28</v>
+      </c>
+      <c r="G161" t="s">
+        <v>70</v>
+      </c>
+      <c r="H161" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I161">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" t="s">
+        <v>71</v>
+      </c>
+      <c r="B162">
+        <v>50</v>
+      </c>
+      <c r="C162">
+        <v>0.01</v>
+      </c>
+      <c r="D162" t="s">
+        <v>29</v>
+      </c>
+      <c r="E162" t="s">
+        <v>27</v>
+      </c>
+      <c r="F162" t="s">
+        <v>28</v>
+      </c>
+      <c r="G162" t="s">
+        <v>70</v>
+      </c>
+      <c r="H162" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I162">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
+        <v>71</v>
+      </c>
+      <c r="B163">
+        <v>50</v>
+      </c>
+      <c r="C163">
+        <v>0.01</v>
+      </c>
+      <c r="D163" t="s">
+        <v>29</v>
+      </c>
+      <c r="E163" t="s">
+        <v>27</v>
+      </c>
+      <c r="F163" t="s">
+        <v>28</v>
+      </c>
+      <c r="G163" t="s">
+        <v>70</v>
+      </c>
+      <c r="H163" s="1">
+        <v>0.19837124</v>
+      </c>
+      <c r="I163">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" t="s">
+        <v>71</v>
+      </c>
+      <c r="B164">
+        <v>50</v>
+      </c>
+      <c r="C164">
+        <v>0.01</v>
+      </c>
+      <c r="D164" t="s">
+        <v>29</v>
+      </c>
+      <c r="E164" t="s">
+        <v>27</v>
+      </c>
+      <c r="F164" t="s">
+        <v>28</v>
+      </c>
+      <c r="G164" t="s">
+        <v>70</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I164">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" t="s">
+        <v>71</v>
+      </c>
+      <c r="B165">
+        <v>50</v>
+      </c>
+      <c r="C165">
+        <v>0.01</v>
+      </c>
+      <c r="D165" t="s">
+        <v>29</v>
+      </c>
+      <c r="E165" t="s">
+        <v>27</v>
+      </c>
+      <c r="F165" t="s">
+        <v>28</v>
+      </c>
+      <c r="G165" t="s">
+        <v>70</v>
+      </c>
+      <c r="H165" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I165">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" t="s">
+        <v>71</v>
+      </c>
+      <c r="B166">
+        <v>50</v>
+      </c>
+      <c r="C166">
+        <v>0.01</v>
+      </c>
+      <c r="D166" t="s">
+        <v>29</v>
+      </c>
+      <c r="E166" t="s">
+        <v>27</v>
+      </c>
+      <c r="F166" t="s">
+        <v>28</v>
+      </c>
+      <c r="G166" t="s">
+        <v>70</v>
+      </c>
+      <c r="H166" s="1">
+        <v>0.80800552999999997</v>
+      </c>
+      <c r="I166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" t="s">
+        <v>71</v>
+      </c>
+      <c r="B167">
+        <v>50</v>
+      </c>
+      <c r="C167">
+        <v>0.01</v>
+      </c>
+      <c r="D167" t="s">
+        <v>29</v>
+      </c>
+      <c r="E167" t="s">
+        <v>27</v>
+      </c>
+      <c r="F167" t="s">
+        <v>28</v>
+      </c>
+      <c r="G167" t="s">
+        <v>70</v>
+      </c>
+      <c r="H167" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I167">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" t="s">
+        <v>71</v>
+      </c>
+      <c r="B168">
+        <v>50</v>
+      </c>
+      <c r="C168">
+        <v>0.01</v>
+      </c>
+      <c r="D168" t="s">
+        <v>29</v>
+      </c>
+      <c r="E168" t="s">
+        <v>27</v>
+      </c>
+      <c r="F168" t="s">
+        <v>28</v>
+      </c>
+      <c r="G168" t="s">
+        <v>70</v>
+      </c>
+      <c r="H168" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I168">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" t="s">
+        <v>71</v>
+      </c>
+      <c r="B169">
+        <v>50</v>
+      </c>
+      <c r="C169">
+        <v>0.01</v>
+      </c>
+      <c r="D169" t="s">
+        <v>29</v>
+      </c>
+      <c r="E169" t="s">
+        <v>27</v>
+      </c>
+      <c r="F169" t="s">
+        <v>28</v>
+      </c>
+      <c r="G169" t="s">
+        <v>70</v>
+      </c>
+      <c r="H169" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I169">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" t="s">
+        <v>71</v>
+      </c>
+      <c r="B170">
+        <v>50</v>
+      </c>
+      <c r="C170">
+        <v>0.01</v>
+      </c>
+      <c r="D170" t="s">
+        <v>29</v>
+      </c>
+      <c r="E170" t="s">
+        <v>27</v>
+      </c>
+      <c r="F170" t="s">
+        <v>28</v>
+      </c>
+      <c r="G170" t="s">
+        <v>70</v>
+      </c>
+      <c r="H170" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I170">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" t="s">
+        <v>71</v>
+      </c>
+      <c r="B171">
+        <v>50</v>
+      </c>
+      <c r="C171">
+        <v>0.01</v>
+      </c>
+      <c r="D171" t="s">
+        <v>29</v>
+      </c>
+      <c r="E171" t="s">
+        <v>27</v>
+      </c>
+      <c r="F171" t="s">
+        <v>28</v>
+      </c>
+      <c r="G171" t="s">
+        <v>70</v>
+      </c>
+      <c r="H171" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I171">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" t="s">
+        <v>71</v>
+      </c>
+      <c r="B172">
+        <v>50</v>
+      </c>
+      <c r="C172">
+        <v>0.01</v>
+      </c>
+      <c r="D172" t="s">
+        <v>29</v>
+      </c>
+      <c r="E172" t="s">
+        <v>27</v>
+      </c>
+      <c r="F172" t="s">
+        <v>28</v>
+      </c>
+      <c r="G172" t="s">
+        <v>70</v>
+      </c>
+      <c r="H172" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I172">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" t="s">
+        <v>71</v>
+      </c>
+      <c r="B173">
+        <v>50</v>
+      </c>
+      <c r="C173">
+        <v>0.01</v>
+      </c>
+      <c r="D173" t="s">
+        <v>29</v>
+      </c>
+      <c r="E173" t="s">
+        <v>27</v>
+      </c>
+      <c r="F173" t="s">
+        <v>28</v>
+      </c>
+      <c r="G173" t="s">
+        <v>70</v>
+      </c>
+      <c r="H173" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I173">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" t="s">
+        <v>71</v>
+      </c>
+      <c r="B174">
+        <v>50</v>
+      </c>
+      <c r="C174">
+        <v>0.01</v>
+      </c>
+      <c r="D174" t="s">
+        <v>29</v>
+      </c>
+      <c r="E174" t="s">
+        <v>27</v>
+      </c>
+      <c r="F174" t="s">
+        <v>28</v>
+      </c>
+      <c r="G174" t="s">
+        <v>70</v>
+      </c>
+      <c r="H174" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I174">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" t="s">
+        <v>71</v>
+      </c>
+      <c r="B175">
+        <v>50</v>
+      </c>
+      <c r="C175">
+        <v>0.01</v>
+      </c>
+      <c r="D175" t="s">
+        <v>29</v>
+      </c>
+      <c r="E175" t="s">
+        <v>27</v>
+      </c>
+      <c r="F175" t="s">
+        <v>28</v>
+      </c>
+      <c r="G175" t="s">
+        <v>70</v>
+      </c>
+      <c r="H175" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I175">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" t="s">
+        <v>71</v>
+      </c>
+      <c r="B176">
+        <v>50</v>
+      </c>
+      <c r="C176">
+        <v>0.01</v>
+      </c>
+      <c r="D176" t="s">
+        <v>29</v>
+      </c>
+      <c r="E176" t="s">
+        <v>27</v>
+      </c>
+      <c r="F176" t="s">
+        <v>28</v>
+      </c>
+      <c r="G176" t="s">
+        <v>70</v>
+      </c>
+      <c r="H176" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I176">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" t="s">
+        <v>71</v>
+      </c>
+      <c r="B177">
+        <v>50</v>
+      </c>
+      <c r="C177">
+        <v>0.01</v>
+      </c>
+      <c r="D177" t="s">
+        <v>29</v>
+      </c>
+      <c r="E177" t="s">
+        <v>27</v>
+      </c>
+      <c r="F177" t="s">
+        <v>28</v>
+      </c>
+      <c r="G177" t="s">
+        <v>70</v>
+      </c>
+      <c r="H177" s="1">
+        <v>0.77285647999999996</v>
+      </c>
+      <c r="I177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" t="s">
+        <v>71</v>
+      </c>
+      <c r="B178">
+        <v>50</v>
+      </c>
+      <c r="C178">
+        <v>0.01</v>
+      </c>
+      <c r="D178" t="s">
+        <v>29</v>
+      </c>
+      <c r="E178" t="s">
+        <v>27</v>
+      </c>
+      <c r="F178" t="s">
+        <v>28</v>
+      </c>
+      <c r="G178" t="s">
+        <v>70</v>
+      </c>
+      <c r="H178" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I178">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" t="s">
+        <v>71</v>
+      </c>
+      <c r="B179">
+        <v>50</v>
+      </c>
+      <c r="C179">
+        <v>0.01</v>
+      </c>
+      <c r="D179" t="s">
+        <v>29</v>
+      </c>
+      <c r="E179" t="s">
+        <v>27</v>
+      </c>
+      <c r="F179" t="s">
+        <v>28</v>
+      </c>
+      <c r="G179" t="s">
+        <v>70</v>
+      </c>
+      <c r="H179" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I179">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" t="s">
+        <v>71</v>
+      </c>
+      <c r="B180">
+        <v>50</v>
+      </c>
+      <c r="C180">
+        <v>0.01</v>
+      </c>
+      <c r="D180" t="s">
+        <v>29</v>
+      </c>
+      <c r="E180" t="s">
+        <v>27</v>
+      </c>
+      <c r="F180" t="s">
+        <v>28</v>
+      </c>
+      <c r="G180" t="s">
+        <v>70</v>
+      </c>
+      <c r="H180" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I180">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" t="s">
+        <v>71</v>
+      </c>
+      <c r="B181">
+        <v>50</v>
+      </c>
+      <c r="C181">
+        <v>0.01</v>
+      </c>
+      <c r="D181" t="s">
+        <v>29</v>
+      </c>
+      <c r="E181" t="s">
+        <v>27</v>
+      </c>
+      <c r="F181" t="s">
+        <v>28</v>
+      </c>
+      <c r="G181" t="s">
+        <v>70</v>
+      </c>
+      <c r="H181" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I181">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" t="s">
+        <v>71</v>
+      </c>
+      <c r="B182">
+        <v>50</v>
+      </c>
+      <c r="C182">
+        <v>0.01</v>
+      </c>
+      <c r="D182" t="s">
+        <v>29</v>
+      </c>
+      <c r="E182" t="s">
+        <v>27</v>
+      </c>
+      <c r="F182" t="s">
+        <v>28</v>
+      </c>
+      <c r="G182" t="s">
+        <v>70</v>
+      </c>
+      <c r="H182" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I182">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" t="s">
+        <v>71</v>
+      </c>
+      <c r="B183">
+        <v>50</v>
+      </c>
+      <c r="C183">
+        <v>0.01</v>
+      </c>
+      <c r="D183" t="s">
+        <v>29</v>
+      </c>
+      <c r="E183" t="s">
+        <v>27</v>
+      </c>
+      <c r="F183" t="s">
+        <v>28</v>
+      </c>
+      <c r="G183" t="s">
+        <v>70</v>
+      </c>
+      <c r="H183" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I183">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" t="s">
+        <v>71</v>
+      </c>
+      <c r="B184">
+        <v>50</v>
+      </c>
+      <c r="C184">
+        <v>0.01</v>
+      </c>
+      <c r="D184" t="s">
+        <v>29</v>
+      </c>
+      <c r="E184" t="s">
+        <v>27</v>
+      </c>
+      <c r="F184" t="s">
+        <v>28</v>
+      </c>
+      <c r="G184" t="s">
+        <v>70</v>
+      </c>
+      <c r="H184" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I184">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" t="s">
+        <v>71</v>
+      </c>
+      <c r="B185">
+        <v>50</v>
+      </c>
+      <c r="C185">
+        <v>0.01</v>
+      </c>
+      <c r="D185" t="s">
+        <v>29</v>
+      </c>
+      <c r="E185" t="s">
+        <v>27</v>
+      </c>
+      <c r="F185" t="s">
+        <v>28</v>
+      </c>
+      <c r="G185" t="s">
+        <v>70</v>
+      </c>
+      <c r="H185" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I185">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" t="s">
+        <v>71</v>
+      </c>
+      <c r="B186">
+        <v>50</v>
+      </c>
+      <c r="C186">
+        <v>0.01</v>
+      </c>
+      <c r="D186" t="s">
+        <v>29</v>
+      </c>
+      <c r="E186" t="s">
+        <v>27</v>
+      </c>
+      <c r="F186" t="s">
+        <v>28</v>
+      </c>
+      <c r="G186" t="s">
+        <v>70</v>
+      </c>
+      <c r="H186" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I186">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" t="s">
+        <v>71</v>
+      </c>
+      <c r="B187">
+        <v>50</v>
+      </c>
+      <c r="C187">
+        <v>0.01</v>
+      </c>
+      <c r="D187" t="s">
+        <v>29</v>
+      </c>
+      <c r="E187" t="s">
+        <v>27</v>
+      </c>
+      <c r="F187" t="s">
+        <v>28</v>
+      </c>
+      <c r="G187" t="s">
+        <v>70</v>
+      </c>
+      <c r="H187" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I187">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" t="s">
+        <v>71</v>
+      </c>
+      <c r="B188">
+        <v>50</v>
+      </c>
+      <c r="C188">
+        <v>0.01</v>
+      </c>
+      <c r="D188" t="s">
+        <v>29</v>
+      </c>
+      <c r="E188" t="s">
+        <v>27</v>
+      </c>
+      <c r="F188" t="s">
+        <v>28</v>
+      </c>
+      <c r="G188" t="s">
+        <v>70</v>
+      </c>
+      <c r="H188" s="1">
+        <v>0.56188537000000005</v>
+      </c>
+      <c r="I188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" t="s">
+        <v>71</v>
+      </c>
+      <c r="B189">
+        <v>50</v>
+      </c>
+      <c r="C189">
+        <v>0.01</v>
+      </c>
+      <c r="D189" t="s">
+        <v>29</v>
+      </c>
+      <c r="E189" t="s">
+        <v>27</v>
+      </c>
+      <c r="F189" t="s">
+        <v>28</v>
+      </c>
+      <c r="G189" t="s">
+        <v>70</v>
+      </c>
+      <c r="H189" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I189">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" t="s">
+        <v>71</v>
+      </c>
+      <c r="B190">
+        <v>50</v>
+      </c>
+      <c r="C190">
+        <v>0.01</v>
+      </c>
+      <c r="D190" t="s">
+        <v>29</v>
+      </c>
+      <c r="E190" t="s">
+        <v>27</v>
+      </c>
+      <c r="F190" t="s">
+        <v>28</v>
+      </c>
+      <c r="G190" t="s">
+        <v>70</v>
+      </c>
+      <c r="H190" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I190">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" t="s">
+        <v>71</v>
+      </c>
+      <c r="B191">
+        <v>50</v>
+      </c>
+      <c r="C191">
+        <v>0.01</v>
+      </c>
+      <c r="D191" t="s">
+        <v>29</v>
+      </c>
+      <c r="E191" t="s">
+        <v>27</v>
+      </c>
+      <c r="F191" t="s">
+        <v>28</v>
+      </c>
+      <c r="G191" t="s">
+        <v>70</v>
+      </c>
+      <c r="H191" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I191">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" t="s">
+        <v>71</v>
+      </c>
+      <c r="B192">
+        <v>50</v>
+      </c>
+      <c r="C192">
+        <v>0.01</v>
+      </c>
+      <c r="D192" t="s">
+        <v>29</v>
+      </c>
+      <c r="E192" t="s">
+        <v>27</v>
+      </c>
+      <c r="F192" t="s">
+        <v>28</v>
+      </c>
+      <c r="G192" t="s">
+        <v>70</v>
+      </c>
+      <c r="H192" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I192">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" t="s">
+        <v>71</v>
+      </c>
+      <c r="B193">
+        <v>50</v>
+      </c>
+      <c r="C193">
+        <v>0.01</v>
+      </c>
+      <c r="D193" t="s">
+        <v>29</v>
+      </c>
+      <c r="E193" t="s">
+        <v>27</v>
+      </c>
+      <c r="F193" t="s">
+        <v>28</v>
+      </c>
+      <c r="G193" t="s">
+        <v>70</v>
+      </c>
+      <c r="H193" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I193">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" t="s">
+        <v>71</v>
+      </c>
+      <c r="B194">
+        <v>50</v>
+      </c>
+      <c r="C194">
+        <v>0.01</v>
+      </c>
+      <c r="D194" t="s">
+        <v>29</v>
+      </c>
+      <c r="E194" t="s">
+        <v>27</v>
+      </c>
+      <c r="F194" t="s">
+        <v>28</v>
+      </c>
+      <c r="G194" t="s">
+        <v>70</v>
+      </c>
+      <c r="H194" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I194">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" t="s">
+        <v>71</v>
+      </c>
+      <c r="B195">
+        <v>50</v>
+      </c>
+      <c r="C195">
+        <v>0.01</v>
+      </c>
+      <c r="D195" t="s">
+        <v>29</v>
+      </c>
+      <c r="E195" t="s">
+        <v>27</v>
+      </c>
+      <c r="F195" t="s">
+        <v>28</v>
+      </c>
+      <c r="G195" t="s">
+        <v>70</v>
+      </c>
+      <c r="H195" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I195">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" t="s">
+        <v>71</v>
+      </c>
+      <c r="B196">
+        <v>50</v>
+      </c>
+      <c r="C196">
+        <v>0.01</v>
+      </c>
+      <c r="D196" t="s">
+        <v>29</v>
+      </c>
+      <c r="E196" t="s">
+        <v>27</v>
+      </c>
+      <c r="F196" t="s">
+        <v>28</v>
+      </c>
+      <c r="G196" t="s">
+        <v>70</v>
+      </c>
+      <c r="H196" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I196">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" t="s">
+        <v>71</v>
+      </c>
+      <c r="B197">
+        <v>50</v>
+      </c>
+      <c r="C197">
+        <v>0.01</v>
+      </c>
+      <c r="D197" t="s">
+        <v>29</v>
+      </c>
+      <c r="E197" t="s">
+        <v>27</v>
+      </c>
+      <c r="F197" t="s">
+        <v>28</v>
+      </c>
+      <c r="G197" t="s">
+        <v>70</v>
+      </c>
+      <c r="H197" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I197">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" t="s">
+        <v>71</v>
+      </c>
+      <c r="B198">
+        <v>50</v>
+      </c>
+      <c r="C198">
+        <v>0.01</v>
+      </c>
+      <c r="D198" t="s">
+        <v>29</v>
+      </c>
+      <c r="E198" t="s">
+        <v>27</v>
+      </c>
+      <c r="F198" t="s">
+        <v>28</v>
+      </c>
+      <c r="G198" t="s">
+        <v>70</v>
+      </c>
+      <c r="H198" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I198">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" t="s">
+        <v>71</v>
+      </c>
+      <c r="B199">
+        <v>50</v>
+      </c>
+      <c r="C199">
+        <v>0.01</v>
+      </c>
+      <c r="D199" t="s">
+        <v>29</v>
+      </c>
+      <c r="E199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F199" t="s">
+        <v>28</v>
+      </c>
+      <c r="G199" t="s">
+        <v>70</v>
+      </c>
+      <c r="H199" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I199">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" t="s">
+        <v>71</v>
+      </c>
+      <c r="B200">
+        <v>50</v>
+      </c>
+      <c r="C200">
+        <v>0.01</v>
+      </c>
+      <c r="D200" t="s">
+        <v>29</v>
+      </c>
+      <c r="E200" t="s">
+        <v>27</v>
+      </c>
+      <c r="F200" t="s">
+        <v>28</v>
+      </c>
+      <c r="G200" t="s">
+        <v>70</v>
+      </c>
+      <c r="H200" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I200">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" t="s">
+        <v>71</v>
+      </c>
+      <c r="B201">
+        <v>50</v>
+      </c>
+      <c r="C201">
+        <v>0.01</v>
+      </c>
+      <c r="D201" t="s">
+        <v>29</v>
+      </c>
+      <c r="E201" t="s">
+        <v>27</v>
+      </c>
+      <c r="F201" t="s">
+        <v>28</v>
+      </c>
+      <c r="G201" t="s">
+        <v>70</v>
+      </c>
+      <c r="H201" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I201">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" t="s">
+        <v>71</v>
+      </c>
+      <c r="B202">
+        <v>50</v>
+      </c>
+      <c r="C202">
+        <v>0.01</v>
+      </c>
+      <c r="D202" t="s">
+        <v>29</v>
+      </c>
+      <c r="E202" t="s">
+        <v>27</v>
+      </c>
+      <c r="F202" t="s">
+        <v>28</v>
+      </c>
+      <c r="G202" t="s">
+        <v>70</v>
+      </c>
+      <c r="H202" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I202">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" t="s">
+        <v>71</v>
+      </c>
+      <c r="B203">
+        <v>50</v>
+      </c>
+      <c r="C203">
+        <v>0.01</v>
+      </c>
+      <c r="D203" t="s">
+        <v>29</v>
+      </c>
+      <c r="E203" t="s">
+        <v>27</v>
+      </c>
+      <c r="F203" t="s">
+        <v>28</v>
+      </c>
+      <c r="G203" t="s">
+        <v>70</v>
+      </c>
+      <c r="H203" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I203">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" t="s">
+        <v>71</v>
+      </c>
+      <c r="B204">
+        <v>50</v>
+      </c>
+      <c r="C204">
+        <v>0.01</v>
+      </c>
+      <c r="D204" t="s">
+        <v>29</v>
+      </c>
+      <c r="E204" t="s">
+        <v>27</v>
+      </c>
+      <c r="F204" t="s">
+        <v>28</v>
+      </c>
+      <c r="G204" t="s">
+        <v>70</v>
+      </c>
+      <c r="H204" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I204">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" t="s">
+        <v>71</v>
+      </c>
+      <c r="B205">
+        <v>50</v>
+      </c>
+      <c r="C205">
+        <v>0.01</v>
+      </c>
+      <c r="D205" t="s">
+        <v>29</v>
+      </c>
+      <c r="E205" t="s">
+        <v>27</v>
+      </c>
+      <c r="F205" t="s">
+        <v>28</v>
+      </c>
+      <c r="G205" t="s">
+        <v>70</v>
+      </c>
+      <c r="H205" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I205">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" t="s">
+        <v>71</v>
+      </c>
+      <c r="B206">
+        <v>50</v>
+      </c>
+      <c r="C206">
+        <v>0.01</v>
+      </c>
+      <c r="D206" t="s">
+        <v>29</v>
+      </c>
+      <c r="E206" t="s">
+        <v>27</v>
+      </c>
+      <c r="F206" t="s">
+        <v>28</v>
+      </c>
+      <c r="G206" t="s">
+        <v>70</v>
+      </c>
+      <c r="H206" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I206">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" t="s">
+        <v>71</v>
+      </c>
+      <c r="B207">
+        <v>50</v>
+      </c>
+      <c r="C207">
+        <v>0.01</v>
+      </c>
+      <c r="D207" t="s">
+        <v>29</v>
+      </c>
+      <c r="E207" t="s">
+        <v>27</v>
+      </c>
+      <c r="F207" t="s">
+        <v>28</v>
+      </c>
+      <c r="G207" t="s">
+        <v>70</v>
+      </c>
+      <c r="H207" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I207">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" t="s">
+        <v>71</v>
+      </c>
+      <c r="B208">
+        <v>50</v>
+      </c>
+      <c r="C208">
+        <v>0.01</v>
+      </c>
+      <c r="D208" t="s">
+        <v>29</v>
+      </c>
+      <c r="E208" t="s">
+        <v>27</v>
+      </c>
+      <c r="F208" t="s">
+        <v>28</v>
+      </c>
+      <c r="G208" t="s">
+        <v>70</v>
+      </c>
+      <c r="H208" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I208">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" t="s">
+        <v>71</v>
+      </c>
+      <c r="B209">
+        <v>50</v>
+      </c>
+      <c r="C209">
+        <v>0.01</v>
+      </c>
+      <c r="D209" t="s">
+        <v>29</v>
+      </c>
+      <c r="E209" t="s">
+        <v>27</v>
+      </c>
+      <c r="F209" t="s">
+        <v>28</v>
+      </c>
+      <c r="G209" t="s">
+        <v>70</v>
+      </c>
+      <c r="H209" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I209">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" t="s">
+        <v>72</v>
+      </c>
+      <c r="B210">
+        <v>50</v>
+      </c>
+      <c r="C210">
+        <v>0.01</v>
+      </c>
+      <c r="D210" t="s">
+        <v>29</v>
+      </c>
+      <c r="E210" t="s">
+        <v>27</v>
+      </c>
+      <c r="F210" t="s">
+        <v>28</v>
+      </c>
+      <c r="G210" t="s">
+        <v>73</v>
+      </c>
+      <c r="H210" s="1">
+        <v>0.86977565999999995</v>
+      </c>
+      <c r="I210">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" t="s">
+        <v>72</v>
+      </c>
+      <c r="B211">
+        <v>50</v>
+      </c>
+      <c r="C211">
+        <v>0.01</v>
+      </c>
+      <c r="D211" t="s">
+        <v>29</v>
+      </c>
+      <c r="E211" t="s">
+        <v>27</v>
+      </c>
+      <c r="F211" t="s">
+        <v>28</v>
+      </c>
+      <c r="G211" t="s">
+        <v>73</v>
+      </c>
+      <c r="H211" s="1">
+        <v>6.1309160000000001E-2</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" t="s">
+        <v>72</v>
+      </c>
+      <c r="B212">
+        <v>50</v>
+      </c>
+      <c r="C212">
+        <v>0.01</v>
+      </c>
+      <c r="D212" t="s">
+        <v>29</v>
+      </c>
+      <c r="E212" t="s">
+        <v>27</v>
+      </c>
+      <c r="F212" t="s">
+        <v>28</v>
+      </c>
+      <c r="G212" t="s">
+        <v>73</v>
+      </c>
+      <c r="H212" s="1">
+        <v>0.82421635000000004</v>
+      </c>
+      <c r="I212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" t="s">
+        <v>72</v>
+      </c>
+      <c r="B213">
+        <v>50</v>
+      </c>
+      <c r="C213">
+        <v>0.01</v>
+      </c>
+      <c r="D213" t="s">
+        <v>29</v>
+      </c>
+      <c r="E213" t="s">
+        <v>27</v>
+      </c>
+      <c r="F213" t="s">
+        <v>28</v>
+      </c>
+      <c r="G213" t="s">
+        <v>73</v>
+      </c>
+      <c r="H213" s="1">
+        <v>0.80512446000000004</v>
+      </c>
+      <c r="I213">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" t="s">
+        <v>72</v>
+      </c>
+      <c r="B214">
+        <v>50</v>
+      </c>
+      <c r="C214">
+        <v>0.01</v>
+      </c>
+      <c r="D214" t="s">
+        <v>29</v>
+      </c>
+      <c r="E214" t="s">
+        <v>27</v>
+      </c>
+      <c r="F214" t="s">
+        <v>28</v>
+      </c>
+      <c r="G214" t="s">
+        <v>73</v>
+      </c>
+      <c r="H214" s="1">
+        <v>0.67182697999999996</v>
+      </c>
+      <c r="I214">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" t="s">
+        <v>72</v>
+      </c>
+      <c r="B215">
+        <v>50</v>
+      </c>
+      <c r="C215">
+        <v>0.01</v>
+      </c>
+      <c r="D215" t="s">
+        <v>29</v>
+      </c>
+      <c r="E215" t="s">
+        <v>27</v>
+      </c>
+      <c r="F215" t="s">
+        <v>28</v>
+      </c>
+      <c r="G215" t="s">
+        <v>73</v>
+      </c>
+      <c r="H215" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I215">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" t="s">
+        <v>72</v>
+      </c>
+      <c r="B216">
+        <v>50</v>
+      </c>
+      <c r="C216">
+        <v>0.01</v>
+      </c>
+      <c r="D216" t="s">
+        <v>29</v>
+      </c>
+      <c r="E216" t="s">
+        <v>27</v>
+      </c>
+      <c r="F216" t="s">
+        <v>28</v>
+      </c>
+      <c r="G216" t="s">
+        <v>73</v>
+      </c>
+      <c r="H216" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I216">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" t="s">
+        <v>72</v>
+      </c>
+      <c r="B217">
+        <v>50</v>
+      </c>
+      <c r="C217">
+        <v>0.01</v>
+      </c>
+      <c r="D217" t="s">
+        <v>29</v>
+      </c>
+      <c r="E217" t="s">
+        <v>27</v>
+      </c>
+      <c r="F217" t="s">
+        <v>28</v>
+      </c>
+      <c r="G217" t="s">
+        <v>73</v>
+      </c>
+      <c r="H217" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I217">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" t="s">
+        <v>72</v>
+      </c>
+      <c r="B218">
+        <v>50</v>
+      </c>
+      <c r="C218">
+        <v>0.01</v>
+      </c>
+      <c r="D218" t="s">
+        <v>29</v>
+      </c>
+      <c r="E218" t="s">
+        <v>27</v>
+      </c>
+      <c r="F218" t="s">
+        <v>28</v>
+      </c>
+      <c r="G218" t="s">
+        <v>73</v>
+      </c>
+      <c r="H218" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" t="s">
+        <v>72</v>
+      </c>
+      <c r="B219">
+        <v>50</v>
+      </c>
+      <c r="C219">
+        <v>0.01</v>
+      </c>
+      <c r="D219" t="s">
+        <v>29</v>
+      </c>
+      <c r="E219" t="s">
+        <v>27</v>
+      </c>
+      <c r="F219" t="s">
+        <v>28</v>
+      </c>
+      <c r="G219" t="s">
+        <v>73</v>
+      </c>
+      <c r="H219" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I219">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" t="s">
+        <v>72</v>
+      </c>
+      <c r="B220">
+        <v>50</v>
+      </c>
+      <c r="C220">
+        <v>0.01</v>
+      </c>
+      <c r="D220" t="s">
+        <v>29</v>
+      </c>
+      <c r="E220" t="s">
+        <v>27</v>
+      </c>
+      <c r="F220" t="s">
+        <v>28</v>
+      </c>
+      <c r="G220" t="s">
+        <v>73</v>
+      </c>
+      <c r="H220" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I220">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" t="s">
+        <v>72</v>
+      </c>
+      <c r="B221">
+        <v>50</v>
+      </c>
+      <c r="C221">
+        <v>0.01</v>
+      </c>
+      <c r="D221" t="s">
+        <v>29</v>
+      </c>
+      <c r="E221" t="s">
+        <v>27</v>
+      </c>
+      <c r="F221" t="s">
+        <v>28</v>
+      </c>
+      <c r="G221" t="s">
+        <v>73</v>
+      </c>
+      <c r="H221" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I221">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" t="s">
+        <v>72</v>
+      </c>
+      <c r="B222">
+        <v>50</v>
+      </c>
+      <c r="C222">
+        <v>0.01</v>
+      </c>
+      <c r="D222" t="s">
+        <v>29</v>
+      </c>
+      <c r="E222" t="s">
+        <v>27</v>
+      </c>
+      <c r="F222" t="s">
+        <v>28</v>
+      </c>
+      <c r="G222" t="s">
+        <v>73</v>
+      </c>
+      <c r="H222" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I222">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" t="s">
+        <v>72</v>
+      </c>
+      <c r="B223">
+        <v>50</v>
+      </c>
+      <c r="C223">
+        <v>0.01</v>
+      </c>
+      <c r="D223" t="s">
+        <v>29</v>
+      </c>
+      <c r="E223" t="s">
+        <v>27</v>
+      </c>
+      <c r="F223" t="s">
+        <v>28</v>
+      </c>
+      <c r="G223" t="s">
+        <v>73</v>
+      </c>
+      <c r="H223" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I223">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" t="s">
+        <v>72</v>
+      </c>
+      <c r="B224">
+        <v>50</v>
+      </c>
+      <c r="C224">
+        <v>0.01</v>
+      </c>
+      <c r="D224" t="s">
+        <v>29</v>
+      </c>
+      <c r="E224" t="s">
+        <v>27</v>
+      </c>
+      <c r="F224" t="s">
+        <v>28</v>
+      </c>
+      <c r="G224" t="s">
+        <v>73</v>
+      </c>
+      <c r="H224" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I224">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" t="s">
+        <v>72</v>
+      </c>
+      <c r="B225">
+        <v>50</v>
+      </c>
+      <c r="C225">
+        <v>0.01</v>
+      </c>
+      <c r="D225" t="s">
+        <v>29</v>
+      </c>
+      <c r="E225" t="s">
+        <v>27</v>
+      </c>
+      <c r="F225" t="s">
+        <v>28</v>
+      </c>
+      <c r="G225" t="s">
+        <v>73</v>
+      </c>
+      <c r="H225" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I225">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" t="s">
+        <v>72</v>
+      </c>
+      <c r="B226">
+        <v>50</v>
+      </c>
+      <c r="C226">
+        <v>0.01</v>
+      </c>
+      <c r="D226" t="s">
+        <v>29</v>
+      </c>
+      <c r="E226" t="s">
+        <v>27</v>
+      </c>
+      <c r="F226" t="s">
+        <v>28</v>
+      </c>
+      <c r="G226" t="s">
+        <v>73</v>
+      </c>
+      <c r="H226" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I226">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" t="s">
+        <v>72</v>
+      </c>
+      <c r="B227">
+        <v>50</v>
+      </c>
+      <c r="C227">
+        <v>0.01</v>
+      </c>
+      <c r="D227" t="s">
+        <v>29</v>
+      </c>
+      <c r="E227" t="s">
+        <v>27</v>
+      </c>
+      <c r="F227" t="s">
+        <v>28</v>
+      </c>
+      <c r="G227" t="s">
+        <v>73</v>
+      </c>
+      <c r="H227" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I227">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" t="s">
+        <v>72</v>
+      </c>
+      <c r="B228">
+        <v>50</v>
+      </c>
+      <c r="C228">
+        <v>0.01</v>
+      </c>
+      <c r="D228" t="s">
+        <v>29</v>
+      </c>
+      <c r="E228" t="s">
+        <v>27</v>
+      </c>
+      <c r="F228" t="s">
+        <v>28</v>
+      </c>
+      <c r="G228" t="s">
+        <v>73</v>
+      </c>
+      <c r="H228" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I228">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" t="s">
+        <v>72</v>
+      </c>
+      <c r="B229">
+        <v>50</v>
+      </c>
+      <c r="C229">
+        <v>0.01</v>
+      </c>
+      <c r="D229" t="s">
+        <v>29</v>
+      </c>
+      <c r="E229" t="s">
+        <v>27</v>
+      </c>
+      <c r="F229" t="s">
+        <v>28</v>
+      </c>
+      <c r="G229" t="s">
+        <v>73</v>
+      </c>
+      <c r="H229" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I229">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" t="s">
+        <v>72</v>
+      </c>
+      <c r="B230">
+        <v>50</v>
+      </c>
+      <c r="C230">
+        <v>0.01</v>
+      </c>
+      <c r="D230" t="s">
+        <v>29</v>
+      </c>
+      <c r="E230" t="s">
+        <v>27</v>
+      </c>
+      <c r="F230" t="s">
+        <v>28</v>
+      </c>
+      <c r="G230" t="s">
+        <v>73</v>
+      </c>
+      <c r="H230" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I230">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" t="s">
+        <v>72</v>
+      </c>
+      <c r="B231">
+        <v>50</v>
+      </c>
+      <c r="C231">
+        <v>0.01</v>
+      </c>
+      <c r="D231" t="s">
+        <v>29</v>
+      </c>
+      <c r="E231" t="s">
+        <v>27</v>
+      </c>
+      <c r="F231" t="s">
+        <v>28</v>
+      </c>
+      <c r="G231" t="s">
+        <v>73</v>
+      </c>
+      <c r="H231" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I231">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" t="s">
+        <v>72</v>
+      </c>
+      <c r="B232">
+        <v>50</v>
+      </c>
+      <c r="C232">
+        <v>0.01</v>
+      </c>
+      <c r="D232" t="s">
+        <v>29</v>
+      </c>
+      <c r="E232" t="s">
+        <v>27</v>
+      </c>
+      <c r="F232" t="s">
+        <v>28</v>
+      </c>
+      <c r="G232" t="s">
+        <v>73</v>
+      </c>
+      <c r="H232" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I232">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" t="s">
+        <v>72</v>
+      </c>
+      <c r="B233">
+        <v>50</v>
+      </c>
+      <c r="C233">
+        <v>0.01</v>
+      </c>
+      <c r="D233" t="s">
+        <v>29</v>
+      </c>
+      <c r="E233" t="s">
+        <v>27</v>
+      </c>
+      <c r="F233" t="s">
+        <v>28</v>
+      </c>
+      <c r="G233" t="s">
+        <v>73</v>
+      </c>
+      <c r="H233" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I233">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" t="s">
+        <v>72</v>
+      </c>
+      <c r="B234">
+        <v>50</v>
+      </c>
+      <c r="C234">
+        <v>0.01</v>
+      </c>
+      <c r="D234" t="s">
+        <v>29</v>
+      </c>
+      <c r="E234" t="s">
+        <v>27</v>
+      </c>
+      <c r="F234" t="s">
+        <v>28</v>
+      </c>
+      <c r="G234" t="s">
+        <v>73</v>
+      </c>
+      <c r="H234" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I234">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" t="s">
+        <v>72</v>
+      </c>
+      <c r="B235">
+        <v>50</v>
+      </c>
+      <c r="C235">
+        <v>0.01</v>
+      </c>
+      <c r="D235" t="s">
+        <v>29</v>
+      </c>
+      <c r="E235" t="s">
+        <v>27</v>
+      </c>
+      <c r="F235" t="s">
+        <v>28</v>
+      </c>
+      <c r="G235" t="s">
+        <v>73</v>
+      </c>
+      <c r="H235" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I235">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" t="s">
+        <v>72</v>
+      </c>
+      <c r="B236">
+        <v>50</v>
+      </c>
+      <c r="C236">
+        <v>0.01</v>
+      </c>
+      <c r="D236" t="s">
+        <v>29</v>
+      </c>
+      <c r="E236" t="s">
+        <v>27</v>
+      </c>
+      <c r="F236" t="s">
+        <v>28</v>
+      </c>
+      <c r="G236" t="s">
+        <v>73</v>
+      </c>
+      <c r="H236" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I236">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" t="s">
+        <v>72</v>
+      </c>
+      <c r="B237">
+        <v>50</v>
+      </c>
+      <c r="C237">
+        <v>0.01</v>
+      </c>
+      <c r="D237" t="s">
+        <v>29</v>
+      </c>
+      <c r="E237" t="s">
+        <v>27</v>
+      </c>
+      <c r="F237" t="s">
+        <v>28</v>
+      </c>
+      <c r="G237" t="s">
+        <v>73</v>
+      </c>
+      <c r="H237" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I237">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" t="s">
+        <v>72</v>
+      </c>
+      <c r="B238">
+        <v>50</v>
+      </c>
+      <c r="C238">
+        <v>0.01</v>
+      </c>
+      <c r="D238" t="s">
+        <v>29</v>
+      </c>
+      <c r="E238" t="s">
+        <v>27</v>
+      </c>
+      <c r="F238" t="s">
+        <v>28</v>
+      </c>
+      <c r="G238" t="s">
+        <v>73</v>
+      </c>
+      <c r="H238" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I238">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" t="s">
+        <v>72</v>
+      </c>
+      <c r="B239">
+        <v>50</v>
+      </c>
+      <c r="C239">
+        <v>0.01</v>
+      </c>
+      <c r="D239" t="s">
+        <v>29</v>
+      </c>
+      <c r="E239" t="s">
+        <v>27</v>
+      </c>
+      <c r="F239" t="s">
+        <v>28</v>
+      </c>
+      <c r="G239" t="s">
+        <v>73</v>
+      </c>
+      <c r="H239" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I239">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" t="s">
+        <v>72</v>
+      </c>
+      <c r="B240">
+        <v>50</v>
+      </c>
+      <c r="C240">
+        <v>0.01</v>
+      </c>
+      <c r="D240" t="s">
+        <v>29</v>
+      </c>
+      <c r="E240" t="s">
+        <v>27</v>
+      </c>
+      <c r="F240" t="s">
+        <v>28</v>
+      </c>
+      <c r="G240" t="s">
+        <v>73</v>
+      </c>
+      <c r="H240" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I240">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" t="s">
+        <v>72</v>
+      </c>
+      <c r="B241">
+        <v>50</v>
+      </c>
+      <c r="C241">
+        <v>0.01</v>
+      </c>
+      <c r="D241" t="s">
+        <v>29</v>
+      </c>
+      <c r="E241" t="s">
+        <v>27</v>
+      </c>
+      <c r="F241" t="s">
+        <v>28</v>
+      </c>
+      <c r="G241" t="s">
+        <v>73</v>
+      </c>
+      <c r="H241" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I241">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" t="s">
+        <v>72</v>
+      </c>
+      <c r="B242">
+        <v>50</v>
+      </c>
+      <c r="C242">
+        <v>0.01</v>
+      </c>
+      <c r="D242" t="s">
+        <v>29</v>
+      </c>
+      <c r="E242" t="s">
+        <v>27</v>
+      </c>
+      <c r="F242" t="s">
+        <v>28</v>
+      </c>
+      <c r="G242" t="s">
+        <v>73</v>
+      </c>
+      <c r="H242" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I242">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" t="s">
+        <v>72</v>
+      </c>
+      <c r="B243">
+        <v>50</v>
+      </c>
+      <c r="C243">
+        <v>0.01</v>
+      </c>
+      <c r="D243" t="s">
+        <v>29</v>
+      </c>
+      <c r="E243" t="s">
+        <v>27</v>
+      </c>
+      <c r="F243" t="s">
+        <v>28</v>
+      </c>
+      <c r="G243" t="s">
+        <v>73</v>
+      </c>
+      <c r="H243" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I243">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" t="s">
+        <v>72</v>
+      </c>
+      <c r="B244">
+        <v>50</v>
+      </c>
+      <c r="C244">
+        <v>0.01</v>
+      </c>
+      <c r="D244" t="s">
+        <v>29</v>
+      </c>
+      <c r="E244" t="s">
+        <v>27</v>
+      </c>
+      <c r="F244" t="s">
+        <v>28</v>
+      </c>
+      <c r="G244" t="s">
+        <v>73</v>
+      </c>
+      <c r="H244" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I244">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" t="s">
+        <v>72</v>
+      </c>
+      <c r="B245">
+        <v>50</v>
+      </c>
+      <c r="C245">
+        <v>0.01</v>
+      </c>
+      <c r="D245" t="s">
+        <v>29</v>
+      </c>
+      <c r="E245" t="s">
+        <v>27</v>
+      </c>
+      <c r="F245" t="s">
+        <v>28</v>
+      </c>
+      <c r="G245" t="s">
+        <v>73</v>
+      </c>
+      <c r="H245" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I245">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" t="s">
+        <v>72</v>
+      </c>
+      <c r="B246">
+        <v>50</v>
+      </c>
+      <c r="C246">
+        <v>0.01</v>
+      </c>
+      <c r="D246" t="s">
+        <v>29</v>
+      </c>
+      <c r="E246" t="s">
+        <v>27</v>
+      </c>
+      <c r="F246" t="s">
+        <v>28</v>
+      </c>
+      <c r="G246" t="s">
+        <v>73</v>
+      </c>
+      <c r="H246" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I246">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" t="s">
+        <v>72</v>
+      </c>
+      <c r="B247">
+        <v>50</v>
+      </c>
+      <c r="C247">
+        <v>0.01</v>
+      </c>
+      <c r="D247" t="s">
+        <v>29</v>
+      </c>
+      <c r="E247" t="s">
+        <v>27</v>
+      </c>
+      <c r="F247" t="s">
+        <v>28</v>
+      </c>
+      <c r="G247" t="s">
+        <v>73</v>
+      </c>
+      <c r="H247" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I247">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" t="s">
+        <v>72</v>
+      </c>
+      <c r="B248">
+        <v>50</v>
+      </c>
+      <c r="C248">
+        <v>0.01</v>
+      </c>
+      <c r="D248" t="s">
+        <v>29</v>
+      </c>
+      <c r="E248" t="s">
+        <v>27</v>
+      </c>
+      <c r="F248" t="s">
+        <v>28</v>
+      </c>
+      <c r="G248" t="s">
+        <v>73</v>
+      </c>
+      <c r="H248" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I248">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" t="s">
+        <v>72</v>
+      </c>
+      <c r="B249">
+        <v>50</v>
+      </c>
+      <c r="C249">
+        <v>0.01</v>
+      </c>
+      <c r="D249" t="s">
+        <v>29</v>
+      </c>
+      <c r="E249" t="s">
+        <v>27</v>
+      </c>
+      <c r="F249" t="s">
+        <v>28</v>
+      </c>
+      <c r="G249" t="s">
+        <v>73</v>
+      </c>
+      <c r="H249" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I249">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" t="s">
+        <v>72</v>
+      </c>
+      <c r="B250">
+        <v>50</v>
+      </c>
+      <c r="C250">
+        <v>0.01</v>
+      </c>
+      <c r="D250" t="s">
+        <v>29</v>
+      </c>
+      <c r="E250" t="s">
+        <v>27</v>
+      </c>
+      <c r="F250" t="s">
+        <v>28</v>
+      </c>
+      <c r="G250" t="s">
+        <v>73</v>
+      </c>
+      <c r="H250" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I250">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" t="s">
+        <v>72</v>
+      </c>
+      <c r="B251">
+        <v>50</v>
+      </c>
+      <c r="C251">
+        <v>0.01</v>
+      </c>
+      <c r="D251" t="s">
+        <v>29</v>
+      </c>
+      <c r="E251" t="s">
+        <v>27</v>
+      </c>
+      <c r="F251" t="s">
+        <v>28</v>
+      </c>
+      <c r="G251" t="s">
+        <v>73</v>
+      </c>
+      <c r="H251" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I251">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" t="s">
+        <v>72</v>
+      </c>
+      <c r="B252">
+        <v>50</v>
+      </c>
+      <c r="C252">
+        <v>0.01</v>
+      </c>
+      <c r="D252" t="s">
+        <v>29</v>
+      </c>
+      <c r="E252" t="s">
+        <v>27</v>
+      </c>
+      <c r="F252" t="s">
+        <v>28</v>
+      </c>
+      <c r="G252" t="s">
+        <v>73</v>
+      </c>
+      <c r="H252" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I252">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" t="s">
+        <v>72</v>
+      </c>
+      <c r="B253">
+        <v>50</v>
+      </c>
+      <c r="C253">
+        <v>0.01</v>
+      </c>
+      <c r="D253" t="s">
+        <v>29</v>
+      </c>
+      <c r="E253" t="s">
+        <v>27</v>
+      </c>
+      <c r="F253" t="s">
+        <v>28</v>
+      </c>
+      <c r="G253" t="s">
+        <v>73</v>
+      </c>
+      <c r="H253" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I253">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" t="s">
+        <v>72</v>
+      </c>
+      <c r="B254">
+        <v>50</v>
+      </c>
+      <c r="C254">
+        <v>0.01</v>
+      </c>
+      <c r="D254" t="s">
+        <v>29</v>
+      </c>
+      <c r="E254" t="s">
+        <v>27</v>
+      </c>
+      <c r="F254" t="s">
+        <v>28</v>
+      </c>
+      <c r="G254" t="s">
+        <v>73</v>
+      </c>
+      <c r="H254" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I254">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" t="s">
+        <v>72</v>
+      </c>
+      <c r="B255">
+        <v>50</v>
+      </c>
+      <c r="C255">
+        <v>0.01</v>
+      </c>
+      <c r="D255" t="s">
+        <v>29</v>
+      </c>
+      <c r="E255" t="s">
+        <v>27</v>
+      </c>
+      <c r="F255" t="s">
+        <v>28</v>
+      </c>
+      <c r="G255" t="s">
+        <v>73</v>
+      </c>
+      <c r="H255" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I255">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" t="s">
+        <v>72</v>
+      </c>
+      <c r="B256">
+        <v>50</v>
+      </c>
+      <c r="C256">
+        <v>0.01</v>
+      </c>
+      <c r="D256" t="s">
+        <v>29</v>
+      </c>
+      <c r="E256" t="s">
+        <v>27</v>
+      </c>
+      <c r="F256" t="s">
+        <v>28</v>
+      </c>
+      <c r="G256" t="s">
+        <v>73</v>
+      </c>
+      <c r="H256" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I256">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" t="s">
+        <v>72</v>
+      </c>
+      <c r="B257">
+        <v>50</v>
+      </c>
+      <c r="C257">
+        <v>0.01</v>
+      </c>
+      <c r="D257" t="s">
+        <v>29</v>
+      </c>
+      <c r="E257" t="s">
+        <v>27</v>
+      </c>
+      <c r="F257" t="s">
+        <v>28</v>
+      </c>
+      <c r="G257" t="s">
+        <v>73</v>
+      </c>
+      <c r="H257" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I257">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" t="s">
+        <v>72</v>
+      </c>
+      <c r="B258">
+        <v>50</v>
+      </c>
+      <c r="C258">
+        <v>0.01</v>
+      </c>
+      <c r="D258" t="s">
+        <v>29</v>
+      </c>
+      <c r="E258" t="s">
+        <v>27</v>
+      </c>
+      <c r="F258" t="s">
+        <v>28</v>
+      </c>
+      <c r="G258" t="s">
+        <v>73</v>
+      </c>
+      <c r="H258" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I258">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" t="s">
+        <v>72</v>
+      </c>
+      <c r="B259">
+        <v>50</v>
+      </c>
+      <c r="C259">
+        <v>0.01</v>
+      </c>
+      <c r="D259" t="s">
+        <v>29</v>
+      </c>
+      <c r="E259" t="s">
+        <v>27</v>
+      </c>
+      <c r="F259" t="s">
+        <v>28</v>
+      </c>
+      <c r="G259" t="s">
+        <v>73</v>
+      </c>
+      <c r="H259" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I259">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" t="s">
+        <v>72</v>
+      </c>
+      <c r="B260">
+        <v>50</v>
+      </c>
+      <c r="C260">
+        <v>0.01</v>
+      </c>
+      <c r="D260" t="s">
+        <v>29</v>
+      </c>
+      <c r="E260" t="s">
+        <v>27</v>
+      </c>
+      <c r="F260" t="s">
+        <v>28</v>
+      </c>
+      <c r="G260" t="s">
+        <v>73</v>
+      </c>
+      <c r="H260" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I260">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" t="s">
+        <v>72</v>
+      </c>
+      <c r="B261">
+        <v>50</v>
+      </c>
+      <c r="C261">
+        <v>0.01</v>
+      </c>
+      <c r="D261" t="s">
+        <v>29</v>
+      </c>
+      <c r="E261" t="s">
+        <v>27</v>
+      </c>
+      <c r="F261" t="s">
+        <v>28</v>
+      </c>
+      <c r="G261" t="s">
+        <v>73</v>
+      </c>
+      <c r="H261" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I261">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" t="s">
+        <v>74</v>
+      </c>
+      <c r="B262">
+        <v>50</v>
+      </c>
+      <c r="C262">
+        <v>1E-3</v>
+      </c>
+      <c r="D262" t="s">
+        <v>29</v>
+      </c>
+      <c r="E262" t="s">
+        <v>27</v>
+      </c>
+      <c r="F262" t="s">
+        <v>28</v>
+      </c>
+      <c r="G262" t="s">
+        <v>30</v>
+      </c>
+      <c r="H262" s="1">
+        <v>0.95098340999999997</v>
+      </c>
+      <c r="I262">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" t="s">
+        <v>74</v>
+      </c>
+      <c r="B263">
+        <v>50</v>
+      </c>
+      <c r="C263">
+        <v>1E-3</v>
+      </c>
+      <c r="D263" t="s">
+        <v>29</v>
+      </c>
+      <c r="E263" t="s">
+        <v>27</v>
+      </c>
+      <c r="F263" t="s">
+        <v>28</v>
+      </c>
+      <c r="G263" t="s">
+        <v>30</v>
+      </c>
+      <c r="H263" s="1">
+        <v>7.1373690000000004E-2</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" t="s">
+        <v>74</v>
+      </c>
+      <c r="B264">
+        <v>50</v>
+      </c>
+      <c r="C264">
+        <v>1E-3</v>
+      </c>
+      <c r="D264" t="s">
+        <v>29</v>
+      </c>
+      <c r="E264" t="s">
+        <v>27</v>
+      </c>
+      <c r="F264" t="s">
+        <v>28</v>
+      </c>
+      <c r="G264" t="s">
+        <v>30</v>
+      </c>
+      <c r="H264" s="1">
+        <v>0.91856177000000006</v>
+      </c>
+      <c r="I264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" t="s">
+        <v>74</v>
+      </c>
+      <c r="B265">
+        <v>50</v>
+      </c>
+      <c r="C265">
+        <v>1E-3</v>
+      </c>
+      <c r="D265" t="s">
+        <v>29</v>
+      </c>
+      <c r="E265" t="s">
+        <v>27</v>
+      </c>
+      <c r="F265" t="s">
+        <v>28</v>
+      </c>
+      <c r="G265" t="s">
+        <v>30</v>
+      </c>
+      <c r="H265" s="1">
+        <v>0.93607867</v>
+      </c>
+      <c r="I265">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" t="s">
+        <v>74</v>
+      </c>
+      <c r="B266">
+        <v>50</v>
+      </c>
+      <c r="C266">
+        <v>1E-3</v>
+      </c>
+      <c r="D266" t="s">
+        <v>29</v>
+      </c>
+      <c r="E266" t="s">
+        <v>27</v>
+      </c>
+      <c r="F266" t="s">
+        <v>28</v>
+      </c>
+      <c r="G266" t="s">
+        <v>30</v>
+      </c>
+      <c r="H266" s="1">
+        <v>0.93968960999999995</v>
+      </c>
+      <c r="I266">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" t="s">
+        <v>74</v>
+      </c>
+      <c r="B267">
+        <v>50</v>
+      </c>
+      <c r="C267">
+        <v>1E-3</v>
+      </c>
+      <c r="D267" t="s">
+        <v>29</v>
+      </c>
+      <c r="E267" t="s">
+        <v>27</v>
+      </c>
+      <c r="F267" t="s">
+        <v>28</v>
+      </c>
+      <c r="G267" t="s">
+        <v>30</v>
+      </c>
+      <c r="H267" s="1">
+        <v>0.94018900000000005</v>
+      </c>
+      <c r="I267">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" t="s">
+        <v>74</v>
+      </c>
+      <c r="B268">
+        <v>50</v>
+      </c>
+      <c r="C268">
+        <v>1E-3</v>
+      </c>
+      <c r="D268" t="s">
+        <v>29</v>
+      </c>
+      <c r="E268" t="s">
+        <v>27</v>
+      </c>
+      <c r="F268" t="s">
+        <v>28</v>
+      </c>
+      <c r="G268" t="s">
+        <v>30</v>
+      </c>
+      <c r="H268" s="1">
+        <v>0.93972803000000005</v>
+      </c>
+      <c r="I268">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269" t="s">
+        <v>74</v>
+      </c>
+      <c r="B269">
+        <v>50</v>
+      </c>
+      <c r="C269">
+        <v>1E-3</v>
+      </c>
+      <c r="D269" t="s">
+        <v>29</v>
+      </c>
+      <c r="E269" t="s">
+        <v>27</v>
+      </c>
+      <c r="F269" t="s">
+        <v>28</v>
+      </c>
+      <c r="G269" t="s">
+        <v>30</v>
+      </c>
+      <c r="H269" s="1">
+        <v>0.93611708999999999</v>
+      </c>
+      <c r="I269">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" t="s">
+        <v>74</v>
+      </c>
+      <c r="B270">
+        <v>50</v>
+      </c>
+      <c r="C270">
+        <v>1E-3</v>
+      </c>
+      <c r="D270" t="s">
+        <v>29</v>
+      </c>
+      <c r="E270" t="s">
+        <v>27</v>
+      </c>
+      <c r="F270" t="s">
+        <v>28</v>
+      </c>
+      <c r="G270" t="s">
+        <v>30</v>
+      </c>
+      <c r="H270" s="1">
+        <v>0.93438843999999999</v>
+      </c>
+      <c r="I270">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271" t="s">
+        <v>74</v>
+      </c>
+      <c r="B271">
+        <v>50</v>
+      </c>
+      <c r="C271">
+        <v>1E-3</v>
+      </c>
+      <c r="D271" t="s">
+        <v>29</v>
+      </c>
+      <c r="E271" t="s">
+        <v>27</v>
+      </c>
+      <c r="F271" t="s">
+        <v>28</v>
+      </c>
+      <c r="G271" t="s">
+        <v>30</v>
+      </c>
+      <c r="H271" s="1">
+        <v>0.93834510999999998</v>
+      </c>
+      <c r="I271">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272" t="s">
+        <v>74</v>
+      </c>
+      <c r="B272">
+        <v>50</v>
+      </c>
+      <c r="C272">
+        <v>1E-3</v>
+      </c>
+      <c r="D272" t="s">
+        <v>29</v>
+      </c>
+      <c r="E272" t="s">
+        <v>27</v>
+      </c>
+      <c r="F272" t="s">
+        <v>28</v>
+      </c>
+      <c r="G272" t="s">
+        <v>30</v>
+      </c>
+      <c r="H272" s="1">
+        <v>0.93895974000000004</v>
+      </c>
+      <c r="I272">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273" t="s">
+        <v>74</v>
+      </c>
+      <c r="B273">
+        <v>50</v>
+      </c>
+      <c r="C273">
+        <v>1E-3</v>
+      </c>
+      <c r="D273" t="s">
+        <v>29</v>
+      </c>
+      <c r="E273" t="s">
+        <v>27</v>
+      </c>
+      <c r="F273" t="s">
+        <v>28</v>
+      </c>
+      <c r="G273" t="s">
+        <v>30</v>
+      </c>
+      <c r="H273" s="1">
+        <v>0.94349262</v>
+      </c>
+      <c r="I273">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="A274" t="s">
+        <v>74</v>
+      </c>
+      <c r="B274">
+        <v>50</v>
+      </c>
+      <c r="C274">
+        <v>1E-3</v>
+      </c>
+      <c r="D274" t="s">
+        <v>29</v>
+      </c>
+      <c r="E274" t="s">
+        <v>27</v>
+      </c>
+      <c r="F274" t="s">
+        <v>28</v>
+      </c>
+      <c r="G274" t="s">
+        <v>30</v>
+      </c>
+      <c r="H274" s="1">
+        <v>0.94168715000000003</v>
+      </c>
+      <c r="I274">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275" t="s">
+        <v>74</v>
+      </c>
+      <c r="B275">
+        <v>50</v>
+      </c>
+      <c r="C275">
+        <v>1E-3</v>
+      </c>
+      <c r="D275" t="s">
+        <v>29</v>
+      </c>
+      <c r="E275" t="s">
+        <v>27</v>
+      </c>
+      <c r="F275" t="s">
+        <v>28</v>
+      </c>
+      <c r="G275" t="s">
+        <v>30</v>
+      </c>
+      <c r="H275" s="1">
+        <v>0.94141825000000001</v>
+      </c>
+      <c r="I275">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="A276" t="s">
+        <v>74</v>
+      </c>
+      <c r="B276">
+        <v>50</v>
+      </c>
+      <c r="C276">
+        <v>1E-3</v>
+      </c>
+      <c r="D276" t="s">
+        <v>29</v>
+      </c>
+      <c r="E276" t="s">
+        <v>27</v>
+      </c>
+      <c r="F276" t="s">
+        <v>28</v>
+      </c>
+      <c r="G276" t="s">
+        <v>30</v>
+      </c>
+      <c r="H276" s="1">
+        <v>0.94452981000000003</v>
+      </c>
+      <c r="I276">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
+      <c r="A277" t="s">
+        <v>74</v>
+      </c>
+      <c r="B277">
+        <v>50</v>
+      </c>
+      <c r="C277">
+        <v>1E-3</v>
+      </c>
+      <c r="D277" t="s">
+        <v>29</v>
+      </c>
+      <c r="E277" t="s">
+        <v>27</v>
+      </c>
+      <c r="F277" t="s">
+        <v>28</v>
+      </c>
+      <c r="G277" t="s">
+        <v>30</v>
+      </c>
+      <c r="H277" s="1">
+        <v>0.94214812999999997</v>
+      </c>
+      <c r="I277">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
+      <c r="A278" t="s">
+        <v>74</v>
+      </c>
+      <c r="B278">
+        <v>50</v>
+      </c>
+      <c r="C278">
+        <v>1E-3</v>
+      </c>
+      <c r="D278" t="s">
+        <v>29</v>
+      </c>
+      <c r="E278" t="s">
+        <v>27</v>
+      </c>
+      <c r="F278" t="s">
+        <v>28</v>
+      </c>
+      <c r="G278" t="s">
+        <v>30</v>
+      </c>
+      <c r="H278" s="1">
+        <v>0.94591272000000004</v>
+      </c>
+      <c r="I278">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="A279" t="s">
+        <v>74</v>
+      </c>
+      <c r="B279">
+        <v>50</v>
+      </c>
+      <c r="C279">
+        <v>1E-3</v>
+      </c>
+      <c r="D279" t="s">
+        <v>29</v>
+      </c>
+      <c r="E279" t="s">
+        <v>27</v>
+      </c>
+      <c r="F279" t="s">
+        <v>28</v>
+      </c>
+      <c r="G279" t="s">
+        <v>30</v>
+      </c>
+      <c r="H279" s="1">
+        <v>0.94760295000000005</v>
+      </c>
+      <c r="I279">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="A280" t="s">
+        <v>74</v>
+      </c>
+      <c r="B280">
+        <v>50</v>
+      </c>
+      <c r="C280">
+        <v>1E-3</v>
+      </c>
+      <c r="D280" t="s">
+        <v>29</v>
+      </c>
+      <c r="E280" t="s">
+        <v>27</v>
+      </c>
+      <c r="F280" t="s">
+        <v>28</v>
+      </c>
+      <c r="G280" t="s">
+        <v>30</v>
+      </c>
+      <c r="H280" s="1">
+        <v>0.94579747999999997</v>
+      </c>
+      <c r="I280">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281" t="s">
+        <v>74</v>
+      </c>
+      <c r="B281">
+        <v>50</v>
+      </c>
+      <c r="C281">
+        <v>1E-3</v>
+      </c>
+      <c r="D281" t="s">
+        <v>29</v>
+      </c>
+      <c r="E281" t="s">
+        <v>27</v>
+      </c>
+      <c r="F281" t="s">
+        <v>28</v>
+      </c>
+      <c r="G281" t="s">
+        <v>30</v>
+      </c>
+      <c r="H281" s="1">
+        <v>0.94433774000000004</v>
+      </c>
+      <c r="I281">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282" t="s">
+        <v>74</v>
+      </c>
+      <c r="B282">
+        <v>50</v>
+      </c>
+      <c r="C282">
+        <v>1E-3</v>
+      </c>
+      <c r="D282" t="s">
+        <v>29</v>
+      </c>
+      <c r="E282" t="s">
+        <v>27</v>
+      </c>
+      <c r="F282" t="s">
+        <v>28</v>
+      </c>
+      <c r="G282" t="s">
+        <v>30</v>
+      </c>
+      <c r="H282" s="1">
+        <v>0.94833281999999997</v>
+      </c>
+      <c r="I282">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
+      <c r="A283" t="s">
+        <v>74</v>
+      </c>
+      <c r="B283">
+        <v>50</v>
+      </c>
+      <c r="C283">
+        <v>1E-3</v>
+      </c>
+      <c r="D283" t="s">
+        <v>29</v>
+      </c>
+      <c r="E283" t="s">
+        <v>27</v>
+      </c>
+      <c r="F283" t="s">
+        <v>28</v>
+      </c>
+      <c r="G283" t="s">
+        <v>30</v>
+      </c>
+      <c r="H283" s="1">
+        <v>0.94614321000000001</v>
+      </c>
+      <c r="I283">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="A284" t="s">
+        <v>74</v>
+      </c>
+      <c r="B284">
+        <v>50</v>
+      </c>
+      <c r="C284">
+        <v>1E-3</v>
+      </c>
+      <c r="D284" t="s">
+        <v>29</v>
+      </c>
+      <c r="E284" t="s">
+        <v>27</v>
+      </c>
+      <c r="F284" t="s">
+        <v>28</v>
+      </c>
+      <c r="G284" t="s">
+        <v>30</v>
+      </c>
+      <c r="H284" s="1">
+        <v>0.94917792999999995</v>
+      </c>
+      <c r="I284">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
+      <c r="A285" t="s">
+        <v>74</v>
+      </c>
+      <c r="B285">
+        <v>50</v>
+      </c>
+      <c r="C285">
+        <v>1E-3</v>
+      </c>
+      <c r="D285" t="s">
+        <v>29</v>
+      </c>
+      <c r="E285" t="s">
+        <v>27</v>
+      </c>
+      <c r="F285" t="s">
+        <v>28</v>
+      </c>
+      <c r="G285" t="s">
+        <v>30</v>
+      </c>
+      <c r="H285" s="1">
+        <v>0.94875538000000004</v>
+      </c>
+      <c r="I285">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="A286" t="s">
+        <v>74</v>
+      </c>
+      <c r="B286">
+        <v>50</v>
+      </c>
+      <c r="C286">
+        <v>1E-3</v>
+      </c>
+      <c r="D286" t="s">
+        <v>29</v>
+      </c>
+      <c r="E286" t="s">
+        <v>27</v>
+      </c>
+      <c r="F286" t="s">
+        <v>28</v>
+      </c>
+      <c r="G286" t="s">
+        <v>30</v>
+      </c>
+      <c r="H286" s="1">
+        <v>0.94990781000000002</v>
+      </c>
+      <c r="I286">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287" t="s">
+        <v>74</v>
+      </c>
+      <c r="B287">
+        <v>50</v>
+      </c>
+      <c r="C287">
+        <v>1E-3</v>
+      </c>
+      <c r="D287" t="s">
+        <v>29</v>
+      </c>
+      <c r="E287" t="s">
+        <v>27</v>
+      </c>
+      <c r="F287" t="s">
+        <v>28</v>
+      </c>
+      <c r="G287" t="s">
+        <v>30</v>
+      </c>
+      <c r="H287" s="1">
+        <v>0.94814074999999998</v>
+      </c>
+      <c r="I287">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="A288" t="s">
+        <v>74</v>
+      </c>
+      <c r="B288">
+        <v>50</v>
+      </c>
+      <c r="C288">
+        <v>1E-3</v>
+      </c>
+      <c r="D288" t="s">
+        <v>29</v>
+      </c>
+      <c r="E288" t="s">
+        <v>27</v>
+      </c>
+      <c r="F288" t="s">
+        <v>28</v>
+      </c>
+      <c r="G288" t="s">
+        <v>30</v>
+      </c>
+      <c r="H288" s="1">
+        <v>0.95217425</v>
+      </c>
+      <c r="I288">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="A289" t="s">
+        <v>74</v>
+      </c>
+      <c r="B289">
+        <v>50</v>
+      </c>
+      <c r="C289">
+        <v>1E-3</v>
+      </c>
+      <c r="D289" t="s">
+        <v>29</v>
+      </c>
+      <c r="E289" t="s">
+        <v>27</v>
+      </c>
+      <c r="F289" t="s">
+        <v>28</v>
+      </c>
+      <c r="G289" t="s">
+        <v>30</v>
+      </c>
+      <c r="H289" s="1">
+        <v>0.94817916000000002</v>
+      </c>
+      <c r="I289">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
+      <c r="A290" t="s">
+        <v>74</v>
+      </c>
+      <c r="B290">
+        <v>50</v>
+      </c>
+      <c r="C290">
+        <v>1E-3</v>
+      </c>
+      <c r="D290" t="s">
+        <v>29</v>
+      </c>
+      <c r="E290" t="s">
+        <v>27</v>
+      </c>
+      <c r="F290" t="s">
+        <v>28</v>
+      </c>
+      <c r="G290" t="s">
+        <v>30</v>
+      </c>
+      <c r="H290" s="1">
+        <v>0.95063768000000004</v>
+      </c>
+      <c r="I290">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
+      <c r="A291" t="s">
+        <v>74</v>
+      </c>
+      <c r="B291">
+        <v>50</v>
+      </c>
+      <c r="C291">
+        <v>1E-3</v>
+      </c>
+      <c r="D291" t="s">
+        <v>29</v>
+      </c>
+      <c r="E291" t="s">
+        <v>27</v>
+      </c>
+      <c r="F291" t="s">
+        <v>28</v>
+      </c>
+      <c r="G291" t="s">
+        <v>30</v>
+      </c>
+      <c r="H291" s="1">
+        <v>0.94879378999999997</v>
+      </c>
+      <c r="I291">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
+      <c r="A292" t="s">
+        <v>74</v>
+      </c>
+      <c r="B292">
+        <v>50</v>
+      </c>
+      <c r="C292">
+        <v>1E-3</v>
+      </c>
+      <c r="D292" t="s">
+        <v>29</v>
+      </c>
+      <c r="E292" t="s">
+        <v>27</v>
+      </c>
+      <c r="F292" t="s">
+        <v>28</v>
+      </c>
+      <c r="G292" t="s">
+        <v>30</v>
+      </c>
+      <c r="H292" s="1">
+        <v>0.94875538000000004</v>
+      </c>
+      <c r="I292">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
+      <c r="A293" t="s">
+        <v>74</v>
+      </c>
+      <c r="B293">
+        <v>50</v>
+      </c>
+      <c r="C293">
+        <v>1E-3</v>
+      </c>
+      <c r="D293" t="s">
+        <v>29</v>
+      </c>
+      <c r="E293" t="s">
+        <v>27</v>
+      </c>
+      <c r="F293" t="s">
+        <v>28</v>
+      </c>
+      <c r="G293" t="s">
+        <v>30</v>
+      </c>
+      <c r="H293" s="1">
+        <v>0.94879378999999997</v>
+      </c>
+      <c r="I293">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
+      <c r="A294" t="s">
+        <v>74</v>
+      </c>
+      <c r="B294">
+        <v>50</v>
+      </c>
+      <c r="C294">
+        <v>1E-3</v>
+      </c>
+      <c r="D294" t="s">
+        <v>29</v>
+      </c>
+      <c r="E294" t="s">
+        <v>27</v>
+      </c>
+      <c r="F294" t="s">
+        <v>28</v>
+      </c>
+      <c r="G294" t="s">
+        <v>30</v>
+      </c>
+      <c r="H294" s="1">
+        <v>0.95109865000000005</v>
+      </c>
+      <c r="I294">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
+      <c r="A295" t="s">
+        <v>74</v>
+      </c>
+      <c r="B295">
+        <v>50</v>
+      </c>
+      <c r="C295">
+        <v>1E-3</v>
+      </c>
+      <c r="D295" t="s">
+        <v>29</v>
+      </c>
+      <c r="E295" t="s">
+        <v>27</v>
+      </c>
+      <c r="F295" t="s">
+        <v>28</v>
+      </c>
+      <c r="G295" t="s">
+        <v>30</v>
+      </c>
+      <c r="H295" s="1">
+        <v>0.95113705999999998</v>
+      </c>
+      <c r="I295">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
+      <c r="A296" t="s">
+        <v>74</v>
+      </c>
+      <c r="B296">
+        <v>50</v>
+      </c>
+      <c r="C296">
+        <v>1E-3</v>
+      </c>
+      <c r="D296" t="s">
+        <v>29</v>
+      </c>
+      <c r="E296" t="s">
+        <v>27</v>
+      </c>
+      <c r="F296" t="s">
+        <v>28</v>
+      </c>
+      <c r="G296" t="s">
+        <v>30</v>
+      </c>
+      <c r="H296" s="1">
+        <v>0.95394129999999999</v>
+      </c>
+      <c r="I296">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
+      <c r="A297" t="s">
+        <v>74</v>
+      </c>
+      <c r="B297">
+        <v>50</v>
+      </c>
+      <c r="C297">
+        <v>1E-3</v>
+      </c>
+      <c r="D297" t="s">
+        <v>29</v>
+      </c>
+      <c r="E297" t="s">
+        <v>27</v>
+      </c>
+      <c r="F297" t="s">
+        <v>28</v>
+      </c>
+      <c r="G297" t="s">
+        <v>30</v>
+      </c>
+      <c r="H297" s="1">
+        <v>0.95355716000000001</v>
+      </c>
+      <c r="I297">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
+      <c r="A298" t="s">
+        <v>74</v>
+      </c>
+      <c r="B298">
+        <v>50</v>
+      </c>
+      <c r="C298">
+        <v>1E-3</v>
+      </c>
+      <c r="D298" t="s">
+        <v>29</v>
+      </c>
+      <c r="E298" t="s">
+        <v>27</v>
+      </c>
+      <c r="F298" t="s">
+        <v>28</v>
+      </c>
+      <c r="G298" t="s">
+        <v>30</v>
+      </c>
+      <c r="H298" s="1">
+        <v>0.95401813000000002</v>
+      </c>
+      <c r="I298">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
+      <c r="A299" t="s">
+        <v>74</v>
+      </c>
+      <c r="B299">
+        <v>50</v>
+      </c>
+      <c r="C299">
+        <v>1E-3</v>
+      </c>
+      <c r="D299" t="s">
+        <v>29</v>
+      </c>
+      <c r="E299" t="s">
+        <v>27</v>
+      </c>
+      <c r="F299" t="s">
+        <v>28</v>
+      </c>
+      <c r="G299" t="s">
+        <v>30</v>
+      </c>
+      <c r="H299" s="1">
+        <v>0.95397971999999998</v>
+      </c>
+      <c r="I299">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
+      <c r="A300" t="s">
+        <v>74</v>
+      </c>
+      <c r="B300">
+        <v>50</v>
+      </c>
+      <c r="C300">
+        <v>1E-3</v>
+      </c>
+      <c r="D300" t="s">
+        <v>29</v>
+      </c>
+      <c r="E300" t="s">
+        <v>27</v>
+      </c>
+      <c r="F300" t="s">
+        <v>28</v>
+      </c>
+      <c r="G300" t="s">
+        <v>30</v>
+      </c>
+      <c r="H300" s="1">
+        <v>0.95413336999999998</v>
+      </c>
+      <c r="I300">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
+      <c r="A301" t="s">
+        <v>74</v>
+      </c>
+      <c r="B301">
+        <v>50</v>
+      </c>
+      <c r="C301">
+        <v>1E-3</v>
+      </c>
+      <c r="D301" t="s">
+        <v>29</v>
+      </c>
+      <c r="E301" t="s">
+        <v>27</v>
+      </c>
+      <c r="F301" t="s">
+        <v>28</v>
+      </c>
+      <c r="G301" t="s">
+        <v>30</v>
+      </c>
+      <c r="H301" s="1">
+        <v>0.95421020000000001</v>
+      </c>
+      <c r="I301">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
+      <c r="A302" t="s">
+        <v>74</v>
+      </c>
+      <c r="B302">
+        <v>50</v>
+      </c>
+      <c r="C302">
+        <v>1E-3</v>
+      </c>
+      <c r="D302" t="s">
+        <v>29</v>
+      </c>
+      <c r="E302" t="s">
+        <v>27</v>
+      </c>
+      <c r="F302" t="s">
+        <v>28</v>
+      </c>
+      <c r="G302" t="s">
+        <v>30</v>
+      </c>
+      <c r="H302" s="1">
+        <v>0.95444068999999998</v>
+      </c>
+      <c r="I302">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
+      <c r="A303" t="s">
+        <v>74</v>
+      </c>
+      <c r="B303">
+        <v>50</v>
+      </c>
+      <c r="C303">
+        <v>1E-3</v>
+      </c>
+      <c r="D303" t="s">
+        <v>29</v>
+      </c>
+      <c r="E303" t="s">
+        <v>27</v>
+      </c>
+      <c r="F303" t="s">
+        <v>28</v>
+      </c>
+      <c r="G303" t="s">
+        <v>30</v>
+      </c>
+      <c r="H303" s="1">
+        <v>0.95432545000000002</v>
+      </c>
+      <c r="I303">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
+      <c r="A304" t="s">
+        <v>74</v>
+      </c>
+      <c r="B304">
+        <v>50</v>
+      </c>
+      <c r="C304">
+        <v>1E-3</v>
+      </c>
+      <c r="D304" t="s">
+        <v>29</v>
+      </c>
+      <c r="E304" t="s">
+        <v>27</v>
+      </c>
+      <c r="F304" t="s">
+        <v>28</v>
+      </c>
+      <c r="G304" t="s">
+        <v>30</v>
+      </c>
+      <c r="H304" s="1">
+        <v>0.95428703000000004</v>
+      </c>
+      <c r="I304">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
+      <c r="A305" t="s">
+        <v>74</v>
+      </c>
+      <c r="B305">
+        <v>50</v>
+      </c>
+      <c r="C305">
+        <v>1E-3</v>
+      </c>
+      <c r="D305" t="s">
+        <v>29</v>
+      </c>
+      <c r="E305" t="s">
+        <v>27</v>
+      </c>
+      <c r="F305" t="s">
+        <v>28</v>
+      </c>
+      <c r="G305" t="s">
+        <v>30</v>
+      </c>
+      <c r="H305" s="1">
+        <v>0.95440227</v>
+      </c>
+      <c r="I305">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
+      <c r="A306" t="s">
+        <v>74</v>
+      </c>
+      <c r="B306">
+        <v>50</v>
+      </c>
+      <c r="C306">
+        <v>1E-3</v>
+      </c>
+      <c r="D306" t="s">
+        <v>29</v>
+      </c>
+      <c r="E306" t="s">
+        <v>27</v>
+      </c>
+      <c r="F306" t="s">
+        <v>28</v>
+      </c>
+      <c r="G306" t="s">
+        <v>30</v>
+      </c>
+      <c r="H306" s="1">
+        <v>0.95447910000000002</v>
+      </c>
+      <c r="I306">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
+      <c r="A307" t="s">
+        <v>74</v>
+      </c>
+      <c r="B307">
+        <v>50</v>
+      </c>
+      <c r="C307">
+        <v>1E-3</v>
+      </c>
+      <c r="D307" t="s">
+        <v>29</v>
+      </c>
+      <c r="E307" t="s">
+        <v>27</v>
+      </c>
+      <c r="F307" t="s">
+        <v>28</v>
+      </c>
+      <c r="G307" t="s">
+        <v>30</v>
+      </c>
+      <c r="H307" s="1">
+        <v>0.95447910000000002</v>
+      </c>
+      <c r="I307">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
+      <c r="A308" t="s">
+        <v>74</v>
+      </c>
+      <c r="B308">
+        <v>50</v>
+      </c>
+      <c r="C308">
+        <v>1E-3</v>
+      </c>
+      <c r="D308" t="s">
+        <v>29</v>
+      </c>
+      <c r="E308" t="s">
+        <v>27</v>
+      </c>
+      <c r="F308" t="s">
+        <v>28</v>
+      </c>
+      <c r="G308" t="s">
+        <v>30</v>
+      </c>
+      <c r="H308" s="1">
+        <v>0.95451752000000001</v>
+      </c>
+      <c r="I308">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
+      <c r="A309" t="s">
+        <v>74</v>
+      </c>
+      <c r="B309">
+        <v>50</v>
+      </c>
+      <c r="C309">
+        <v>1E-3</v>
+      </c>
+      <c r="D309" t="s">
+        <v>29</v>
+      </c>
+      <c r="E309" t="s">
+        <v>27</v>
+      </c>
+      <c r="F309" t="s">
+        <v>28</v>
+      </c>
+      <c r="G309" t="s">
+        <v>30</v>
+      </c>
+      <c r="H309" s="1">
+        <v>0.95451752000000001</v>
+      </c>
+      <c r="I309">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
+      <c r="A310" t="s">
+        <v>74</v>
+      </c>
+      <c r="B310">
+        <v>50</v>
+      </c>
+      <c r="C310">
+        <v>1E-3</v>
+      </c>
+      <c r="D310" t="s">
+        <v>29</v>
+      </c>
+      <c r="E310" t="s">
+        <v>27</v>
+      </c>
+      <c r="F310" t="s">
+        <v>28</v>
+      </c>
+      <c r="G310" t="s">
+        <v>30</v>
+      </c>
+      <c r="H310" s="1">
+        <v>0.95451752000000001</v>
+      </c>
+      <c r="I310">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
+      <c r="A311" t="s">
+        <v>74</v>
+      </c>
+      <c r="B311">
+        <v>50</v>
+      </c>
+      <c r="C311">
+        <v>1E-3</v>
+      </c>
+      <c r="D311" t="s">
+        <v>29</v>
+      </c>
+      <c r="E311" t="s">
+        <v>27</v>
+      </c>
+      <c r="F311" t="s">
+        <v>28</v>
+      </c>
+      <c r="G311" t="s">
+        <v>30</v>
+      </c>
+      <c r="H311" s="1">
+        <v>0.95455593000000005</v>
+      </c>
+      <c r="I311">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
+      <c r="A312" t="s">
+        <v>74</v>
+      </c>
+      <c r="B312">
+        <v>50</v>
+      </c>
+      <c r="C312">
+        <v>1E-3</v>
+      </c>
+      <c r="D312" t="s">
+        <v>29</v>
+      </c>
+      <c r="E312" t="s">
+        <v>27</v>
+      </c>
+      <c r="F312" t="s">
+        <v>28</v>
+      </c>
+      <c r="G312" t="s">
+        <v>30</v>
+      </c>
+      <c r="H312" s="1">
+        <v>0.95451752000000001</v>
+      </c>
+      <c r="I312">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
+      <c r="A313" t="s">
+        <v>74</v>
+      </c>
+      <c r="B313">
+        <v>50</v>
+      </c>
+      <c r="C313">
+        <v>1E-3</v>
+      </c>
+      <c r="D313" t="s">
+        <v>29</v>
+      </c>
+      <c r="E313" t="s">
+        <v>27</v>
+      </c>
+      <c r="F313" t="s">
+        <v>28</v>
+      </c>
+      <c r="G313" t="s">
+        <v>30</v>
+      </c>
+      <c r="H313" s="1">
+        <v>0.95447910000000002</v>
+      </c>
+      <c r="I313">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
+      <c r="A314" t="s">
+        <v>75</v>
+      </c>
+      <c r="B314">
+        <v>50</v>
+      </c>
+      <c r="C314">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D314" t="s">
+        <v>29</v>
+      </c>
+      <c r="E314" t="s">
+        <v>27</v>
+      </c>
+      <c r="F314" t="s">
+        <v>28</v>
+      </c>
+      <c r="G314" t="s">
+        <v>30</v>
+      </c>
+      <c r="H314" s="1">
+        <v>0.95194376000000003</v>
+      </c>
+      <c r="I314">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
+      <c r="A315" t="s">
+        <v>75</v>
+      </c>
+      <c r="B315">
+        <v>50</v>
+      </c>
+      <c r="C315">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D315" t="s">
+        <v>29</v>
+      </c>
+      <c r="E315" t="s">
+        <v>27</v>
+      </c>
+      <c r="F315" t="s">
+        <v>28</v>
+      </c>
+      <c r="G315" t="s">
+        <v>30</v>
+      </c>
+      <c r="H315" s="1">
+        <v>6.5534729999999999E-2</v>
+      </c>
+      <c r="I315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
+      <c r="A316" t="s">
+        <v>75</v>
+      </c>
+      <c r="B316">
+        <v>50</v>
+      </c>
+      <c r="C316">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D316" t="s">
+        <v>29</v>
+      </c>
+      <c r="E316" t="s">
+        <v>27</v>
+      </c>
+      <c r="F316" t="s">
+        <v>28</v>
+      </c>
+      <c r="G316" t="s">
+        <v>30</v>
+      </c>
+      <c r="H316" s="1">
+        <v>0.94314690000000001</v>
+      </c>
+      <c r="I316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
+      <c r="A317" t="s">
+        <v>75</v>
+      </c>
+      <c r="B317">
+        <v>50</v>
+      </c>
+      <c r="C317">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D317" t="s">
+        <v>29</v>
+      </c>
+      <c r="E317" t="s">
+        <v>27</v>
+      </c>
+      <c r="F317" t="s">
+        <v>28</v>
+      </c>
+      <c r="G317" t="s">
+        <v>30</v>
+      </c>
+      <c r="H317" s="1">
+        <v>0.94752612000000003</v>
+      </c>
+      <c r="I317">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
+      <c r="A318" t="s">
+        <v>75</v>
+      </c>
+      <c r="B318">
+        <v>50</v>
+      </c>
+      <c r="C318">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D318" t="s">
+        <v>29</v>
+      </c>
+      <c r="E318" t="s">
+        <v>27</v>
+      </c>
+      <c r="F318" t="s">
+        <v>28</v>
+      </c>
+      <c r="G318" t="s">
+        <v>30</v>
+      </c>
+      <c r="H318" s="1">
+        <v>0.94694990999999995</v>
+      </c>
+      <c r="I318">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
+      <c r="A319" t="s">
+        <v>75</v>
+      </c>
+      <c r="B319">
+        <v>50</v>
+      </c>
+      <c r="C319">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D319" t="s">
+        <v>29</v>
+      </c>
+      <c r="E319" t="s">
+        <v>27</v>
+      </c>
+      <c r="F319" t="s">
+        <v>28</v>
+      </c>
+      <c r="G319" t="s">
+        <v>30</v>
+      </c>
+      <c r="H319" s="1">
+        <v>0.94595114000000002</v>
+      </c>
+      <c r="I319">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
+      <c r="A320" t="s">
+        <v>75</v>
+      </c>
+      <c r="B320">
+        <v>50</v>
+      </c>
+      <c r="C320">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D320" t="s">
+        <v>29</v>
+      </c>
+      <c r="E320" t="s">
+        <v>27</v>
+      </c>
+      <c r="F320" t="s">
+        <v>28</v>
+      </c>
+      <c r="G320" t="s">
+        <v>30</v>
+      </c>
+      <c r="H320" s="1">
+        <v>0.94741087999999996</v>
+      </c>
+      <c r="I320">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
+      <c r="A321" t="s">
+        <v>75</v>
+      </c>
+      <c r="B321">
+        <v>50</v>
+      </c>
+      <c r="C321">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D321" t="s">
+        <v>29</v>
+      </c>
+      <c r="E321" t="s">
+        <v>27</v>
+      </c>
+      <c r="F321" t="s">
+        <v>28</v>
+      </c>
+      <c r="G321" t="s">
+        <v>30</v>
+      </c>
+      <c r="H321" s="1">
+        <v>0.94767977999999997</v>
+      </c>
+      <c r="I321">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
+      <c r="A322" t="s">
+        <v>75</v>
+      </c>
+      <c r="B322">
+        <v>50</v>
+      </c>
+      <c r="C322">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D322" t="s">
+        <v>29</v>
+      </c>
+      <c r="E322" t="s">
+        <v>27</v>
+      </c>
+      <c r="F322" t="s">
+        <v>28</v>
+      </c>
+      <c r="G322" t="s">
+        <v>30</v>
+      </c>
+      <c r="H322" s="1">
+        <v>0.94718038999999998</v>
+      </c>
+      <c r="I322">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="A323" t="s">
+        <v>75</v>
+      </c>
+      <c r="B323">
+        <v>50</v>
+      </c>
+      <c r="C323">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D323" t="s">
+        <v>29</v>
+      </c>
+      <c r="E323" t="s">
+        <v>27</v>
+      </c>
+      <c r="F323" t="s">
+        <v>28</v>
+      </c>
+      <c r="G323" t="s">
+        <v>30</v>
+      </c>
+      <c r="H323" s="1">
+        <v>0.94514443999999997</v>
+      </c>
+      <c r="I323">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
+      <c r="A324" t="s">
+        <v>75</v>
+      </c>
+      <c r="B324">
+        <v>50</v>
+      </c>
+      <c r="C324">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D324" t="s">
+        <v>29</v>
+      </c>
+      <c r="E324" t="s">
+        <v>27</v>
+      </c>
+      <c r="F324" t="s">
+        <v>28</v>
+      </c>
+      <c r="G324" t="s">
+        <v>30</v>
+      </c>
+      <c r="H324" s="1">
+        <v>0.94564382000000002</v>
+      </c>
+      <c r="I324">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
+      <c r="A325" t="s">
+        <v>75</v>
+      </c>
+      <c r="B325">
+        <v>50</v>
+      </c>
+      <c r="C325">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D325" t="s">
+        <v>29</v>
+      </c>
+      <c r="E325" t="s">
+        <v>27</v>
+      </c>
+      <c r="F325" t="s">
+        <v>28</v>
+      </c>
+      <c r="G325" t="s">
+        <v>30</v>
+      </c>
+      <c r="H325" s="1">
+        <v>0.94771819000000002</v>
+      </c>
+      <c r="I325">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
+      <c r="A326" t="s">
+        <v>75</v>
+      </c>
+      <c r="B326">
+        <v>50</v>
+      </c>
+      <c r="C326">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D326" t="s">
+        <v>29</v>
+      </c>
+      <c r="E326" t="s">
+        <v>27</v>
+      </c>
+      <c r="F326" t="s">
+        <v>28</v>
+      </c>
+      <c r="G326" t="s">
+        <v>30</v>
+      </c>
+      <c r="H326" s="1">
+        <v>0.94629686999999996</v>
+      </c>
+      <c r="I326">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
+      <c r="A327" t="s">
+        <v>75</v>
+      </c>
+      <c r="B327">
+        <v>50</v>
+      </c>
+      <c r="C327">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D327" t="s">
+        <v>29</v>
+      </c>
+      <c r="E327" t="s">
+        <v>27</v>
+      </c>
+      <c r="F327" t="s">
+        <v>28</v>
+      </c>
+      <c r="G327" t="s">
+        <v>30</v>
+      </c>
+      <c r="H327" s="1">
+        <v>0.94744929</v>
+      </c>
+      <c r="I327">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
+      <c r="A328" t="s">
+        <v>75</v>
+      </c>
+      <c r="B328">
+        <v>50</v>
+      </c>
+      <c r="C328">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D328" t="s">
+        <v>29</v>
+      </c>
+      <c r="E328" t="s">
+        <v>27</v>
+      </c>
+      <c r="F328" t="s">
+        <v>28</v>
+      </c>
+      <c r="G328" t="s">
+        <v>30</v>
+      </c>
+      <c r="H328" s="1">
+        <v>0.94560540999999998</v>
+      </c>
+      <c r="I328">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="A329" t="s">
+        <v>75</v>
+      </c>
+      <c r="B329">
+        <v>50</v>
+      </c>
+      <c r="C329">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D329" t="s">
+        <v>29</v>
+      </c>
+      <c r="E329" t="s">
+        <v>27</v>
+      </c>
+      <c r="F329" t="s">
+        <v>28</v>
+      </c>
+      <c r="G329" t="s">
+        <v>30</v>
+      </c>
+      <c r="H329" s="1">
+        <v>0.94287799999999999</v>
+      </c>
+      <c r="I329">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="A330" t="s">
+        <v>75</v>
+      </c>
+      <c r="B330">
+        <v>50</v>
+      </c>
+      <c r="C330">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D330" t="s">
+        <v>29</v>
+      </c>
+      <c r="E330" t="s">
+        <v>27</v>
+      </c>
+      <c r="F330" t="s">
+        <v>28</v>
+      </c>
+      <c r="G330" t="s">
+        <v>30</v>
+      </c>
+      <c r="H330" s="1">
+        <v>0.95090657999999995</v>
+      </c>
+      <c r="I330">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="A331" t="s">
+        <v>75</v>
+      </c>
+      <c r="B331">
+        <v>50</v>
+      </c>
+      <c r="C331">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D331" t="s">
+        <v>29</v>
+      </c>
+      <c r="E331" t="s">
+        <v>27</v>
+      </c>
+      <c r="F331" t="s">
+        <v>28</v>
+      </c>
+      <c r="G331" t="s">
+        <v>30</v>
+      </c>
+      <c r="H331" s="1">
+        <v>0.94806391999999995</v>
+      </c>
+      <c r="I331">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
+      <c r="A332" t="s">
+        <v>75</v>
+      </c>
+      <c r="B332">
+        <v>50</v>
+      </c>
+      <c r="C332">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D332" t="s">
+        <v>29</v>
+      </c>
+      <c r="E332" t="s">
+        <v>27</v>
+      </c>
+      <c r="F332" t="s">
+        <v>28</v>
+      </c>
+      <c r="G332" t="s">
+        <v>30</v>
+      </c>
+      <c r="H332" s="1">
+        <v>0.95228948999999996</v>
+      </c>
+      <c r="I332">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" t="s">
+        <v>75</v>
+      </c>
+      <c r="B333">
+        <v>50</v>
+      </c>
+      <c r="C333">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D333" t="s">
+        <v>29</v>
+      </c>
+      <c r="E333" t="s">
+        <v>27</v>
+      </c>
+      <c r="F333" t="s">
+        <v>28</v>
+      </c>
+      <c r="G333" t="s">
+        <v>30</v>
+      </c>
+      <c r="H333" s="1">
+        <v>0.94921635000000004</v>
+      </c>
+      <c r="I333">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" t="s">
+        <v>75</v>
+      </c>
+      <c r="B334">
+        <v>50</v>
+      </c>
+      <c r="C334">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D334" t="s">
+        <v>29</v>
+      </c>
+      <c r="E334" t="s">
+        <v>27</v>
+      </c>
+      <c r="F334" t="s">
+        <v>28</v>
+      </c>
+      <c r="G334" t="s">
+        <v>30</v>
+      </c>
+      <c r="H334" s="1">
+        <v>0.95213583000000002</v>
+      </c>
+      <c r="I334">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" t="s">
+        <v>75</v>
+      </c>
+      <c r="B335">
+        <v>50</v>
+      </c>
+      <c r="C335">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D335" t="s">
+        <v>29</v>
+      </c>
+      <c r="E335" t="s">
+        <v>27</v>
+      </c>
+      <c r="F335" t="s">
+        <v>28</v>
+      </c>
+      <c r="G335" t="s">
+        <v>30</v>
+      </c>
+      <c r="H335" s="1">
+        <v>0.95217425</v>
+      </c>
+      <c r="I335">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" t="s">
+        <v>75</v>
+      </c>
+      <c r="B336">
+        <v>50</v>
+      </c>
+      <c r="C336">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D336" t="s">
+        <v>29</v>
+      </c>
+      <c r="E336" t="s">
+        <v>27</v>
+      </c>
+      <c r="F336" t="s">
+        <v>28</v>
+      </c>
+      <c r="G336" t="s">
+        <v>30</v>
+      </c>
+      <c r="H336" s="1">
+        <v>0.94833281999999997</v>
+      </c>
+      <c r="I336">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" t="s">
+        <v>75</v>
+      </c>
+      <c r="B337">
+        <v>50</v>
+      </c>
+      <c r="C337">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D337" t="s">
+        <v>29</v>
+      </c>
+      <c r="E337" t="s">
+        <v>27</v>
+      </c>
+      <c r="F337" t="s">
+        <v>28</v>
+      </c>
+      <c r="G337" t="s">
+        <v>30</v>
+      </c>
+      <c r="H337" s="1">
+        <v>0.94806391999999995</v>
+      </c>
+      <c r="I337">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" t="s">
+        <v>75</v>
+      </c>
+      <c r="B338">
+        <v>50</v>
+      </c>
+      <c r="C338">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D338" t="s">
+        <v>29</v>
+      </c>
+      <c r="E338" t="s">
+        <v>27</v>
+      </c>
+      <c r="F338" t="s">
+        <v>28</v>
+      </c>
+      <c r="G338" t="s">
+        <v>30</v>
+      </c>
+      <c r="H338" s="1">
+        <v>0.94986939000000004</v>
+      </c>
+      <c r="I338">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" t="s">
+        <v>75</v>
+      </c>
+      <c r="B339">
+        <v>50</v>
+      </c>
+      <c r="C339">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D339" t="s">
+        <v>29</v>
+      </c>
+      <c r="E339" t="s">
+        <v>27</v>
+      </c>
+      <c r="F339" t="s">
+        <v>28</v>
+      </c>
+      <c r="G339" t="s">
+        <v>30</v>
+      </c>
+      <c r="H339" s="1">
+        <v>0.95025353000000001</v>
+      </c>
+      <c r="I339">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340" t="s">
+        <v>75</v>
+      </c>
+      <c r="B340">
+        <v>50</v>
+      </c>
+      <c r="C340">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D340" t="s">
+        <v>29</v>
+      </c>
+      <c r="E340" t="s">
+        <v>27</v>
+      </c>
+      <c r="F340" t="s">
+        <v>28</v>
+      </c>
+      <c r="G340" t="s">
+        <v>30</v>
+      </c>
+      <c r="H340" s="1">
+        <v>0.95048401999999999</v>
+      </c>
+      <c r="I340">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="A341" t="s">
+        <v>75</v>
+      </c>
+      <c r="B341">
+        <v>50</v>
+      </c>
+      <c r="C341">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D341" t="s">
+        <v>29</v>
+      </c>
+      <c r="E341" t="s">
+        <v>27</v>
+      </c>
+      <c r="F341" t="s">
+        <v>28</v>
+      </c>
+      <c r="G341" t="s">
+        <v>30</v>
+      </c>
+      <c r="H341" s="1">
+        <v>0.95117547999999996</v>
+      </c>
+      <c r="I341">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" t="s">
+        <v>75</v>
+      </c>
+      <c r="B342">
+        <v>50</v>
+      </c>
+      <c r="C342">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D342" t="s">
+        <v>29</v>
+      </c>
+      <c r="E342" t="s">
+        <v>27</v>
+      </c>
+      <c r="F342" t="s">
+        <v>28</v>
+      </c>
+      <c r="G342" t="s">
+        <v>30</v>
+      </c>
+      <c r="H342" s="1">
+        <v>0.95117547999999996</v>
+      </c>
+      <c r="I342">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343" t="s">
+        <v>75</v>
+      </c>
+      <c r="B343">
+        <v>50</v>
+      </c>
+      <c r="C343">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D343" t="s">
+        <v>29</v>
+      </c>
+      <c r="E343" t="s">
+        <v>27</v>
+      </c>
+      <c r="F343" t="s">
+        <v>28</v>
+      </c>
+      <c r="G343" t="s">
+        <v>30</v>
+      </c>
+      <c r="H343" s="1">
+        <v>0.94956207999999998</v>
+      </c>
+      <c r="I343">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" t="s">
+        <v>75</v>
+      </c>
+      <c r="B344">
+        <v>50</v>
+      </c>
+      <c r="C344">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D344" t="s">
+        <v>29</v>
+      </c>
+      <c r="E344" t="s">
+        <v>27</v>
+      </c>
+      <c r="F344" t="s">
+        <v>28</v>
+      </c>
+      <c r="G344" t="s">
+        <v>30</v>
+      </c>
+      <c r="H344" s="1">
+        <v>0.95106022999999995</v>
+      </c>
+      <c r="I344">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" t="s">
+        <v>75</v>
+      </c>
+      <c r="B345">
+        <v>50</v>
+      </c>
+      <c r="C345">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D345" t="s">
+        <v>29</v>
+      </c>
+      <c r="E345" t="s">
+        <v>27</v>
+      </c>
+      <c r="F345" t="s">
+        <v>28</v>
+      </c>
+      <c r="G345" t="s">
+        <v>30</v>
+      </c>
+      <c r="H345" s="1">
+        <v>0.94641211000000003</v>
+      </c>
+      <c r="I345">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346" t="s">
+        <v>75</v>
+      </c>
+      <c r="B346">
+        <v>50</v>
+      </c>
+      <c r="C346">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D346" t="s">
+        <v>29</v>
+      </c>
+      <c r="E346" t="s">
+        <v>27</v>
+      </c>
+      <c r="F346" t="s">
+        <v>28</v>
+      </c>
+      <c r="G346" t="s">
+        <v>30</v>
+      </c>
+      <c r="H346" s="1">
+        <v>0.95167486000000001</v>
+      </c>
+      <c r="I346">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347" t="s">
+        <v>75</v>
+      </c>
+      <c r="B347">
+        <v>50</v>
+      </c>
+      <c r="C347">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D347" t="s">
+        <v>29</v>
+      </c>
+      <c r="E347" t="s">
+        <v>27</v>
+      </c>
+      <c r="F347" t="s">
+        <v>28</v>
+      </c>
+      <c r="G347" t="s">
+        <v>30</v>
+      </c>
+      <c r="H347" s="1">
+        <v>0.95021511999999997</v>
+      </c>
+      <c r="I347">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" t="s">
+        <v>75</v>
+      </c>
+      <c r="B348">
+        <v>50</v>
+      </c>
+      <c r="C348">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D348" t="s">
+        <v>29</v>
+      </c>
+      <c r="E348" t="s">
+        <v>27</v>
+      </c>
+      <c r="F348" t="s">
+        <v>28</v>
+      </c>
+      <c r="G348" t="s">
+        <v>30</v>
+      </c>
+      <c r="H348" s="1">
+        <v>0.95152119999999996</v>
+      </c>
+      <c r="I348">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" t="s">
+        <v>75</v>
+      </c>
+      <c r="B349">
+        <v>50</v>
+      </c>
+      <c r="C349">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D349" t="s">
+        <v>29</v>
+      </c>
+      <c r="E349" t="s">
+        <v>27</v>
+      </c>
+      <c r="F349" t="s">
+        <v>28</v>
+      </c>
+      <c r="G349" t="s">
+        <v>30</v>
+      </c>
+      <c r="H349" s="1">
+        <v>0.94675783999999996</v>
+      </c>
+      <c r="I349">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" t="s">
+        <v>75</v>
+      </c>
+      <c r="B350">
+        <v>50</v>
+      </c>
+      <c r="C350">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D350" t="s">
+        <v>29</v>
+      </c>
+      <c r="E350" t="s">
+        <v>27</v>
+      </c>
+      <c r="F350" t="s">
+        <v>28</v>
+      </c>
+      <c r="G350" t="s">
+        <v>30</v>
+      </c>
+      <c r="H350" s="1">
+        <v>0.94967732000000005</v>
+      </c>
+      <c r="I350">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" t="s">
+        <v>75</v>
+      </c>
+      <c r="B351">
+        <v>50</v>
+      </c>
+      <c r="C351">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D351" t="s">
+        <v>29</v>
+      </c>
+      <c r="E351" t="s">
+        <v>27</v>
+      </c>
+      <c r="F351" t="s">
+        <v>28</v>
+      </c>
+      <c r="G351" t="s">
+        <v>30</v>
+      </c>
+      <c r="H351" s="1">
+        <v>0.94794867999999999</v>
+      </c>
+      <c r="I351">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" t="s">
+        <v>75</v>
+      </c>
+      <c r="B352">
+        <v>50</v>
+      </c>
+      <c r="C352">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D352" t="s">
+        <v>29</v>
+      </c>
+      <c r="E352" t="s">
+        <v>27</v>
+      </c>
+      <c r="F352" t="s">
+        <v>28</v>
+      </c>
+      <c r="G352" t="s">
+        <v>30</v>
+      </c>
+      <c r="H352" s="1">
+        <v>0.95106022999999995</v>
+      </c>
+      <c r="I352">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" t="s">
+        <v>75</v>
+      </c>
+      <c r="B353">
+        <v>50</v>
+      </c>
+      <c r="C353">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D353" t="s">
+        <v>29</v>
+      </c>
+      <c r="E353" t="s">
+        <v>27</v>
+      </c>
+      <c r="F353" t="s">
+        <v>28</v>
+      </c>
+      <c r="G353" t="s">
+        <v>30</v>
+      </c>
+      <c r="H353" s="1">
+        <v>0.9523279</v>
+      </c>
+      <c r="I353">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" t="s">
+        <v>75</v>
+      </c>
+      <c r="B354">
+        <v>50</v>
+      </c>
+      <c r="C354">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D354" t="s">
+        <v>29</v>
+      </c>
+      <c r="E354" t="s">
+        <v>27</v>
+      </c>
+      <c r="F354" t="s">
+        <v>28</v>
+      </c>
+      <c r="G354" t="s">
+        <v>30</v>
+      </c>
+      <c r="H354" s="1">
+        <v>0.94929317999999996</v>
+      </c>
+      <c r="I354">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355" t="s">
+        <v>75</v>
+      </c>
+      <c r="B355">
+        <v>50</v>
+      </c>
+      <c r="C355">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D355" t="s">
+        <v>29</v>
+      </c>
+      <c r="E355" t="s">
+        <v>27</v>
+      </c>
+      <c r="F355" t="s">
+        <v>28</v>
+      </c>
+      <c r="G355" t="s">
+        <v>30</v>
+      </c>
+      <c r="H355" s="1">
+        <v>0.95244315000000002</v>
+      </c>
+      <c r="I355">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" t="s">
+        <v>75</v>
+      </c>
+      <c r="B356">
+        <v>50</v>
+      </c>
+      <c r="C356">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D356" t="s">
+        <v>29</v>
+      </c>
+      <c r="E356" t="s">
+        <v>27</v>
+      </c>
+      <c r="F356" t="s">
+        <v>28</v>
+      </c>
+      <c r="G356" t="s">
+        <v>30</v>
+      </c>
+      <c r="H356" s="1">
+        <v>0.94967732000000005</v>
+      </c>
+      <c r="I356">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="A357" t="s">
+        <v>75</v>
+      </c>
+      <c r="B357">
+        <v>50</v>
+      </c>
+      <c r="C357">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D357" t="s">
+        <v>29</v>
+      </c>
+      <c r="E357" t="s">
+        <v>27</v>
+      </c>
+      <c r="F357" t="s">
+        <v>28</v>
+      </c>
+      <c r="G357" t="s">
+        <v>30</v>
+      </c>
+      <c r="H357" s="1">
+        <v>0.95152119999999996</v>
+      </c>
+      <c r="I357">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="A358" t="s">
+        <v>75</v>
+      </c>
+      <c r="B358">
+        <v>50</v>
+      </c>
+      <c r="C358">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D358" t="s">
+        <v>29</v>
+      </c>
+      <c r="E358" t="s">
+        <v>27</v>
+      </c>
+      <c r="F358" t="s">
+        <v>28</v>
+      </c>
+      <c r="G358" t="s">
+        <v>30</v>
+      </c>
+      <c r="H358" s="1">
+        <v>0.95136754999999995</v>
+      </c>
+      <c r="I358">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" t="s">
+        <v>75</v>
+      </c>
+      <c r="B359">
+        <v>50</v>
+      </c>
+      <c r="C359">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D359" t="s">
+        <v>29</v>
+      </c>
+      <c r="E359" t="s">
+        <v>27</v>
+      </c>
+      <c r="F359" t="s">
+        <v>28</v>
+      </c>
+      <c r="G359" t="s">
+        <v>30</v>
+      </c>
+      <c r="H359" s="1">
+        <v>0.95179009999999997</v>
+      </c>
+      <c r="I359">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="A360" t="s">
+        <v>75</v>
+      </c>
+      <c r="B360">
+        <v>50</v>
+      </c>
+      <c r="C360">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D360" t="s">
+        <v>29</v>
+      </c>
+      <c r="E360" t="s">
+        <v>27</v>
+      </c>
+      <c r="F360" t="s">
+        <v>28</v>
+      </c>
+      <c r="G360" t="s">
+        <v>30</v>
+      </c>
+      <c r="H360" s="1">
+        <v>0.94817916000000002</v>
+      </c>
+      <c r="I360">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
+      <c r="A361" t="s">
+        <v>75</v>
+      </c>
+      <c r="B361">
+        <v>50</v>
+      </c>
+      <c r="C361">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D361" t="s">
+        <v>29</v>
+      </c>
+      <c r="E361" t="s">
+        <v>27</v>
+      </c>
+      <c r="F361" t="s">
+        <v>28</v>
+      </c>
+      <c r="G361" t="s">
+        <v>30</v>
+      </c>
+      <c r="H361" s="1">
+        <v>0.95271205000000003</v>
+      </c>
+      <c r="I361">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
+      <c r="A362" t="s">
+        <v>75</v>
+      </c>
+      <c r="B362">
+        <v>50</v>
+      </c>
+      <c r="C362">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D362" t="s">
+        <v>29</v>
+      </c>
+      <c r="E362" t="s">
+        <v>27</v>
+      </c>
+      <c r="F362" t="s">
+        <v>28</v>
+      </c>
+      <c r="G362" t="s">
+        <v>30</v>
+      </c>
+      <c r="H362" s="1">
+        <v>0.95363399000000004</v>
+      </c>
+      <c r="I362">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" t="s">
+        <v>75</v>
+      </c>
+      <c r="B363">
+        <v>50</v>
+      </c>
+      <c r="C363">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D363" t="s">
+        <v>29</v>
+      </c>
+      <c r="E363" t="s">
+        <v>27</v>
+      </c>
+      <c r="F363" t="s">
+        <v>28</v>
+      </c>
+      <c r="G363" t="s">
+        <v>30</v>
+      </c>
+      <c r="H363" s="1">
+        <v>0.94860171999999998</v>
+      </c>
+      <c r="I363">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="A364" t="s">
+        <v>75</v>
+      </c>
+      <c r="B364">
+        <v>50</v>
+      </c>
+      <c r="C364">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D364" t="s">
+        <v>29</v>
+      </c>
+      <c r="E364" t="s">
+        <v>27</v>
+      </c>
+      <c r="F364" t="s">
+        <v>28</v>
+      </c>
+      <c r="G364" t="s">
+        <v>30</v>
+      </c>
+      <c r="H364" s="1">
+        <v>0.95259680000000002</v>
+      </c>
+      <c r="I364">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" t="s">
+        <v>75</v>
+      </c>
+      <c r="B365">
+        <v>50</v>
+      </c>
+      <c r="C365">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D365" t="s">
+        <v>29</v>
+      </c>
+      <c r="E365" t="s">
+        <v>27</v>
+      </c>
+      <c r="F365" t="s">
+        <v>28</v>
+      </c>
+      <c r="G365" t="s">
+        <v>30</v>
+      </c>
+      <c r="H365" s="1">
+        <v>0.95036878000000002</v>
+      </c>
+      <c r="I365">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" t="s">
+        <v>76</v>
+      </c>
+      <c r="B366">
+        <v>50</v>
+      </c>
+      <c r="C366">
+        <v>0.01</v>
+      </c>
+      <c r="D366" t="s">
+        <v>29</v>
+      </c>
+      <c r="E366" t="s">
+        <v>27</v>
+      </c>
+      <c r="F366" t="s">
+        <v>28</v>
+      </c>
+      <c r="G366" t="s">
+        <v>77</v>
+      </c>
+      <c r="H366" s="1">
+        <v>0.88352797000000005</v>
+      </c>
+      <c r="I366">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="A367" t="s">
+        <v>76</v>
+      </c>
+      <c r="B367">
+        <v>50</v>
+      </c>
+      <c r="C367">
+        <v>0.01</v>
+      </c>
+      <c r="D367" t="s">
+        <v>29</v>
+      </c>
+      <c r="E367" t="s">
+        <v>27</v>
+      </c>
+      <c r="F367" t="s">
+        <v>28</v>
+      </c>
+      <c r="G367" t="s">
+        <v>77</v>
+      </c>
+      <c r="H367" s="1">
+        <v>7.6905349999999997E-2</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" t="s">
+        <v>76</v>
+      </c>
+      <c r="B368">
+        <v>50</v>
+      </c>
+      <c r="C368">
+        <v>0.01</v>
+      </c>
+      <c r="D368" t="s">
+        <v>29</v>
+      </c>
+      <c r="E368" t="s">
+        <v>27</v>
+      </c>
+      <c r="F368" t="s">
+        <v>28</v>
+      </c>
+      <c r="G368" t="s">
+        <v>77</v>
+      </c>
+      <c r="H368" s="1">
+        <v>0.82786570000000004</v>
+      </c>
+      <c r="I368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" t="s">
+        <v>76</v>
+      </c>
+      <c r="B369">
+        <v>50</v>
+      </c>
+      <c r="C369">
+        <v>0.01</v>
+      </c>
+      <c r="D369" t="s">
+        <v>29</v>
+      </c>
+      <c r="E369" t="s">
+        <v>27</v>
+      </c>
+      <c r="F369" t="s">
+        <v>28</v>
+      </c>
+      <c r="G369" t="s">
+        <v>77</v>
+      </c>
+      <c r="H369" s="1">
+        <v>0.77408573999999997</v>
+      </c>
+      <c r="I369">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370" t="s">
+        <v>76</v>
+      </c>
+      <c r="B370">
+        <v>50</v>
+      </c>
+      <c r="C370">
+        <v>0.01</v>
+      </c>
+      <c r="D370" t="s">
+        <v>29</v>
+      </c>
+      <c r="E370" t="s">
+        <v>27</v>
+      </c>
+      <c r="F370" t="s">
+        <v>28</v>
+      </c>
+      <c r="G370" t="s">
+        <v>77</v>
+      </c>
+      <c r="H370" s="1">
+        <v>0.68515672999999999</v>
+      </c>
+      <c r="I370">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371" t="s">
+        <v>76</v>
+      </c>
+      <c r="B371">
+        <v>50</v>
+      </c>
+      <c r="C371">
+        <v>0.01</v>
+      </c>
+      <c r="D371" t="s">
+        <v>29</v>
+      </c>
+      <c r="E371" t="s">
+        <v>27</v>
+      </c>
+      <c r="F371" t="s">
+        <v>28</v>
+      </c>
+      <c r="G371" t="s">
+        <v>77</v>
+      </c>
+      <c r="H371" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I371">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="A372" t="s">
+        <v>76</v>
+      </c>
+      <c r="B372">
+        <v>50</v>
+      </c>
+      <c r="C372">
+        <v>0.01</v>
+      </c>
+      <c r="D372" t="s">
+        <v>29</v>
+      </c>
+      <c r="E372" t="s">
+        <v>27</v>
+      </c>
+      <c r="F372" t="s">
+        <v>28</v>
+      </c>
+      <c r="G372" t="s">
+        <v>77</v>
+      </c>
+      <c r="H372" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I372">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
+      <c r="A373" t="s">
+        <v>76</v>
+      </c>
+      <c r="B373">
+        <v>50</v>
+      </c>
+      <c r="C373">
+        <v>0.01</v>
+      </c>
+      <c r="D373" t="s">
+        <v>29</v>
+      </c>
+      <c r="E373" t="s">
+        <v>27</v>
+      </c>
+      <c r="F373" t="s">
+        <v>28</v>
+      </c>
+      <c r="G373" t="s">
+        <v>77</v>
+      </c>
+      <c r="H373" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I373">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" t="s">
+        <v>76</v>
+      </c>
+      <c r="B374">
+        <v>50</v>
+      </c>
+      <c r="C374">
+        <v>0.01</v>
+      </c>
+      <c r="D374" t="s">
+        <v>29</v>
+      </c>
+      <c r="E374" t="s">
+        <v>27</v>
+      </c>
+      <c r="F374" t="s">
+        <v>28</v>
+      </c>
+      <c r="G374" t="s">
+        <v>77</v>
+      </c>
+      <c r="H374" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I374">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" t="s">
+        <v>76</v>
+      </c>
+      <c r="B375">
+        <v>50</v>
+      </c>
+      <c r="C375">
+        <v>0.01</v>
+      </c>
+      <c r="D375" t="s">
+        <v>29</v>
+      </c>
+      <c r="E375" t="s">
+        <v>27</v>
+      </c>
+      <c r="F375" t="s">
+        <v>28</v>
+      </c>
+      <c r="G375" t="s">
+        <v>77</v>
+      </c>
+      <c r="H375" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I375">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="A376" t="s">
+        <v>76</v>
+      </c>
+      <c r="B376">
+        <v>50</v>
+      </c>
+      <c r="C376">
+        <v>0.01</v>
+      </c>
+      <c r="D376" t="s">
+        <v>29</v>
+      </c>
+      <c r="E376" t="s">
+        <v>27</v>
+      </c>
+      <c r="F376" t="s">
+        <v>28</v>
+      </c>
+      <c r="G376" t="s">
+        <v>77</v>
+      </c>
+      <c r="H376" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I376">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="A377" t="s">
+        <v>76</v>
+      </c>
+      <c r="B377">
+        <v>50</v>
+      </c>
+      <c r="C377">
+        <v>0.01</v>
+      </c>
+      <c r="D377" t="s">
+        <v>29</v>
+      </c>
+      <c r="E377" t="s">
+        <v>27</v>
+      </c>
+      <c r="F377" t="s">
+        <v>28</v>
+      </c>
+      <c r="G377" t="s">
+        <v>77</v>
+      </c>
+      <c r="H377" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I377">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" t="s">
+        <v>76</v>
+      </c>
+      <c r="B378">
+        <v>50</v>
+      </c>
+      <c r="C378">
+        <v>0.01</v>
+      </c>
+      <c r="D378" t="s">
+        <v>29</v>
+      </c>
+      <c r="E378" t="s">
+        <v>27</v>
+      </c>
+      <c r="F378" t="s">
+        <v>28</v>
+      </c>
+      <c r="G378" t="s">
+        <v>77</v>
+      </c>
+      <c r="H378" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I378">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" t="s">
+        <v>76</v>
+      </c>
+      <c r="B379">
+        <v>50</v>
+      </c>
+      <c r="C379">
+        <v>0.01</v>
+      </c>
+      <c r="D379" t="s">
+        <v>29</v>
+      </c>
+      <c r="E379" t="s">
+        <v>27</v>
+      </c>
+      <c r="F379" t="s">
+        <v>28</v>
+      </c>
+      <c r="G379" t="s">
+        <v>77</v>
+      </c>
+      <c r="H379" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I379">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" t="s">
+        <v>76</v>
+      </c>
+      <c r="B380">
+        <v>50</v>
+      </c>
+      <c r="C380">
+        <v>0.01</v>
+      </c>
+      <c r="D380" t="s">
+        <v>29</v>
+      </c>
+      <c r="E380" t="s">
+        <v>27</v>
+      </c>
+      <c r="F380" t="s">
+        <v>28</v>
+      </c>
+      <c r="G380" t="s">
+        <v>77</v>
+      </c>
+      <c r="H380" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I380">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" t="s">
+        <v>76</v>
+      </c>
+      <c r="B381">
+        <v>50</v>
+      </c>
+      <c r="C381">
+        <v>0.01</v>
+      </c>
+      <c r="D381" t="s">
+        <v>29</v>
+      </c>
+      <c r="E381" t="s">
+        <v>27</v>
+      </c>
+      <c r="F381" t="s">
+        <v>28</v>
+      </c>
+      <c r="G381" t="s">
+        <v>77</v>
+      </c>
+      <c r="H381" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I381">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" t="s">
+        <v>76</v>
+      </c>
+      <c r="B382">
+        <v>50</v>
+      </c>
+      <c r="C382">
+        <v>0.01</v>
+      </c>
+      <c r="D382" t="s">
+        <v>29</v>
+      </c>
+      <c r="E382" t="s">
+        <v>27</v>
+      </c>
+      <c r="F382" t="s">
+        <v>28</v>
+      </c>
+      <c r="G382" t="s">
+        <v>77</v>
+      </c>
+      <c r="H382" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I382">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" t="s">
+        <v>76</v>
+      </c>
+      <c r="B383">
+        <v>50</v>
+      </c>
+      <c r="C383">
+        <v>0.01</v>
+      </c>
+      <c r="D383" t="s">
+        <v>29</v>
+      </c>
+      <c r="E383" t="s">
+        <v>27</v>
+      </c>
+      <c r="F383" t="s">
+        <v>28</v>
+      </c>
+      <c r="G383" t="s">
+        <v>77</v>
+      </c>
+      <c r="H383" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I383">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="A384" t="s">
+        <v>76</v>
+      </c>
+      <c r="B384">
+        <v>50</v>
+      </c>
+      <c r="C384">
+        <v>0.01</v>
+      </c>
+      <c r="D384" t="s">
+        <v>29</v>
+      </c>
+      <c r="E384" t="s">
+        <v>27</v>
+      </c>
+      <c r="F384" t="s">
+        <v>28</v>
+      </c>
+      <c r="G384" t="s">
+        <v>77</v>
+      </c>
+      <c r="H384" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I384">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="A385" t="s">
+        <v>76</v>
+      </c>
+      <c r="B385">
+        <v>50</v>
+      </c>
+      <c r="C385">
+        <v>0.01</v>
+      </c>
+      <c r="D385" t="s">
+        <v>29</v>
+      </c>
+      <c r="E385" t="s">
+        <v>27</v>
+      </c>
+      <c r="F385" t="s">
+        <v>28</v>
+      </c>
+      <c r="G385" t="s">
+        <v>77</v>
+      </c>
+      <c r="H385" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I385">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
+      <c r="A386" t="s">
+        <v>76</v>
+      </c>
+      <c r="B386">
+        <v>50</v>
+      </c>
+      <c r="C386">
+        <v>0.01</v>
+      </c>
+      <c r="D386" t="s">
+        <v>29</v>
+      </c>
+      <c r="E386" t="s">
+        <v>27</v>
+      </c>
+      <c r="F386" t="s">
+        <v>28</v>
+      </c>
+      <c r="G386" t="s">
+        <v>77</v>
+      </c>
+      <c r="H386" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I386">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9">
+      <c r="A387" t="s">
+        <v>76</v>
+      </c>
+      <c r="B387">
+        <v>50</v>
+      </c>
+      <c r="C387">
+        <v>0.01</v>
+      </c>
+      <c r="D387" t="s">
+        <v>29</v>
+      </c>
+      <c r="E387" t="s">
+        <v>27</v>
+      </c>
+      <c r="F387" t="s">
+        <v>28</v>
+      </c>
+      <c r="G387" t="s">
+        <v>77</v>
+      </c>
+      <c r="H387" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I387">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9">
+      <c r="A388" t="s">
+        <v>76</v>
+      </c>
+      <c r="B388">
+        <v>50</v>
+      </c>
+      <c r="C388">
+        <v>0.01</v>
+      </c>
+      <c r="D388" t="s">
+        <v>29</v>
+      </c>
+      <c r="E388" t="s">
+        <v>27</v>
+      </c>
+      <c r="F388" t="s">
+        <v>28</v>
+      </c>
+      <c r="G388" t="s">
+        <v>77</v>
+      </c>
+      <c r="H388" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I388">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="A389" t="s">
+        <v>76</v>
+      </c>
+      <c r="B389">
+        <v>50</v>
+      </c>
+      <c r="C389">
+        <v>0.01</v>
+      </c>
+      <c r="D389" t="s">
+        <v>29</v>
+      </c>
+      <c r="E389" t="s">
+        <v>27</v>
+      </c>
+      <c r="F389" t="s">
+        <v>28</v>
+      </c>
+      <c r="G389" t="s">
+        <v>77</v>
+      </c>
+      <c r="H389" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I389">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9">
+      <c r="A390" t="s">
+        <v>76</v>
+      </c>
+      <c r="B390">
+        <v>50</v>
+      </c>
+      <c r="C390">
+        <v>0.01</v>
+      </c>
+      <c r="D390" t="s">
+        <v>29</v>
+      </c>
+      <c r="E390" t="s">
+        <v>27</v>
+      </c>
+      <c r="F390" t="s">
+        <v>28</v>
+      </c>
+      <c r="G390" t="s">
+        <v>77</v>
+      </c>
+      <c r="H390" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I390">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
+      <c r="A391" t="s">
+        <v>76</v>
+      </c>
+      <c r="B391">
+        <v>50</v>
+      </c>
+      <c r="C391">
+        <v>0.01</v>
+      </c>
+      <c r="D391" t="s">
+        <v>29</v>
+      </c>
+      <c r="E391" t="s">
+        <v>27</v>
+      </c>
+      <c r="F391" t="s">
+        <v>28</v>
+      </c>
+      <c r="G391" t="s">
+        <v>77</v>
+      </c>
+      <c r="H391" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I391">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
+      <c r="A392" t="s">
+        <v>76</v>
+      </c>
+      <c r="B392">
+        <v>50</v>
+      </c>
+      <c r="C392">
+        <v>0.01</v>
+      </c>
+      <c r="D392" t="s">
+        <v>29</v>
+      </c>
+      <c r="E392" t="s">
+        <v>27</v>
+      </c>
+      <c r="F392" t="s">
+        <v>28</v>
+      </c>
+      <c r="G392" t="s">
+        <v>77</v>
+      </c>
+      <c r="H392" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I392">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
+      <c r="A393" t="s">
+        <v>76</v>
+      </c>
+      <c r="B393">
+        <v>50</v>
+      </c>
+      <c r="C393">
+        <v>0.01</v>
+      </c>
+      <c r="D393" t="s">
+        <v>29</v>
+      </c>
+      <c r="E393" t="s">
+        <v>27</v>
+      </c>
+      <c r="F393" t="s">
+        <v>28</v>
+      </c>
+      <c r="G393" t="s">
+        <v>77</v>
+      </c>
+      <c r="H393" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I393">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394" t="s">
+        <v>76</v>
+      </c>
+      <c r="B394">
+        <v>50</v>
+      </c>
+      <c r="C394">
+        <v>0.01</v>
+      </c>
+      <c r="D394" t="s">
+        <v>29</v>
+      </c>
+      <c r="E394" t="s">
+        <v>27</v>
+      </c>
+      <c r="F394" t="s">
+        <v>28</v>
+      </c>
+      <c r="G394" t="s">
+        <v>77</v>
+      </c>
+      <c r="H394" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I394">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
+      <c r="A395" t="s">
+        <v>76</v>
+      </c>
+      <c r="B395">
+        <v>50</v>
+      </c>
+      <c r="C395">
+        <v>0.01</v>
+      </c>
+      <c r="D395" t="s">
+        <v>29</v>
+      </c>
+      <c r="E395" t="s">
+        <v>27</v>
+      </c>
+      <c r="F395" t="s">
+        <v>28</v>
+      </c>
+      <c r="G395" t="s">
+        <v>77</v>
+      </c>
+      <c r="H395" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I395">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396" t="s">
+        <v>76</v>
+      </c>
+      <c r="B396">
+        <v>50</v>
+      </c>
+      <c r="C396">
+        <v>0.01</v>
+      </c>
+      <c r="D396" t="s">
+        <v>29</v>
+      </c>
+      <c r="E396" t="s">
+        <v>27</v>
+      </c>
+      <c r="F396" t="s">
+        <v>28</v>
+      </c>
+      <c r="G396" t="s">
+        <v>77</v>
+      </c>
+      <c r="H396" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I396">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397" t="s">
+        <v>76</v>
+      </c>
+      <c r="B397">
+        <v>50</v>
+      </c>
+      <c r="C397">
+        <v>0.01</v>
+      </c>
+      <c r="D397" t="s">
+        <v>29</v>
+      </c>
+      <c r="E397" t="s">
+        <v>27</v>
+      </c>
+      <c r="F397" t="s">
+        <v>28</v>
+      </c>
+      <c r="G397" t="s">
+        <v>77</v>
+      </c>
+      <c r="H397" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I397">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
+      <c r="A398" t="s">
+        <v>76</v>
+      </c>
+      <c r="B398">
+        <v>50</v>
+      </c>
+      <c r="C398">
+        <v>0.01</v>
+      </c>
+      <c r="D398" t="s">
+        <v>29</v>
+      </c>
+      <c r="E398" t="s">
+        <v>27</v>
+      </c>
+      <c r="F398" t="s">
+        <v>28</v>
+      </c>
+      <c r="G398" t="s">
+        <v>77</v>
+      </c>
+      <c r="H398" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I398">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
+      <c r="A399" t="s">
+        <v>76</v>
+      </c>
+      <c r="B399">
+        <v>50</v>
+      </c>
+      <c r="C399">
+        <v>0.01</v>
+      </c>
+      <c r="D399" t="s">
+        <v>29</v>
+      </c>
+      <c r="E399" t="s">
+        <v>27</v>
+      </c>
+      <c r="F399" t="s">
+        <v>28</v>
+      </c>
+      <c r="G399" t="s">
+        <v>77</v>
+      </c>
+      <c r="H399" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I399">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9">
+      <c r="A400" t="s">
+        <v>76</v>
+      </c>
+      <c r="B400">
+        <v>50</v>
+      </c>
+      <c r="C400">
+        <v>0.01</v>
+      </c>
+      <c r="D400" t="s">
+        <v>29</v>
+      </c>
+      <c r="E400" t="s">
+        <v>27</v>
+      </c>
+      <c r="F400" t="s">
+        <v>28</v>
+      </c>
+      <c r="G400" t="s">
+        <v>77</v>
+      </c>
+      <c r="H400" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I400">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
+      <c r="A401" t="s">
+        <v>76</v>
+      </c>
+      <c r="B401">
+        <v>50</v>
+      </c>
+      <c r="C401">
+        <v>0.01</v>
+      </c>
+      <c r="D401" t="s">
+        <v>29</v>
+      </c>
+      <c r="E401" t="s">
+        <v>27</v>
+      </c>
+      <c r="F401" t="s">
+        <v>28</v>
+      </c>
+      <c r="G401" t="s">
+        <v>77</v>
+      </c>
+      <c r="H401" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I401">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9">
+      <c r="A402" t="s">
+        <v>76</v>
+      </c>
+      <c r="B402">
+        <v>50</v>
+      </c>
+      <c r="C402">
+        <v>0.01</v>
+      </c>
+      <c r="D402" t="s">
+        <v>29</v>
+      </c>
+      <c r="E402" t="s">
+        <v>27</v>
+      </c>
+      <c r="F402" t="s">
+        <v>28</v>
+      </c>
+      <c r="G402" t="s">
+        <v>77</v>
+      </c>
+      <c r="H402" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I402">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9">
+      <c r="A403" t="s">
+        <v>76</v>
+      </c>
+      <c r="B403">
+        <v>50</v>
+      </c>
+      <c r="C403">
+        <v>0.01</v>
+      </c>
+      <c r="D403" t="s">
+        <v>29</v>
+      </c>
+      <c r="E403" t="s">
+        <v>27</v>
+      </c>
+      <c r="F403" t="s">
+        <v>28</v>
+      </c>
+      <c r="G403" t="s">
+        <v>77</v>
+      </c>
+      <c r="H403" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I403">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9">
+      <c r="A404" t="s">
+        <v>76</v>
+      </c>
+      <c r="B404">
+        <v>50</v>
+      </c>
+      <c r="C404">
+        <v>0.01</v>
+      </c>
+      <c r="D404" t="s">
+        <v>29</v>
+      </c>
+      <c r="E404" t="s">
+        <v>27</v>
+      </c>
+      <c r="F404" t="s">
+        <v>28</v>
+      </c>
+      <c r="G404" t="s">
+        <v>77</v>
+      </c>
+      <c r="H404" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I404">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9">
+      <c r="A405" t="s">
+        <v>76</v>
+      </c>
+      <c r="B405">
+        <v>50</v>
+      </c>
+      <c r="C405">
+        <v>0.01</v>
+      </c>
+      <c r="D405" t="s">
+        <v>29</v>
+      </c>
+      <c r="E405" t="s">
+        <v>27</v>
+      </c>
+      <c r="F405" t="s">
+        <v>28</v>
+      </c>
+      <c r="G405" t="s">
+        <v>77</v>
+      </c>
+      <c r="H405" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I405">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9">
+      <c r="A406" t="s">
+        <v>76</v>
+      </c>
+      <c r="B406">
+        <v>50</v>
+      </c>
+      <c r="C406">
+        <v>0.01</v>
+      </c>
+      <c r="D406" t="s">
+        <v>29</v>
+      </c>
+      <c r="E406" t="s">
+        <v>27</v>
+      </c>
+      <c r="F406" t="s">
+        <v>28</v>
+      </c>
+      <c r="G406" t="s">
+        <v>77</v>
+      </c>
+      <c r="H406" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I406">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
+      <c r="A407" t="s">
+        <v>76</v>
+      </c>
+      <c r="B407">
+        <v>50</v>
+      </c>
+      <c r="C407">
+        <v>0.01</v>
+      </c>
+      <c r="D407" t="s">
+        <v>29</v>
+      </c>
+      <c r="E407" t="s">
+        <v>27</v>
+      </c>
+      <c r="F407" t="s">
+        <v>28</v>
+      </c>
+      <c r="G407" t="s">
+        <v>77</v>
+      </c>
+      <c r="H407" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I407">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
+      <c r="A408" t="s">
+        <v>76</v>
+      </c>
+      <c r="B408">
+        <v>50</v>
+      </c>
+      <c r="C408">
+        <v>0.01</v>
+      </c>
+      <c r="D408" t="s">
+        <v>29</v>
+      </c>
+      <c r="E408" t="s">
+        <v>27</v>
+      </c>
+      <c r="F408" t="s">
+        <v>28</v>
+      </c>
+      <c r="G408" t="s">
+        <v>77</v>
+      </c>
+      <c r="H408" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I408">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9">
+      <c r="A409" t="s">
+        <v>76</v>
+      </c>
+      <c r="B409">
+        <v>50</v>
+      </c>
+      <c r="C409">
+        <v>0.01</v>
+      </c>
+      <c r="D409" t="s">
+        <v>29</v>
+      </c>
+      <c r="E409" t="s">
+        <v>27</v>
+      </c>
+      <c r="F409" t="s">
+        <v>28</v>
+      </c>
+      <c r="G409" t="s">
+        <v>77</v>
+      </c>
+      <c r="H409" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I409">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
+      <c r="A410" t="s">
+        <v>76</v>
+      </c>
+      <c r="B410">
+        <v>50</v>
+      </c>
+      <c r="C410">
+        <v>0.01</v>
+      </c>
+      <c r="D410" t="s">
+        <v>29</v>
+      </c>
+      <c r="E410" t="s">
+        <v>27</v>
+      </c>
+      <c r="F410" t="s">
+        <v>28</v>
+      </c>
+      <c r="G410" t="s">
+        <v>77</v>
+      </c>
+      <c r="H410" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I410">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9">
+      <c r="A411" t="s">
+        <v>76</v>
+      </c>
+      <c r="B411">
+        <v>50</v>
+      </c>
+      <c r="C411">
+        <v>0.01</v>
+      </c>
+      <c r="D411" t="s">
+        <v>29</v>
+      </c>
+      <c r="E411" t="s">
+        <v>27</v>
+      </c>
+      <c r="F411" t="s">
+        <v>28</v>
+      </c>
+      <c r="G411" t="s">
+        <v>77</v>
+      </c>
+      <c r="H411" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I411">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9">
+      <c r="A412" t="s">
+        <v>76</v>
+      </c>
+      <c r="B412">
+        <v>50</v>
+      </c>
+      <c r="C412">
+        <v>0.01</v>
+      </c>
+      <c r="D412" t="s">
+        <v>29</v>
+      </c>
+      <c r="E412" t="s">
+        <v>27</v>
+      </c>
+      <c r="F412" t="s">
+        <v>28</v>
+      </c>
+      <c r="G412" t="s">
+        <v>77</v>
+      </c>
+      <c r="H412" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I412">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9">
+      <c r="A413" t="s">
+        <v>76</v>
+      </c>
+      <c r="B413">
+        <v>50</v>
+      </c>
+      <c r="C413">
+        <v>0.01</v>
+      </c>
+      <c r="D413" t="s">
+        <v>29</v>
+      </c>
+      <c r="E413" t="s">
+        <v>27</v>
+      </c>
+      <c r="F413" t="s">
+        <v>28</v>
+      </c>
+      <c r="G413" t="s">
+        <v>77</v>
+      </c>
+      <c r="H413" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I413">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9">
+      <c r="A414" t="s">
+        <v>76</v>
+      </c>
+      <c r="B414">
+        <v>50</v>
+      </c>
+      <c r="C414">
+        <v>0.01</v>
+      </c>
+      <c r="D414" t="s">
+        <v>29</v>
+      </c>
+      <c r="E414" t="s">
+        <v>27</v>
+      </c>
+      <c r="F414" t="s">
+        <v>28</v>
+      </c>
+      <c r="G414" t="s">
+        <v>77</v>
+      </c>
+      <c r="H414" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I414">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9">
+      <c r="A415" t="s">
+        <v>76</v>
+      </c>
+      <c r="B415">
+        <v>50</v>
+      </c>
+      <c r="C415">
+        <v>0.01</v>
+      </c>
+      <c r="D415" t="s">
+        <v>29</v>
+      </c>
+      <c r="E415" t="s">
+        <v>27</v>
+      </c>
+      <c r="F415" t="s">
+        <v>28</v>
+      </c>
+      <c r="G415" t="s">
+        <v>77</v>
+      </c>
+      <c r="H415" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I415">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9">
+      <c r="A416" t="s">
+        <v>76</v>
+      </c>
+      <c r="B416">
+        <v>50</v>
+      </c>
+      <c r="C416">
+        <v>0.01</v>
+      </c>
+      <c r="D416" t="s">
+        <v>29</v>
+      </c>
+      <c r="E416" t="s">
+        <v>27</v>
+      </c>
+      <c r="F416" t="s">
+        <v>28</v>
+      </c>
+      <c r="G416" t="s">
+        <v>77</v>
+      </c>
+      <c r="H416" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I416">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9">
+      <c r="A417" t="s">
+        <v>76</v>
+      </c>
+      <c r="B417">
+        <v>50</v>
+      </c>
+      <c r="C417">
+        <v>0.01</v>
+      </c>
+      <c r="D417" t="s">
+        <v>29</v>
+      </c>
+      <c r="E417" t="s">
+        <v>27</v>
+      </c>
+      <c r="F417" t="s">
+        <v>28</v>
+      </c>
+      <c r="G417" t="s">
+        <v>77</v>
+      </c>
+      <c r="H417" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I417">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I53">
+  <autoFilter ref="A1:I157">
     <sortState ref="A2:I53">
       <sortCondition ref="I1:I53"/>
     </sortState>
@@ -19997,4 +27802,454 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.93972803000000005</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="H3" s="1">
+        <v>0.19080363</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="H4" s="1">
+        <v>0.92635986000000003</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="H5" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="H6" s="1">
+        <v>0.91902273999999995</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="H7" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="H8" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="H9" s="1">
+        <v>0.93369698999999995</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="H10" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="H11" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="H12" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="H13" s="1">
+        <v>0.93216041999999999</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="H14" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="H15" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="H16" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9">
+      <c r="H17" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9">
+      <c r="H18" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9">
+      <c r="H19" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I19">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9">
+      <c r="H20" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9">
+      <c r="H21" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I21">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9">
+      <c r="H22" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9">
+      <c r="H23" s="1">
+        <v>0.19587431</v>
+      </c>
+      <c r="I23">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="8:9">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="8:9">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="8:9">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="8:9">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="8:9">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="8:9">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="8:9">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="8:9">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34">
+        <v>50</v>
+      </c>
+      <c r="C34">
+        <v>1E-3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>1E-3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36">
+        <v>50</v>
+      </c>
+      <c r="C36">
+        <v>0.01</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>0.01</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40">
+        <v>50</v>
+      </c>
+      <c r="C40">
+        <v>1E-3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>